--- a/resdataASW_all_m3.xlsx
+++ b/resdataASW_all_m3.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OparinMV\Documents\GitHub\GZ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E7225E-972E-4A4D-85C0-B3F927E5C30C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD6E9CC-079A-4E51-8F27-2A85CC5DE97B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="140m3" sheetId="4" r:id="rId1"/>
-    <sheet name="250m3" sheetId="5" r:id="rId2"/>
-    <sheet name="400m3" sheetId="6" r:id="rId3"/>
-    <sheet name="565m3" sheetId="7" r:id="rId4"/>
-    <sheet name="Обработка" sheetId="8" r:id="rId5"/>
-    <sheet name="Деньги" sheetId="9" r:id="rId6"/>
+    <sheet name="140m3" sheetId="1" r:id="rId1"/>
+    <sheet name="250m3" sheetId="2" r:id="rId2"/>
+    <sheet name="400m3" sheetId="3" r:id="rId3"/>
+    <sheet name="565m3" sheetId="4" r:id="rId4"/>
+    <sheet name="Обработка" sheetId="5" r:id="rId5"/>
+    <sheet name="Деньги" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="76">
   <si>
     <t>T_air</t>
   </si>
@@ -67,9 +67,6 @@
     <t>ASW_Qt</t>
   </si>
   <si>
-    <t>М</t>
-  </si>
-  <si>
     <t>ASW_bull</t>
   </si>
   <si>
@@ -83,6 +80,9 @@
   </si>
   <si>
     <t>Calculate_minimum</t>
+  </si>
+  <si>
+    <t>G_ASW</t>
   </si>
   <si>
     <t>Бак аккумулятор под давлением</t>
@@ -269,7 +269,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -285,6 +285,11 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
@@ -330,7 +335,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -383,11 +388,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -411,6 +431,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -561,19 +584,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>9.8616000000000099</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.3731000000000222</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.4755999999999858</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-4.556399999999968</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-7.1284000000000276</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -581,7 +604,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-287E-44D3-AD02-6CE9C005035F}"/>
+              <c16:uniqueId val="{00000000-3ADC-46EC-B9FA-60EA11A6624E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -646,19 +669,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>24.112700000000046</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-6.0783999999999878</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-38.81880000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-25.815500000000014</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -666,7 +689,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-287E-44D3-AD02-6CE9C005035F}"/>
+              <c16:uniqueId val="{00000001-3ADC-46EC-B9FA-60EA11A6624E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -731,19 +754,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.5261000000000138</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0105999999999824</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.6256000000000199</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.0579000000000178</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.211199999999991</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -751,7 +774,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-287E-44D3-AD02-6CE9C005035F}"/>
+              <c16:uniqueId val="{00000002-3ADC-46EC-B9FA-60EA11A6624E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -816,19 +839,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>8.5399000000000456</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-13.270700000000005</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-12.860099999999989</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-14.147199999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -836,7 +859,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-287E-44D3-AD02-6CE9C005035F}"/>
+              <c16:uniqueId val="{00000003-3ADC-46EC-B9FA-60EA11A6624E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1227,19 +1250,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>678.90364985102883</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>591.23143934863026</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>523.83745455115923</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>505.75089331009315</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>540.15917171440617</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1247,7 +1270,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B949-47D6-89FF-19B232710EF0}"/>
+              <c16:uniqueId val="{00000000-CA8A-4AE8-A580-A054833AEEDF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1296,19 +1319,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>666.92614392067162</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>574.54863468428368</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>519.4732999466288</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>530.31137339868405</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>558.80795120928269</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1316,7 +1339,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B949-47D6-89FF-19B232710EF0}"/>
+              <c16:uniqueId val="{00000001-CA8A-4AE8-A580-A054833AEEDF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1365,19 +1388,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>656.32374381196814</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>482.82566107095363</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>495.04051347110794</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>538.05965607114365</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1385,7 +1408,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-B949-47D6-89FF-19B232710EF0}"/>
+              <c16:uniqueId val="{00000002-CA8A-4AE8-A580-A054833AEEDF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1840,19 +1863,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>9.8616000000000099</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.3731000000000222</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.4755999999999858</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-4.6012999999999806</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-7.1602000000000317</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1860,7 +1883,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4E16-4525-A8F2-D0618FA0C6A7}"/>
+              <c16:uniqueId val="{00000000-A4DB-4BEE-B436-97D72171947D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1925,19 +1948,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>24.112700000000046</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.8400000000000318</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-6.0783999999999878</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-41.108200000000011</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-29.020099999999985</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1945,7 +1968,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4E16-4525-A8F2-D0618FA0C6A7}"/>
+              <c16:uniqueId val="{00000001-A4DB-4BEE-B436-97D72171947D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2010,19 +2033,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.507300000000015</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.9832999999999856</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.6085000000000207</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.0392000000000223</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.1922999999999888</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2030,7 +2053,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-4E16-4525-A8F2-D0618FA0C6A7}"/>
+              <c16:uniqueId val="{00000002-A4DB-4BEE-B436-97D72171947D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2095,19 +2118,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>5.5976000000000283</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-5.6880999999999631</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-15.090100000000035</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-13.613699999999994</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-14.301699999999954</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2115,7 +2138,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-4E16-4525-A8F2-D0618FA0C6A7}"/>
+              <c16:uniqueId val="{00000003-A4DB-4BEE-B436-97D72171947D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2522,19 +2545,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>215.7191</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>215.52710000000002</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>210.67279999999997</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>206.37070000000003</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>206.44629999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2542,7 +2565,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B344-48D0-AC8E-00F0CE1869DC}"/>
+              <c16:uniqueId val="{00000000-A470-45BA-8C10-70735F4A0550}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2607,19 +2630,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>222.9496</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>221.1276</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>215.876</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>183.66489999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>196.72949999999997</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2627,7 +2650,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B344-48D0-AC8E-00F0CE1869DC}"/>
+              <c16:uniqueId val="{00000001-A470-45BA-8C10-70735F4A0550}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2692,19 +2715,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>208.3836</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>211.16459999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>213.8228</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>215.98500000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>215.7859</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2712,7 +2735,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-B344-48D0-AC8E-00F0CE1869DC}"/>
+              <c16:uniqueId val="{00000002-A470-45BA-8C10-70735F4A0550}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2777,19 +2800,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>207.3768</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>208.4872</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>208.68369999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>209.62360000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>208.39779999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2797,7 +2820,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-B344-48D0-AC8E-00F0CE1869DC}"/>
+              <c16:uniqueId val="{00000003-A470-45BA-8C10-70735F4A0550}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2862,19 +2885,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>205.85749999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>206.154</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>208.19719999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>210.9271</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>213.57470000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2882,7 +2905,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-B344-48D0-AC8E-00F0CE1869DC}"/>
+              <c16:uniqueId val="{00000004-A470-45BA-8C10-70735F4A0550}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2947,19 +2970,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>198.83689999999996</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>221.95439999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>222.4837</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>222.54499999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2967,7 +2990,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-B344-48D0-AC8E-00F0CE1869DC}"/>
+              <c16:uniqueId val="{00000005-A470-45BA-8C10-70735F4A0550}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3344,19 +3367,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>208.3836</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>211.16459999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>213.8228</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>215.98500000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>215.7859</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3364,7 +3387,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-166A-46DD-9844-8FD2A4818086}"/>
+              <c16:uniqueId val="{00000000-7F38-4929-A9BA-67B1989D5D1E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3429,19 +3452,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>207.3768</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>208.4872</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>208.68369999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>209.62360000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>208.39779999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3449,7 +3472,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-166A-46DD-9844-8FD2A4818086}"/>
+              <c16:uniqueId val="{00000001-7F38-4929-A9BA-67B1989D5D1E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3514,19 +3537,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>205.85749999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>206.154</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>208.19719999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>210.9271</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>213.57470000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3534,7 +3557,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-166A-46DD-9844-8FD2A4818086}"/>
+              <c16:uniqueId val="{00000002-7F38-4929-A9BA-67B1989D5D1E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3599,19 +3622,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>204.43449999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>206.59950000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>206.86429999999996</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>208.87</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>208.24330000000003</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3619,7 +3642,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-166A-46DD-9844-8FD2A4818086}"/>
+              <c16:uniqueId val="{00000003-7F38-4929-A9BA-67B1989D5D1E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3684,19 +3707,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>208.3648</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>211.13729999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>213.8057</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>215.96630000000002</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>215.767</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3704,7 +3727,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-166A-46DD-9844-8FD2A4818086}"/>
+              <c16:uniqueId val="{00000004-7F38-4929-A9BA-67B1989D5D1E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3769,19 +3792,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>198.83689999999996</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>212.28759999999997</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>221.95439999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>222.4837</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>222.54499999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3789,7 +3812,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-166A-46DD-9844-8FD2A4818086}"/>
+              <c16:uniqueId val="{00000005-7F38-4929-A9BA-67B1989D5D1E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4204,19 +4227,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>215.7191</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>215.52710000000002</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>210.67279999999997</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>206.37070000000003</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>206.44629999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4224,7 +4247,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D36B-4569-9FEF-169F4581A47D}"/>
+              <c16:uniqueId val="{00000000-272E-47D6-A0DE-279620C2BB27}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4289,19 +4312,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>222.9496</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>221.1276</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>215.876</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>183.66489999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>196.72949999999997</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4309,7 +4332,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D36B-4569-9FEF-169F4581A47D}"/>
+              <c16:uniqueId val="{00000001-272E-47D6-A0DE-279620C2BB27}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4374,19 +4397,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>205.85749999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>206.154</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>208.19719999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>210.9271</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>213.57470000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4394,7 +4417,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-D36B-4569-9FEF-169F4581A47D}"/>
+              <c16:uniqueId val="{00000002-272E-47D6-A0DE-279620C2BB27}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4459,19 +4482,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>222.9496</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>221.1276</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>215.876</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>181.37549999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>193.5249</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4479,7 +4502,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-D36B-4569-9FEF-169F4581A47D}"/>
+              <c16:uniqueId val="{00000003-272E-47D6-A0DE-279620C2BB27}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4544,19 +4567,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>215.7191</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>215.52710000000002</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>210.67279999999997</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>206.32580000000002</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>206.41449999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4564,7 +4587,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-D36B-4569-9FEF-169F4581A47D}"/>
+              <c16:uniqueId val="{00000004-272E-47D6-A0DE-279620C2BB27}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4629,19 +4652,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>198.83689999999996</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>212.28759999999997</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>221.95439999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>222.4837</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>222.54499999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4649,7 +4672,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-D36B-4569-9FEF-169F4581A47D}"/>
+              <c16:uniqueId val="{00000005-272E-47D6-A0DE-279620C2BB27}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5003,21 +5026,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>-5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-29</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-25</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -5027,19 +5035,13 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="3">
-                  <c:v>3.4666999999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.6114999999999999</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BE06-4CCF-8568-8117AFB0C73B}"/>
+              <c16:uniqueId val="{00000000-C9EB-4482-B2FE-86A26010FC9C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5060,21 +5062,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>-5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-29</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-25</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -5084,19 +5071,13 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="3">
-                  <c:v>1.75</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.8976999999999999</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-BE06-4CCF-8568-8117AFB0C73B}"/>
+              <c16:uniqueId val="{00000001-C9EB-4482-B2FE-86A26010FC9C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5473,19 +5454,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.3055221807927015</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.1513815404399135</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0085328906950273</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.9852046985105247</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0334103322162473</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5493,7 +5474,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8F2A-4525-86FF-69C354723F6F}"/>
+              <c16:uniqueId val="{00000000-7402-4EFA-8B91-A30328EF7201}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5542,19 +5523,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.3333185816492166</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.1666458095159022</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0524927568116866</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.9592582005509818</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0543596932311536</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5562,7 +5543,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8F2A-4525-86FF-69C354723F6F}"/>
+              <c16:uniqueId val="{00000001-7402-4EFA-8B91-A30328EF7201}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5611,19 +5592,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.2045389462521792</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0387097761756721</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.0563253966288864</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.1270311444515881</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5631,7 +5612,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-8F2A-4525-86FF-69C354723F6F}"/>
+              <c16:uniqueId val="{00000002-7402-4EFA-8B91-A30328EF7201}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6008,19 +5989,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.1489654029880236</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0027623395736078</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.87869856603793273</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.84155795534762756</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.89632738178643301</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6028,7 +6009,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7256-4875-AF66-75B7928D392D}"/>
+              <c16:uniqueId val="{00000000-F88E-4715-882C-5132D5E16D0C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6077,19 +6058,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.1506695512838554</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.9934915731786611</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.89286821447642595</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.84775554939058695</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.92206754206511088</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6097,7 +6078,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7256-4875-AF66-75B7928D392D}"/>
+              <c16:uniqueId val="{00000001-F88E-4715-882C-5132D5E16D0C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6146,19 +6127,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.0624421748309527</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.83075292252291355</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.85822361990369467</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.93863366315140118</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6166,7 +6147,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-7256-4875-AF66-75B7928D392D}"/>
+              <c16:uniqueId val="{00000002-F88E-4715-882C-5132D5E16D0C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6544,19 +6525,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>8.6523228157070919E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.7945643515019176E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1.6665664556067106E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-4.2306281364968168E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6564,7 +6545,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F82D-490C-A561-35ECB761A81C}"/>
+              <c16:uniqueId val="{00000000-42CA-4A37-A16B-3688FC027054}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6613,19 +6594,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>8.8227376452902684E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.2115291953512397E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1.0468070513107719E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1.6566121086290297E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6633,7 +6614,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F82D-490C-A561-35ECB761A81C}"/>
+              <c16:uniqueId val="{00000001-42CA-4A37-A16B-3688FC027054}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6955,7 +6936,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6991,7 +6972,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7027,7 +7008,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7063,7 +7044,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7099,7 +7080,7 @@
         <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7135,7 +7116,7 @@
         <xdr:cNvPr id="7" name="Chart 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7176,7 +7157,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7212,7 +7193,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7248,7 +7229,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7284,7 +7265,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7567,2524 +7548,178 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:P25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="16" t="s">
+      <c r="L1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="M1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="N1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="16" t="s">
+      <c r="O1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="P1" s="17" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="16">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>-29</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>165.66</v>
-      </c>
-      <c r="E2">
-        <v>34.075800000000001</v>
-      </c>
-      <c r="F2">
-        <v>47.6524</v>
-      </c>
-      <c r="G2">
-        <v>5.1700000000000003E-2</v>
-      </c>
-      <c r="H2">
-        <v>6.3014000000000001</v>
-      </c>
-      <c r="I2">
-        <v>1.1017999999999999</v>
-      </c>
-      <c r="J2">
-        <v>167.48</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>-0.15959999999999999</v>
-      </c>
-      <c r="N2">
-        <v>5.6806999999999999</v>
-      </c>
-      <c r="O2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="16">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>-25</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>165.66</v>
-      </c>
-      <c r="E3">
-        <v>34.0824</v>
-      </c>
-      <c r="F3">
-        <v>47.835599999999999</v>
-      </c>
-      <c r="G3">
-        <v>2.87E-2</v>
-      </c>
-      <c r="H3">
-        <v>6.3014000000000001</v>
-      </c>
-      <c r="I3">
-        <v>1.0115000000000001</v>
-      </c>
-      <c r="J3">
-        <v>174.51419999999999</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>-0.1646</v>
-      </c>
-      <c r="N3">
-        <v>3.1516999999999999</v>
-      </c>
-      <c r="O3" t="b">
-        <v>0</v>
-      </c>
-      <c r="P3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="16">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>-20</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>165.66</v>
-      </c>
-      <c r="E4">
-        <v>34.091200000000001</v>
-      </c>
-      <c r="F4">
-        <v>49.767200000000003</v>
-      </c>
-      <c r="G4">
-        <v>1.3100000000000001E-2</v>
-      </c>
-      <c r="H4">
-        <v>6.3014000000000001</v>
-      </c>
-      <c r="I4">
-        <v>0.91549999999999998</v>
-      </c>
-      <c r="J4">
-        <v>179.5386</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>-0.14230000000000001</v>
-      </c>
-      <c r="N4">
-        <v>1.4435</v>
-      </c>
-      <c r="O4" t="b">
-        <v>0</v>
-      </c>
-      <c r="P4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="16">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>-15</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>165.66</v>
-      </c>
-      <c r="E5">
-        <v>34.094799999999999</v>
-      </c>
-      <c r="F5">
-        <v>52.385300000000001</v>
-      </c>
-      <c r="G5">
-        <v>1.7100000000000001E-2</v>
-      </c>
-      <c r="H5">
-        <v>6.3014000000000001</v>
-      </c>
-      <c r="I5">
-        <v>0.79969999999999997</v>
-      </c>
-      <c r="J5">
-        <v>179.34039999999999</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>-0.10879999999999999</v>
-      </c>
-      <c r="N5">
-        <v>1.8758999999999999</v>
-      </c>
-      <c r="O5" t="b">
-        <v>0</v>
-      </c>
-      <c r="P5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="16">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>-10</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>165.66</v>
-      </c>
-      <c r="E6">
-        <v>34.0869</v>
-      </c>
-      <c r="F6">
-        <v>54.926699999999997</v>
-      </c>
-      <c r="G6">
-        <v>2.2200000000000001E-2</v>
-      </c>
-      <c r="H6">
-        <v>6.3014000000000001</v>
-      </c>
-      <c r="I6">
-        <v>0.68840000000000001</v>
-      </c>
-      <c r="J6">
-        <v>179.1422</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>-7.9899999999999999E-2</v>
-      </c>
-      <c r="N6">
-        <v>2.4457</v>
-      </c>
-      <c r="O6" t="b">
-        <v>0</v>
-      </c>
-      <c r="P6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="16">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>-5</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>165.66</v>
-      </c>
-      <c r="E7">
-        <v>34.061100000000003</v>
-      </c>
-      <c r="F7">
-        <v>57.085700000000003</v>
-      </c>
-      <c r="G7">
-        <v>2.5899999999999999E-2</v>
-      </c>
-      <c r="H7">
-        <v>6.3014000000000001</v>
-      </c>
-      <c r="I7">
-        <v>0.69930000000000003</v>
-      </c>
-      <c r="J7">
-        <v>178.94399999999999</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>-5.6599999999999998E-2</v>
-      </c>
-      <c r="N7">
-        <v>2.8450000000000002</v>
-      </c>
-      <c r="O7" t="b">
-        <v>0</v>
-      </c>
-      <c r="P7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="16">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>164.30459999999999</v>
-      </c>
-      <c r="E8">
-        <v>34.012099999999997</v>
-      </c>
-      <c r="F8">
-        <v>58.256500000000003</v>
-      </c>
-      <c r="G8">
-        <v>2.8799999999999999E-2</v>
-      </c>
-      <c r="H8">
-        <v>6.2984999999999998</v>
-      </c>
-      <c r="I8">
-        <v>0.70669999999999999</v>
-      </c>
-      <c r="J8">
-        <v>178.7458</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>-3.8300000000000001E-2</v>
-      </c>
-      <c r="N8">
-        <v>3.1654</v>
-      </c>
-      <c r="O8" t="b">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="16">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>5</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>159.78659999999999</v>
-      </c>
-      <c r="E9">
-        <v>33.830199999999998</v>
-      </c>
-      <c r="F9">
-        <v>57.903700000000001</v>
-      </c>
-      <c r="G9">
-        <v>2.9100000000000001E-2</v>
-      </c>
-      <c r="H9">
-        <v>6.2888999999999999</v>
-      </c>
-      <c r="I9">
-        <v>0.69950000000000001</v>
-      </c>
-      <c r="J9">
-        <v>178.54759999999999</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>-2.5100000000000001E-2</v>
-      </c>
-      <c r="N9">
-        <v>3.1941999999999999</v>
-      </c>
-      <c r="O9" t="b">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="16">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>-29</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>165.66</v>
-      </c>
-      <c r="E10">
-        <v>34.075800000000001</v>
-      </c>
-      <c r="F10">
-        <v>48.192</v>
-      </c>
-      <c r="G10">
-        <v>7.8399999999999997E-2</v>
-      </c>
-      <c r="H10">
-        <v>6.3014000000000001</v>
-      </c>
-      <c r="I10">
-        <v>1.1014999999999999</v>
-      </c>
-      <c r="J10">
-        <v>160.4599</v>
-      </c>
-      <c r="K10">
-        <v>3.4666999999999999</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>-0.1515</v>
-      </c>
-      <c r="N10">
-        <v>8.6191999999999993</v>
-      </c>
-      <c r="O10" t="b">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="16">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>-25</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>165.66</v>
-      </c>
-      <c r="E11">
-        <v>34.0824</v>
-      </c>
-      <c r="F11">
-        <v>48.156399999999998</v>
-      </c>
-      <c r="G11">
-        <v>5.6500000000000002E-2</v>
-      </c>
-      <c r="H11">
-        <v>6.3014000000000001</v>
-      </c>
-      <c r="I11">
-        <v>1.0122</v>
-      </c>
-      <c r="J11">
-        <v>167.19919999999999</v>
-      </c>
-      <c r="K11">
-        <v>3.6114999999999999</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>-0.15629999999999999</v>
-      </c>
-      <c r="N11">
-        <v>6.2092999999999998</v>
-      </c>
-      <c r="O11" t="b">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="16">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>-20</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>165.66</v>
-      </c>
-      <c r="E12">
-        <v>34.091200000000001</v>
-      </c>
-      <c r="F12">
-        <v>49.982300000000002</v>
-      </c>
-      <c r="G12">
-        <v>4.1700000000000001E-2</v>
-      </c>
-      <c r="H12">
-        <v>6.3014000000000001</v>
-      </c>
-      <c r="I12">
-        <v>0.91559999999999997</v>
-      </c>
-      <c r="J12">
-        <v>172.024</v>
-      </c>
-      <c r="K12">
-        <v>3.7227999999999999</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>-0.13420000000000001</v>
-      </c>
-      <c r="N12">
-        <v>4.5829000000000004</v>
-      </c>
-      <c r="O12" t="b">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="16">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>-15</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>165.66</v>
-      </c>
-      <c r="E13">
-        <v>34.094799999999999</v>
-      </c>
-      <c r="F13">
-        <v>52.651299999999999</v>
-      </c>
-      <c r="G13">
-        <v>4.5600000000000002E-2</v>
-      </c>
-      <c r="H13">
-        <v>6.3014000000000001</v>
-      </c>
-      <c r="I13">
-        <v>0.79969999999999997</v>
-      </c>
-      <c r="J13">
-        <v>171.84960000000001</v>
-      </c>
-      <c r="K13">
-        <v>3.7302</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>-0.1007</v>
-      </c>
-      <c r="N13">
-        <v>5.0163000000000002</v>
-      </c>
-      <c r="O13" t="b">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="16">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>-10</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>165.66</v>
-      </c>
-      <c r="E14">
-        <v>34.0869</v>
-      </c>
-      <c r="F14">
-        <v>55.2029</v>
-      </c>
-      <c r="G14">
-        <v>4.9799999999999997E-2</v>
-      </c>
-      <c r="H14">
-        <v>6.3014000000000001</v>
-      </c>
-      <c r="I14">
-        <v>0.68889999999999996</v>
-      </c>
-      <c r="J14">
-        <v>171.6746</v>
-      </c>
-      <c r="K14">
-        <v>3.7374000000000001</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>-7.22E-2</v>
-      </c>
-      <c r="N14">
-        <v>5.4771999999999998</v>
-      </c>
-      <c r="O14" t="b">
-        <v>0</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="16">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>-5</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>165.66</v>
-      </c>
-      <c r="E15">
-        <v>34.061100000000003</v>
-      </c>
-      <c r="F15">
-        <v>57.379399999999997</v>
-      </c>
-      <c r="G15">
-        <v>5.3600000000000002E-2</v>
-      </c>
-      <c r="H15">
-        <v>6.3014000000000001</v>
-      </c>
-      <c r="I15">
-        <v>0.69940000000000002</v>
-      </c>
-      <c r="J15">
-        <v>171.4992</v>
-      </c>
-      <c r="K15">
-        <v>3.7446000000000002</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>-4.9000000000000002E-2</v>
-      </c>
-      <c r="N15">
-        <v>5.8955000000000002</v>
-      </c>
-      <c r="O15" t="b">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="16">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>164.30459999999999</v>
-      </c>
-      <c r="E16">
-        <v>34.012099999999997</v>
-      </c>
-      <c r="F16">
-        <v>58.544199999999996</v>
-      </c>
-      <c r="G16">
-        <v>5.7599999999999998E-2</v>
-      </c>
-      <c r="H16">
-        <v>6.2984999999999998</v>
-      </c>
-      <c r="I16">
-        <v>0.70679999999999998</v>
-      </c>
-      <c r="J16">
-        <v>171.32329999999999</v>
-      </c>
-      <c r="K16">
-        <v>3.7515999999999998</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>-3.0700000000000002E-2</v>
-      </c>
-      <c r="N16">
-        <v>6.3314000000000004</v>
-      </c>
-      <c r="O16" t="b">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="16">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>5</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>159.78659999999999</v>
-      </c>
-      <c r="E17">
-        <v>33.830199999999998</v>
-      </c>
-      <c r="F17">
-        <v>58.030500000000004</v>
-      </c>
-      <c r="G17">
-        <v>5.8200000000000002E-2</v>
-      </c>
-      <c r="H17">
-        <v>6.2888999999999999</v>
-      </c>
-      <c r="I17">
-        <v>0.69950000000000001</v>
-      </c>
-      <c r="J17">
-        <v>171.14689999999999</v>
-      </c>
-      <c r="K17">
-        <v>3.7585000000000002</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>-1.78E-2</v>
-      </c>
-      <c r="N17">
-        <v>6.3997000000000002</v>
-      </c>
-      <c r="O17" t="b">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="16">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>-29</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>165.66</v>
-      </c>
-      <c r="E18">
-        <v>34.075800000000001</v>
-      </c>
-      <c r="F18">
-        <v>48.704500000000003</v>
-      </c>
-      <c r="G18">
-        <v>0.10100000000000001</v>
-      </c>
-      <c r="H18">
-        <v>6.3014000000000001</v>
-      </c>
-      <c r="I18">
-        <v>1.1027</v>
-      </c>
-      <c r="J18">
-        <v>154.58179999999999</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>2</v>
-      </c>
-      <c r="M18">
-        <v>-0.14699999999999999</v>
-      </c>
-      <c r="N18">
-        <v>11.1053</v>
-      </c>
-      <c r="O18" t="b">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="16">
-        <v>17</v>
-      </c>
-      <c r="B19">
-        <v>-25</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <v>165.66</v>
-      </c>
-      <c r="E19">
-        <v>34.0824</v>
-      </c>
-      <c r="F19">
-        <v>48.528199999999998</v>
-      </c>
-      <c r="G19">
-        <v>8.0299999999999996E-2</v>
-      </c>
-      <c r="H19">
-        <v>6.3014000000000001</v>
-      </c>
-      <c r="I19">
-        <v>1.012</v>
-      </c>
-      <c r="J19">
-        <v>161.0043</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>2</v>
-      </c>
-      <c r="M19">
-        <v>-0.15140000000000001</v>
-      </c>
-      <c r="N19">
-        <v>8.8269000000000002</v>
-      </c>
-      <c r="O19" t="b">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="16">
-        <v>18</v>
-      </c>
-      <c r="B20">
-        <v>-20</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20">
-        <v>165.66</v>
-      </c>
-      <c r="E20">
-        <v>34.091200000000001</v>
-      </c>
-      <c r="F20">
-        <v>50.265599999999999</v>
-      </c>
-      <c r="G20">
-        <v>6.6600000000000006E-2</v>
-      </c>
-      <c r="H20">
-        <v>6.3014000000000001</v>
-      </c>
-      <c r="I20">
-        <v>0.91590000000000005</v>
-      </c>
-      <c r="J20">
-        <v>165.5436</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>2</v>
-      </c>
-      <c r="M20">
-        <v>-0.12870000000000001</v>
-      </c>
-      <c r="N20">
-        <v>7.3174000000000001</v>
-      </c>
-      <c r="O20" t="b">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="16">
-        <v>19</v>
-      </c>
-      <c r="B21">
-        <v>-15</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21">
-        <v>165.66</v>
-      </c>
-      <c r="E21">
-        <v>34.094799999999999</v>
-      </c>
-      <c r="F21">
-        <v>53.005400000000002</v>
-      </c>
-      <c r="G21">
-        <v>7.0900000000000005E-2</v>
-      </c>
-      <c r="H21">
-        <v>6.3014000000000001</v>
-      </c>
-      <c r="I21">
-        <v>0.79979999999999996</v>
-      </c>
-      <c r="J21">
-        <v>165.27930000000001</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>2</v>
-      </c>
-      <c r="M21">
-        <v>-9.4899999999999998E-2</v>
-      </c>
-      <c r="N21">
-        <v>7.7953999999999999</v>
-      </c>
-      <c r="O21" t="b">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="16">
-        <v>20</v>
-      </c>
-      <c r="B22">
-        <v>-10</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22">
-        <v>165.66</v>
-      </c>
-      <c r="E22">
-        <v>34.0869</v>
-      </c>
-      <c r="F22">
-        <v>55.593499999999999</v>
-      </c>
-      <c r="G22">
-        <v>7.4700000000000003E-2</v>
-      </c>
-      <c r="H22">
-        <v>6.3014000000000001</v>
-      </c>
-      <c r="I22">
-        <v>0.68769999999999998</v>
-      </c>
-      <c r="J22">
-        <v>165.01519999999999</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>2</v>
-      </c>
-      <c r="M22">
-        <v>-6.6199999999999995E-2</v>
-      </c>
-      <c r="N22">
-        <v>8.2087000000000003</v>
-      </c>
-      <c r="O22" t="b">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="16">
-        <v>21</v>
-      </c>
-      <c r="B23">
-        <v>-5</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23">
-        <v>165.66</v>
-      </c>
-      <c r="E23">
-        <v>34.061100000000003</v>
-      </c>
-      <c r="F23">
-        <v>57.822200000000002</v>
-      </c>
-      <c r="G23">
-        <v>7.9000000000000001E-2</v>
-      </c>
-      <c r="H23">
-        <v>6.3014000000000001</v>
-      </c>
-      <c r="I23">
-        <v>0.69950000000000001</v>
-      </c>
-      <c r="J23">
-        <v>164.75110000000001</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>2</v>
-      </c>
-      <c r="M23">
-        <v>-4.2599999999999999E-2</v>
-      </c>
-      <c r="N23">
-        <v>8.6882999999999999</v>
-      </c>
-      <c r="O23" t="b">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="16">
-        <v>22</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24">
-        <v>164.30459999999999</v>
-      </c>
-      <c r="E24">
-        <v>34.012099999999997</v>
-      </c>
-      <c r="F24">
-        <v>59.023200000000003</v>
-      </c>
-      <c r="G24">
-        <v>8.4199999999999997E-2</v>
-      </c>
-      <c r="H24">
-        <v>6.2984999999999998</v>
-      </c>
-      <c r="I24">
-        <v>0.70679999999999998</v>
-      </c>
-      <c r="J24">
-        <v>164.4873</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>2</v>
-      </c>
-      <c r="M24">
-        <v>-2.4E-2</v>
-      </c>
-      <c r="N24">
-        <v>9.2553000000000001</v>
-      </c>
-      <c r="O24" t="b">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="16">
-        <v>23</v>
-      </c>
-      <c r="B25">
-        <v>5</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25">
-        <v>159.78659999999999</v>
-      </c>
-      <c r="E25">
-        <v>33.830199999999998</v>
-      </c>
-      <c r="F25">
-        <v>58.378599999999999</v>
-      </c>
-      <c r="G25">
-        <v>8.5500000000000007E-2</v>
-      </c>
-      <c r="H25">
-        <v>6.2888999999999999</v>
-      </c>
-      <c r="I25">
-        <v>0.6996</v>
-      </c>
-      <c r="J25">
-        <v>164.2236</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>2</v>
-      </c>
-      <c r="M25">
-        <v>-1.11E-2</v>
-      </c>
-      <c r="N25">
-        <v>9.3969000000000005</v>
-      </c>
-      <c r="O25" t="b">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:P25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="A2" sqref="A2:P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="16" t="s">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="E1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="F1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="G1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="H1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="I1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="J1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="K1" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="M1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="N1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="16" t="s">
+      <c r="O1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="P1" s="17" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="16">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>-29</v>
-      </c>
-      <c r="C2">
-        <v>0.97</v>
-      </c>
-      <c r="D2">
-        <v>160.17509999999999</v>
-      </c>
-      <c r="E2">
-        <v>33.968200000000003</v>
-      </c>
-      <c r="F2">
-        <v>46.477600000000002</v>
-      </c>
-      <c r="G2">
-        <v>4.0399999999999998E-2</v>
-      </c>
-      <c r="H2">
-        <v>6.2896999999999998</v>
-      </c>
-      <c r="I2">
-        <v>1.4857</v>
-      </c>
-      <c r="J2">
-        <v>167.48</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>-0.16300000000000001</v>
-      </c>
-      <c r="N2">
-        <v>4.4413999999999998</v>
-      </c>
-      <c r="O2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="16">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>-25</v>
-      </c>
-      <c r="C3">
-        <v>1.03</v>
-      </c>
-      <c r="D3">
-        <v>170.52199999999999</v>
-      </c>
-      <c r="E3">
-        <v>33.996600000000001</v>
-      </c>
-      <c r="F3">
-        <v>48.893000000000001</v>
-      </c>
-      <c r="G3">
-        <v>4.0500000000000001E-2</v>
-      </c>
-      <c r="H3">
-        <v>6.3117000000000001</v>
-      </c>
-      <c r="I3">
-        <v>0.7752</v>
-      </c>
-      <c r="J3">
-        <v>174.51419999999999</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>-0.1603</v>
-      </c>
-      <c r="N3">
-        <v>4.4470000000000001</v>
-      </c>
-      <c r="O3" t="b">
-        <v>0</v>
-      </c>
-      <c r="P3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="16">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>-20</v>
-      </c>
-      <c r="C4">
-        <v>1.07</v>
-      </c>
-      <c r="D4">
-        <v>176.83949999999999</v>
-      </c>
-      <c r="E4">
-        <v>33.5565</v>
-      </c>
-      <c r="F4">
-        <v>52.1935</v>
-      </c>
-      <c r="G4">
-        <v>4.0300000000000002E-2</v>
-      </c>
-      <c r="H4">
-        <v>6.3250999999999999</v>
-      </c>
-      <c r="I4">
-        <v>0.71319999999999995</v>
-      </c>
-      <c r="J4">
-        <v>179.5386</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>-0.13350000000000001</v>
-      </c>
-      <c r="N4">
-        <v>4.4355000000000002</v>
-      </c>
-      <c r="O4" t="b">
-        <v>0</v>
-      </c>
-      <c r="P4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="16">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>-15</v>
-      </c>
-      <c r="C5">
-        <v>1.06</v>
-      </c>
-      <c r="D5">
-        <v>175.01070000000001</v>
-      </c>
-      <c r="E5">
-        <v>33.735199999999999</v>
-      </c>
-      <c r="F5">
-        <v>54.552799999999998</v>
-      </c>
-      <c r="G5">
-        <v>4.0300000000000002E-2</v>
-      </c>
-      <c r="H5">
-        <v>6.3212000000000002</v>
-      </c>
-      <c r="I5">
-        <v>0.71830000000000005</v>
-      </c>
-      <c r="J5">
-        <v>179.34039999999999</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>-0.10150000000000001</v>
-      </c>
-      <c r="N5">
-        <v>4.4344999999999999</v>
-      </c>
-      <c r="O5" t="b">
-        <v>0</v>
-      </c>
-      <c r="P5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="16">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>-10</v>
-      </c>
-      <c r="C6">
-        <v>1.04</v>
-      </c>
-      <c r="D6">
-        <v>172.95859999999999</v>
-      </c>
-      <c r="E6">
-        <v>33.878399999999999</v>
-      </c>
-      <c r="F6">
-        <v>56.665100000000002</v>
-      </c>
-      <c r="G6">
-        <v>4.1099999999999998E-2</v>
-      </c>
-      <c r="H6">
-        <v>6.3169000000000004</v>
-      </c>
-      <c r="I6">
-        <v>0.72070000000000001</v>
-      </c>
-      <c r="J6">
-        <v>179.1422</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>-7.4099999999999999E-2</v>
-      </c>
-      <c r="N6">
-        <v>4.5213000000000001</v>
-      </c>
-      <c r="O6" t="b">
-        <v>0</v>
-      </c>
-      <c r="P6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="16">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>-5</v>
-      </c>
-      <c r="C7">
-        <v>1.04</v>
-      </c>
-      <c r="D7">
-        <v>171.59870000000001</v>
-      </c>
-      <c r="E7">
-        <v>33.9283</v>
-      </c>
-      <c r="F7">
-        <v>58.435600000000001</v>
-      </c>
-      <c r="G7">
-        <v>4.0099999999999997E-2</v>
-      </c>
-      <c r="H7">
-        <v>6.3140000000000001</v>
-      </c>
-      <c r="I7">
-        <v>0.73060000000000003</v>
-      </c>
-      <c r="J7">
-        <v>178.94399999999999</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>-5.2400000000000002E-2</v>
-      </c>
-      <c r="N7">
-        <v>4.4069000000000003</v>
-      </c>
-      <c r="O7" t="b">
-        <v>0</v>
-      </c>
-      <c r="P7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="16">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>1.03</v>
-      </c>
-      <c r="D8">
-        <v>168.94069999999999</v>
-      </c>
-      <c r="E8">
-        <v>33.933500000000002</v>
-      </c>
-      <c r="F8">
-        <v>59.266500000000001</v>
-      </c>
-      <c r="G8">
-        <v>0.04</v>
-      </c>
-      <c r="H8">
-        <v>6.3083</v>
-      </c>
-      <c r="I8">
-        <v>0.73129999999999995</v>
-      </c>
-      <c r="J8">
-        <v>178.7458</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>-3.5299999999999998E-2</v>
-      </c>
-      <c r="N8">
-        <v>4.4009</v>
-      </c>
-      <c r="O8" t="b">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="16">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>5</v>
-      </c>
-      <c r="C9">
-        <v>1.03</v>
-      </c>
-      <c r="D9">
-        <v>164.1893</v>
-      </c>
-      <c r="E9">
-        <v>33.756</v>
-      </c>
-      <c r="F9">
-        <v>58.748100000000001</v>
-      </c>
-      <c r="G9">
-        <v>3.9899999999999998E-2</v>
-      </c>
-      <c r="H9">
-        <v>6.2983000000000002</v>
-      </c>
-      <c r="I9">
-        <v>0.72319999999999995</v>
-      </c>
-      <c r="J9">
-        <v>178.54759999999999</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>-2.24E-2</v>
-      </c>
-      <c r="N9">
-        <v>4.3918999999999997</v>
-      </c>
-      <c r="O9" t="b">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="16">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>-29</v>
-      </c>
-      <c r="C10">
-        <v>0.89</v>
-      </c>
-      <c r="D10">
-        <v>148.16319999999999</v>
-      </c>
-      <c r="E10">
-        <v>33.244300000000003</v>
-      </c>
-      <c r="F10">
-        <v>44.2059</v>
-      </c>
-      <c r="G10">
-        <v>4.0500000000000001E-2</v>
-      </c>
-      <c r="H10">
-        <v>6.2643000000000004</v>
-      </c>
-      <c r="I10">
-        <v>2.3994</v>
-      </c>
-      <c r="J10">
-        <v>160.4599</v>
-      </c>
-      <c r="K10">
-        <v>3.4666999999999999</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>-0.16370000000000001</v>
-      </c>
-      <c r="N10">
-        <v>4.4482999999999997</v>
-      </c>
-      <c r="O10" t="b">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="16">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>-25</v>
-      </c>
-      <c r="C11">
-        <v>0.95</v>
-      </c>
-      <c r="D11">
-        <v>158.04849999999999</v>
-      </c>
-      <c r="E11">
-        <v>33.887099999999997</v>
-      </c>
-      <c r="F11">
-        <v>46.525199999999998</v>
-      </c>
-      <c r="G11">
-        <v>4.0399999999999998E-2</v>
-      </c>
-      <c r="H11">
-        <v>6.2851999999999997</v>
-      </c>
-      <c r="I11">
-        <v>1.5185999999999999</v>
-      </c>
-      <c r="J11">
-        <v>167.19919999999999</v>
-      </c>
-      <c r="K11">
-        <v>3.6114999999999999</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>-0.16120000000000001</v>
-      </c>
-      <c r="N11">
-        <v>4.4367999999999999</v>
-      </c>
-      <c r="O11" t="b">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="16">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>-20</v>
-      </c>
-      <c r="C12">
-        <v>0.99</v>
-      </c>
-      <c r="D12">
-        <v>164.7979</v>
-      </c>
-      <c r="E12">
-        <v>34.087200000000003</v>
-      </c>
-      <c r="F12">
-        <v>49.855699999999999</v>
-      </c>
-      <c r="G12">
-        <v>4.1599999999999998E-2</v>
-      </c>
-      <c r="H12">
-        <v>6.2995999999999999</v>
-      </c>
-      <c r="I12">
-        <v>0.93559999999999999</v>
-      </c>
-      <c r="J12">
-        <v>172.024</v>
-      </c>
-      <c r="K12">
-        <v>3.7227999999999999</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>-0.13420000000000001</v>
-      </c>
-      <c r="N12">
-        <v>4.5697000000000001</v>
-      </c>
-      <c r="O12" t="b">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="16">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>-15</v>
-      </c>
-      <c r="C13">
-        <v>0.99</v>
-      </c>
-      <c r="D13">
-        <v>163.59819999999999</v>
-      </c>
-      <c r="E13">
-        <v>34.076700000000002</v>
-      </c>
-      <c r="F13">
-        <v>52.131399999999999</v>
-      </c>
-      <c r="G13">
-        <v>4.0500000000000001E-2</v>
-      </c>
-      <c r="H13">
-        <v>6.2969999999999997</v>
-      </c>
-      <c r="I13">
-        <v>0.90490000000000004</v>
-      </c>
-      <c r="J13">
-        <v>171.84960000000001</v>
-      </c>
-      <c r="K13">
-        <v>3.7302</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>-0.1024</v>
-      </c>
-      <c r="N13">
-        <v>4.4550000000000001</v>
-      </c>
-      <c r="O13" t="b">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="16">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>-10</v>
-      </c>
-      <c r="C14">
-        <v>0.98</v>
-      </c>
-      <c r="D14">
-        <v>161.65729999999999</v>
-      </c>
-      <c r="E14">
-        <v>34.026400000000002</v>
-      </c>
-      <c r="F14">
-        <v>54.229500000000002</v>
-      </c>
-      <c r="G14">
-        <v>4.0500000000000001E-2</v>
-      </c>
-      <c r="H14">
-        <v>6.2929000000000004</v>
-      </c>
-      <c r="I14">
-        <v>0.86970000000000003</v>
-      </c>
-      <c r="J14">
-        <v>171.6746</v>
-      </c>
-      <c r="K14">
-        <v>3.7374000000000001</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>-7.5200000000000003E-2</v>
-      </c>
-      <c r="N14">
-        <v>4.4474999999999998</v>
-      </c>
-      <c r="O14" t="b">
-        <v>0</v>
-      </c>
-      <c r="P14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="16">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>-5</v>
-      </c>
-      <c r="C15">
-        <v>0.97</v>
-      </c>
-      <c r="D15">
-        <v>160.6199</v>
-      </c>
-      <c r="E15">
-        <v>33.968899999999998</v>
-      </c>
-      <c r="F15">
-        <v>56.114800000000002</v>
-      </c>
-      <c r="G15">
-        <v>4.0399999999999998E-2</v>
-      </c>
-      <c r="H15">
-        <v>6.2907000000000002</v>
-      </c>
-      <c r="I15">
-        <v>0.78</v>
-      </c>
-      <c r="J15">
-        <v>171.4992</v>
-      </c>
-      <c r="K15">
-        <v>3.7446000000000002</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>-5.2999999999999999E-2</v>
-      </c>
-      <c r="N15">
-        <v>4.4374000000000002</v>
-      </c>
-      <c r="O15" t="b">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="16">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>0.96</v>
-      </c>
-      <c r="D16">
-        <v>158.4008</v>
-      </c>
-      <c r="E16">
-        <v>33.887300000000003</v>
-      </c>
-      <c r="F16">
-        <v>57.094299999999997</v>
-      </c>
-      <c r="G16">
-        <v>4.0399999999999998E-2</v>
-      </c>
-      <c r="H16">
-        <v>6.2859999999999996</v>
-      </c>
-      <c r="I16">
-        <v>0.77090000000000003</v>
-      </c>
-      <c r="J16">
-        <v>171.32329999999999</v>
-      </c>
-      <c r="K16">
-        <v>3.7515999999999998</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>-3.56E-2</v>
-      </c>
-      <c r="N16">
-        <v>4.4363000000000001</v>
-      </c>
-      <c r="O16" t="b">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="16">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>5</v>
-      </c>
-      <c r="C17">
-        <v>0.96</v>
-      </c>
-      <c r="D17">
-        <v>154.1053</v>
-      </c>
-      <c r="E17">
-        <v>33.708500000000001</v>
-      </c>
-      <c r="F17">
-        <v>56.806399999999996</v>
-      </c>
-      <c r="G17">
-        <v>4.0399999999999998E-2</v>
-      </c>
-      <c r="H17">
-        <v>6.2769000000000004</v>
-      </c>
-      <c r="I17">
-        <v>0.84519999999999995</v>
-      </c>
-      <c r="J17">
-        <v>171.14689999999999</v>
-      </c>
-      <c r="K17">
-        <v>3.7585000000000002</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>-2.2499999999999999E-2</v>
-      </c>
-      <c r="N17">
-        <v>4.4390000000000001</v>
-      </c>
-      <c r="O17" t="b">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="16">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>-29</v>
-      </c>
-      <c r="C18">
-        <v>0.84</v>
-      </c>
-      <c r="D18">
-        <v>138.66759999999999</v>
-      </c>
-      <c r="E18">
-        <v>32.44</v>
-      </c>
-      <c r="F18">
-        <v>42.240400000000001</v>
-      </c>
-      <c r="G18">
-        <v>4.0500000000000001E-2</v>
-      </c>
-      <c r="H18">
-        <v>6.2441000000000004</v>
-      </c>
-      <c r="I18">
-        <v>2.6810999999999998</v>
-      </c>
-      <c r="J18">
-        <v>154.5626</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>2</v>
-      </c>
-      <c r="M18">
-        <v>-0.16650000000000001</v>
-      </c>
-      <c r="N18">
-        <v>4.4511000000000003</v>
-      </c>
-      <c r="O18" t="b">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="16">
-        <v>17</v>
-      </c>
-      <c r="B19">
-        <v>-25</v>
-      </c>
-      <c r="C19">
-        <v>0.89</v>
-      </c>
-      <c r="D19">
-        <v>147.43610000000001</v>
-      </c>
-      <c r="E19">
-        <v>33.193300000000001</v>
-      </c>
-      <c r="F19">
-        <v>44.344900000000003</v>
-      </c>
-      <c r="G19">
-        <v>4.0399999999999998E-2</v>
-      </c>
-      <c r="H19">
-        <v>6.2626999999999997</v>
-      </c>
-      <c r="I19">
-        <v>2.3584999999999998</v>
-      </c>
-      <c r="J19">
-        <v>160.98560000000001</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>2</v>
-      </c>
-      <c r="M19">
-        <v>-0.1641</v>
-      </c>
-      <c r="N19">
-        <v>4.4428000000000001</v>
-      </c>
-      <c r="O19" t="b">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="16">
-        <v>18</v>
-      </c>
-      <c r="B20">
-        <v>-20</v>
-      </c>
-      <c r="C20">
-        <v>0.93</v>
-      </c>
-      <c r="D20">
-        <v>153.8741</v>
-      </c>
-      <c r="E20">
-        <v>33.665999999999997</v>
-      </c>
-      <c r="F20">
-        <v>47.489400000000003</v>
-      </c>
-      <c r="G20">
-        <v>4.0399999999999998E-2</v>
-      </c>
-      <c r="H20">
-        <v>6.2763999999999998</v>
-      </c>
-      <c r="I20">
-        <v>1.728</v>
-      </c>
-      <c r="J20">
-        <v>165.52600000000001</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>2</v>
-      </c>
-      <c r="M20">
-        <v>-0.13750000000000001</v>
-      </c>
-      <c r="N20">
-        <v>4.4421999999999997</v>
-      </c>
-      <c r="O20" t="b">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="16">
-        <v>19</v>
-      </c>
-      <c r="B21">
-        <v>-15</v>
-      </c>
-      <c r="C21">
-        <v>0.92</v>
-      </c>
-      <c r="D21">
-        <v>152.49420000000001</v>
-      </c>
-      <c r="E21">
-        <v>33.579599999999999</v>
-      </c>
-      <c r="F21">
-        <v>49.752099999999999</v>
-      </c>
-      <c r="G21">
-        <v>4.0500000000000001E-2</v>
-      </c>
-      <c r="H21">
-        <v>6.2733999999999996</v>
-      </c>
-      <c r="I21">
-        <v>1.6587000000000001</v>
-      </c>
-      <c r="J21">
-        <v>165.2629</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>2</v>
-      </c>
-      <c r="M21">
-        <v>-0.105</v>
-      </c>
-      <c r="N21">
-        <v>4.4573999999999998</v>
-      </c>
-      <c r="O21" t="b">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="16">
-        <v>20</v>
-      </c>
-      <c r="B22">
-        <v>-10</v>
-      </c>
-      <c r="C22">
-        <v>0.91</v>
-      </c>
-      <c r="D22">
-        <v>150.61199999999999</v>
-      </c>
-      <c r="E22">
-        <v>33.439900000000002</v>
-      </c>
-      <c r="F22">
-        <v>51.843899999999998</v>
-      </c>
-      <c r="G22">
-        <v>4.0399999999999998E-2</v>
-      </c>
-      <c r="H22">
-        <v>6.2694999999999999</v>
-      </c>
-      <c r="I22">
-        <v>1.6088</v>
-      </c>
-      <c r="J22">
-        <v>164.9999</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>2</v>
-      </c>
-      <c r="M22">
-        <v>-7.7299999999999994E-2</v>
-      </c>
-      <c r="N22">
-        <v>4.4431000000000003</v>
-      </c>
-      <c r="O22" t="b">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="16">
-        <v>21</v>
-      </c>
-      <c r="B23">
-        <v>-5</v>
-      </c>
-      <c r="C23">
-        <v>0.9</v>
-      </c>
-      <c r="D23">
-        <v>149.79920000000001</v>
-      </c>
-      <c r="E23">
-        <v>33.354799999999997</v>
-      </c>
-      <c r="F23">
-        <v>53.808799999999998</v>
-      </c>
-      <c r="G23">
-        <v>4.0500000000000001E-2</v>
-      </c>
-      <c r="H23">
-        <v>6.2676999999999996</v>
-      </c>
-      <c r="I23">
-        <v>1.454</v>
-      </c>
-      <c r="J23">
-        <v>164.7371</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>2</v>
-      </c>
-      <c r="M23">
-        <v>-5.45E-2</v>
-      </c>
-      <c r="N23">
-        <v>4.4528999999999996</v>
-      </c>
-      <c r="O23" t="b">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="16">
-        <v>22</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <v>0.9</v>
-      </c>
-      <c r="D24">
-        <v>147.7937</v>
-      </c>
-      <c r="E24">
-        <v>33.247599999999998</v>
-      </c>
-      <c r="F24">
-        <v>54.923400000000001</v>
-      </c>
-      <c r="G24">
-        <v>4.0399999999999998E-2</v>
-      </c>
-      <c r="H24">
-        <v>6.2634999999999996</v>
-      </c>
-      <c r="I24">
-        <v>1.4319999999999999</v>
-      </c>
-      <c r="J24">
-        <v>164.47450000000001</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>2</v>
-      </c>
-      <c r="M24">
-        <v>-3.6600000000000001E-2</v>
-      </c>
-      <c r="N24">
-        <v>4.4429999999999996</v>
-      </c>
-      <c r="O24" t="b">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="16">
-        <v>23</v>
-      </c>
-      <c r="B25">
-        <v>5</v>
-      </c>
-      <c r="C25">
-        <v>0.9</v>
-      </c>
-      <c r="D25">
-        <v>143.85919999999999</v>
-      </c>
-      <c r="E25">
-        <v>33.08</v>
-      </c>
-      <c r="F25">
-        <v>54.856299999999997</v>
-      </c>
-      <c r="G25">
-        <v>4.0399999999999998E-2</v>
-      </c>
-      <c r="H25">
-        <v>6.2550999999999997</v>
-      </c>
-      <c r="I25">
-        <v>1.5466</v>
-      </c>
-      <c r="J25">
-        <v>164.21209999999999</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>2</v>
-      </c>
-      <c r="M25">
-        <v>-2.3099999999999999E-2</v>
-      </c>
-      <c r="N25">
-        <v>4.4451999999999998</v>
-      </c>
-      <c r="O25" t="b">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:P25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="A2" sqref="A2:XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="16" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" s="16" t="s">
         <v>11</v>
@@ -10102,1227 +7737,54 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="16">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>-29</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>165.66</v>
-      </c>
-      <c r="E2">
-        <v>34.075800000000001</v>
-      </c>
-      <c r="F2">
-        <v>47.6524</v>
-      </c>
-      <c r="G2">
-        <v>5.1700000000000003E-2</v>
-      </c>
-      <c r="H2">
-        <v>6.3014000000000001</v>
-      </c>
-      <c r="I2">
-        <v>1.1017999999999999</v>
-      </c>
-      <c r="J2">
-        <v>167.48</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>-0.15959999999999999</v>
-      </c>
-      <c r="N2">
-        <v>5.6806999999999999</v>
-      </c>
-      <c r="O2" t="b">
-        <v>1</v>
-      </c>
-      <c r="P2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="16">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>-25</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>165.66</v>
-      </c>
-      <c r="E3">
-        <v>34.0824</v>
-      </c>
-      <c r="F3">
-        <v>47.835599999999999</v>
-      </c>
-      <c r="G3">
-        <v>2.87E-2</v>
-      </c>
-      <c r="H3">
-        <v>6.3014000000000001</v>
-      </c>
-      <c r="I3">
-        <v>1.0115000000000001</v>
-      </c>
-      <c r="J3">
-        <v>174.51419999999999</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>-0.1646</v>
-      </c>
-      <c r="N3">
-        <v>3.1516999999999999</v>
-      </c>
-      <c r="O3" t="b">
-        <v>1</v>
-      </c>
-      <c r="P3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="16">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>-20</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>165.66</v>
-      </c>
-      <c r="E4">
-        <v>34.091200000000001</v>
-      </c>
-      <c r="F4">
-        <v>49.767200000000003</v>
-      </c>
-      <c r="G4">
-        <v>1.3100000000000001E-2</v>
-      </c>
-      <c r="H4">
-        <v>6.3014000000000001</v>
-      </c>
-      <c r="I4">
-        <v>0.91549999999999998</v>
-      </c>
-      <c r="J4">
-        <v>179.5386</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>-0.14230000000000001</v>
-      </c>
-      <c r="N4">
-        <v>1.4435</v>
-      </c>
-      <c r="O4" t="b">
-        <v>1</v>
-      </c>
-      <c r="P4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="16">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>-15</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>165.66</v>
-      </c>
-      <c r="E5">
-        <v>34.094799999999999</v>
-      </c>
-      <c r="F5">
-        <v>52.385300000000001</v>
-      </c>
-      <c r="G5">
-        <v>1.7100000000000001E-2</v>
-      </c>
-      <c r="H5">
-        <v>6.3014000000000001</v>
-      </c>
-      <c r="I5">
-        <v>0.79969999999999997</v>
-      </c>
-      <c r="J5">
-        <v>179.34039999999999</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>-0.10879999999999999</v>
-      </c>
-      <c r="N5">
-        <v>1.8758999999999999</v>
-      </c>
-      <c r="O5" t="b">
-        <v>1</v>
-      </c>
-      <c r="P5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="16">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>-10</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>165.66</v>
-      </c>
-      <c r="E6">
-        <v>34.0869</v>
-      </c>
-      <c r="F6">
-        <v>54.926699999999997</v>
-      </c>
-      <c r="G6">
-        <v>2.2200000000000001E-2</v>
-      </c>
-      <c r="H6">
-        <v>6.3014000000000001</v>
-      </c>
-      <c r="I6">
-        <v>0.68840000000000001</v>
-      </c>
-      <c r="J6">
-        <v>179.1422</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>-7.9899999999999999E-2</v>
-      </c>
-      <c r="N6">
-        <v>2.4457</v>
-      </c>
-      <c r="O6" t="b">
-        <v>1</v>
-      </c>
-      <c r="P6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="16">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>-5</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>165.66</v>
-      </c>
-      <c r="E7">
-        <v>34.061100000000003</v>
-      </c>
-      <c r="F7">
-        <v>57.085700000000003</v>
-      </c>
-      <c r="G7">
-        <v>2.5899999999999999E-2</v>
-      </c>
-      <c r="H7">
-        <v>6.3014000000000001</v>
-      </c>
-      <c r="I7">
-        <v>0.69930000000000003</v>
-      </c>
-      <c r="J7">
-        <v>178.94399999999999</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>-5.6599999999999998E-2</v>
-      </c>
-      <c r="N7">
-        <v>2.8450000000000002</v>
-      </c>
-      <c r="O7" t="b">
-        <v>1</v>
-      </c>
-      <c r="P7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="16">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>164.30459999999999</v>
-      </c>
-      <c r="E8">
-        <v>34.012099999999997</v>
-      </c>
-      <c r="F8">
-        <v>58.256500000000003</v>
-      </c>
-      <c r="G8">
-        <v>2.8799999999999999E-2</v>
-      </c>
-      <c r="H8">
-        <v>6.2984999999999998</v>
-      </c>
-      <c r="I8">
-        <v>0.70669999999999999</v>
-      </c>
-      <c r="J8">
-        <v>178.7458</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>-3.8300000000000001E-2</v>
-      </c>
-      <c r="N8">
-        <v>3.1654</v>
-      </c>
-      <c r="O8" t="b">
-        <v>1</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="16">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>5</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>159.78659999999999</v>
-      </c>
-      <c r="E9">
-        <v>33.830199999999998</v>
-      </c>
-      <c r="F9">
-        <v>57.903700000000001</v>
-      </c>
-      <c r="G9">
-        <v>2.9100000000000001E-2</v>
-      </c>
-      <c r="H9">
-        <v>6.2888999999999999</v>
-      </c>
-      <c r="I9">
-        <v>0.69950000000000001</v>
-      </c>
-      <c r="J9">
-        <v>178.54759999999999</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>-2.5100000000000001E-2</v>
-      </c>
-      <c r="N9">
-        <v>3.1941999999999999</v>
-      </c>
-      <c r="O9" t="b">
-        <v>1</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="16">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>-29</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>165.66</v>
-      </c>
-      <c r="E10">
-        <v>34.075800000000001</v>
-      </c>
-      <c r="F10">
-        <v>48.146700000000003</v>
-      </c>
-      <c r="G10">
-        <v>7.6700000000000004E-2</v>
-      </c>
-      <c r="H10">
-        <v>6.3014000000000001</v>
-      </c>
-      <c r="I10">
-        <v>1.1028</v>
-      </c>
-      <c r="J10">
-        <v>160.9134</v>
-      </c>
-      <c r="K10">
-        <v>1.75</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>-0.15210000000000001</v>
-      </c>
-      <c r="N10">
-        <v>8.4276999999999997</v>
-      </c>
-      <c r="O10" t="b">
-        <v>1</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="16">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>-25</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>165.66</v>
-      </c>
-      <c r="E11">
-        <v>34.0824</v>
-      </c>
-      <c r="F11">
-        <v>48.123800000000003</v>
-      </c>
-      <c r="G11">
-        <v>5.4699999999999999E-2</v>
-      </c>
-      <c r="H11">
-        <v>6.3014000000000001</v>
-      </c>
-      <c r="I11">
-        <v>1.0132000000000001</v>
-      </c>
-      <c r="J11">
-        <v>167.67179999999999</v>
-      </c>
-      <c r="K11">
-        <v>1.8976999999999999</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>-0.15679999999999999</v>
-      </c>
-      <c r="N11">
-        <v>6.0084999999999997</v>
-      </c>
-      <c r="O11" t="b">
-        <v>1</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="16">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>-20</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>165.66</v>
-      </c>
-      <c r="E12">
-        <v>34.091200000000001</v>
-      </c>
-      <c r="F12">
-        <v>49.961500000000001</v>
-      </c>
-      <c r="G12">
-        <v>3.9899999999999998E-2</v>
-      </c>
-      <c r="H12">
-        <v>6.3014000000000001</v>
-      </c>
-      <c r="I12">
-        <v>0.91539999999999999</v>
-      </c>
-      <c r="J12">
-        <v>172.4992</v>
-      </c>
-      <c r="K12">
-        <v>2.2490000000000001</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>-0.13469999999999999</v>
-      </c>
-      <c r="N12">
-        <v>4.3818999999999999</v>
-      </c>
-      <c r="O12" t="b">
-        <v>1</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="16">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>-15</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>165.66</v>
-      </c>
-      <c r="E13">
-        <v>34.094799999999999</v>
-      </c>
-      <c r="F13">
-        <v>52.6233</v>
-      </c>
-      <c r="G13">
-        <v>4.3799999999999999E-2</v>
-      </c>
-      <c r="H13">
-        <v>6.3014000000000001</v>
-      </c>
-      <c r="I13">
-        <v>0.80079999999999996</v>
-      </c>
-      <c r="J13">
-        <v>172.30869999999999</v>
-      </c>
-      <c r="K13">
-        <v>2.6002000000000001</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>-0.1012</v>
-      </c>
-      <c r="N13">
-        <v>4.8197999999999999</v>
-      </c>
-      <c r="O13" t="b">
-        <v>1</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="16">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>-10</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>165.66</v>
-      </c>
-      <c r="E14">
-        <v>34.0869</v>
-      </c>
-      <c r="F14">
-        <v>55.183399999999999</v>
-      </c>
-      <c r="G14">
-        <v>4.82E-2</v>
-      </c>
-      <c r="H14">
-        <v>6.3014000000000001</v>
-      </c>
-      <c r="I14">
-        <v>0.68810000000000004</v>
-      </c>
-      <c r="J14">
-        <v>172.1183</v>
-      </c>
-      <c r="K14">
-        <v>2.9510999999999998</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>-7.2700000000000001E-2</v>
-      </c>
-      <c r="N14">
-        <v>5.3003999999999998</v>
-      </c>
-      <c r="O14" t="b">
-        <v>1</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="16">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>-5</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>165.66</v>
-      </c>
-      <c r="E15">
-        <v>34.061100000000003</v>
-      </c>
-      <c r="F15">
-        <v>57.359200000000001</v>
-      </c>
-      <c r="G15">
-        <v>5.21E-2</v>
-      </c>
-      <c r="H15">
-        <v>6.3014000000000001</v>
-      </c>
-      <c r="I15">
-        <v>0.69940000000000002</v>
-      </c>
-      <c r="J15">
-        <v>171.92789999999999</v>
-      </c>
-      <c r="K15">
-        <v>3.3018999999999998</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>-4.9399999999999999E-2</v>
-      </c>
-      <c r="N15">
-        <v>5.7225000000000001</v>
-      </c>
-      <c r="O15" t="b">
-        <v>1</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="16">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>164.30459999999999</v>
-      </c>
-      <c r="E16">
-        <v>34.012099999999997</v>
-      </c>
-      <c r="F16">
-        <v>58.523699999999998</v>
-      </c>
-      <c r="G16">
-        <v>5.6000000000000001E-2</v>
-      </c>
-      <c r="H16">
-        <v>6.2984999999999998</v>
-      </c>
-      <c r="I16">
-        <v>0.70679999999999998</v>
-      </c>
-      <c r="J16">
-        <v>171.73740000000001</v>
-      </c>
-      <c r="K16">
-        <v>3.6526999999999998</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>-3.1099999999999999E-2</v>
-      </c>
-      <c r="N16">
-        <v>6.1570999999999998</v>
-      </c>
-      <c r="O16" t="b">
-        <v>1</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="16">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>5</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>159.78659999999999</v>
-      </c>
-      <c r="E17">
-        <v>33.830199999999998</v>
-      </c>
-      <c r="F17">
-        <v>58.0319</v>
-      </c>
-      <c r="G17">
-        <v>5.79E-2</v>
-      </c>
-      <c r="H17">
-        <v>6.2888999999999999</v>
-      </c>
-      <c r="I17">
-        <v>0.6996</v>
-      </c>
-      <c r="J17">
-        <v>171.23410000000001</v>
-      </c>
-      <c r="K17">
-        <v>3.7452999999999999</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>-1.7899999999999999E-2</v>
-      </c>
-      <c r="N17">
-        <v>6.3657000000000004</v>
-      </c>
-      <c r="O17" t="b">
-        <v>1</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="16">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>-29</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>165.66</v>
-      </c>
-      <c r="E18">
-        <v>34.075800000000001</v>
-      </c>
-      <c r="F18">
-        <v>48.344700000000003</v>
-      </c>
-      <c r="G18">
-        <v>9.5600000000000004E-2</v>
-      </c>
-      <c r="H18">
-        <v>6.3014000000000001</v>
-      </c>
-      <c r="I18">
-        <v>1.1015999999999999</v>
-      </c>
-      <c r="J18">
-        <v>156.10550000000001</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>2</v>
-      </c>
-      <c r="M18">
-        <v>-0.1522</v>
-      </c>
-      <c r="N18">
-        <v>10.506399999999999</v>
-      </c>
-      <c r="O18" t="b">
-        <v>1</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="16">
-        <v>17</v>
-      </c>
-      <c r="B19">
-        <v>-25</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <v>165.66</v>
-      </c>
-      <c r="E19">
-        <v>34.0824</v>
-      </c>
-      <c r="F19">
-        <v>48.201099999999997</v>
-      </c>
-      <c r="G19">
-        <v>7.4800000000000005E-2</v>
-      </c>
-      <c r="H19">
-        <v>6.3014000000000001</v>
-      </c>
-      <c r="I19">
-        <v>1.0125</v>
-      </c>
-      <c r="J19">
-        <v>162.52510000000001</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>2</v>
-      </c>
-      <c r="M19">
-        <v>-0.15659999999999999</v>
-      </c>
-      <c r="N19">
-        <v>8.2279999999999998</v>
-      </c>
-      <c r="O19" t="b">
-        <v>1</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="16">
-        <v>18</v>
-      </c>
-      <c r="B20">
-        <v>-20</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20">
-        <v>165.66</v>
-      </c>
-      <c r="E20">
-        <v>34.091200000000001</v>
-      </c>
-      <c r="F20">
-        <v>50.015099999999997</v>
-      </c>
-      <c r="G20">
-        <v>6.1800000000000001E-2</v>
-      </c>
-      <c r="H20">
-        <v>6.3014000000000001</v>
-      </c>
-      <c r="I20">
-        <v>0.91379999999999995</v>
-      </c>
-      <c r="J20">
-        <v>166.85319999999999</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>2</v>
-      </c>
-      <c r="M20">
-        <v>-0.13289999999999999</v>
-      </c>
-      <c r="N20">
-        <v>6.7991999999999999</v>
-      </c>
-      <c r="O20" t="b">
-        <v>1</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="16">
-        <v>19</v>
-      </c>
-      <c r="B21">
-        <v>-15</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21">
-        <v>165.66</v>
-      </c>
-      <c r="E21">
-        <v>34.094799999999999</v>
-      </c>
-      <c r="F21">
-        <v>52.804299999999998</v>
-      </c>
-      <c r="G21">
-        <v>6.7199999999999996E-2</v>
-      </c>
-      <c r="H21">
-        <v>6.3014000000000001</v>
-      </c>
-      <c r="I21">
-        <v>0.80100000000000005</v>
-      </c>
-      <c r="J21">
-        <v>166.28559999999999</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>2</v>
-      </c>
-      <c r="M21">
-        <v>-9.7699999999999995E-2</v>
-      </c>
-      <c r="N21">
-        <v>7.39</v>
-      </c>
-      <c r="O21" t="b">
-        <v>1</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="16">
-        <v>20</v>
-      </c>
-      <c r="B22">
-        <v>-10</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22">
-        <v>165.66</v>
-      </c>
-      <c r="E22">
-        <v>34.0869</v>
-      </c>
-      <c r="F22">
-        <v>55.474299999999999</v>
-      </c>
-      <c r="G22">
-        <v>7.22E-2</v>
-      </c>
-      <c r="H22">
-        <v>6.3014000000000001</v>
-      </c>
-      <c r="I22">
-        <v>0.68740000000000001</v>
-      </c>
-      <c r="J22">
-        <v>165.71690000000001</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>2</v>
-      </c>
-      <c r="M22">
-        <v>-6.7900000000000002E-2</v>
-      </c>
-      <c r="N22">
-        <v>7.9387999999999996</v>
-      </c>
-      <c r="O22" t="b">
-        <v>1</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="16">
-        <v>21</v>
-      </c>
-      <c r="B23">
-        <v>-5</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23">
-        <v>165.66</v>
-      </c>
-      <c r="E23">
-        <v>34.061100000000003</v>
-      </c>
-      <c r="F23">
-        <v>57.772799999999997</v>
-      </c>
-      <c r="G23">
-        <v>7.7600000000000002E-2</v>
-      </c>
-      <c r="H23">
-        <v>6.3014000000000001</v>
-      </c>
-      <c r="I23">
-        <v>0.69950000000000001</v>
-      </c>
-      <c r="J23">
-        <v>165.1474</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>2</v>
-      </c>
-      <c r="M23">
-        <v>-4.3400000000000001E-2</v>
-      </c>
-      <c r="N23">
-        <v>8.5340000000000007</v>
-      </c>
-      <c r="O23" t="b">
-        <v>1</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="16">
-        <v>22</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24">
-        <v>164.30459999999999</v>
-      </c>
-      <c r="E24">
-        <v>34.012099999999997</v>
-      </c>
-      <c r="F24">
-        <v>59.0107</v>
-      </c>
-      <c r="G24">
-        <v>8.3799999999999999E-2</v>
-      </c>
-      <c r="H24">
-        <v>6.2984999999999998</v>
-      </c>
-      <c r="I24">
-        <v>0.70679999999999998</v>
-      </c>
-      <c r="J24">
-        <v>164.577</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>2</v>
-      </c>
-      <c r="M24">
-        <v>-2.4199999999999999E-2</v>
-      </c>
-      <c r="N24">
-        <v>9.2152999999999992</v>
-      </c>
-      <c r="O24" t="b">
-        <v>1</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="16">
-        <v>23</v>
-      </c>
-      <c r="B25">
-        <v>5</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25">
-        <v>159.78659999999999</v>
-      </c>
-      <c r="E25">
-        <v>33.830199999999998</v>
-      </c>
-      <c r="F25">
-        <v>58.373600000000003</v>
-      </c>
-      <c r="G25">
-        <v>8.5400000000000004E-2</v>
-      </c>
-      <c r="H25">
-        <v>6.2888999999999999</v>
-      </c>
-      <c r="I25">
-        <v>0.69950000000000001</v>
-      </c>
-      <c r="J25">
-        <v>164.23689999999999</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>2</v>
-      </c>
-      <c r="M25">
-        <v>-1.11E-2</v>
-      </c>
-      <c r="N25">
-        <v>9.3897999999999993</v>
-      </c>
-      <c r="O25" t="b">
-        <v>1</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:P25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:P1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="16" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" s="16" t="s">
         <v>11</v>
@@ -11340,1189 +7802,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="16">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>-29</v>
-      </c>
-      <c r="C2">
-        <v>0.97</v>
-      </c>
-      <c r="D2">
-        <v>160.17509999999999</v>
-      </c>
-      <c r="E2">
-        <v>33.968200000000003</v>
-      </c>
-      <c r="F2">
-        <v>46.477600000000002</v>
-      </c>
-      <c r="G2">
-        <v>4.0399999999999998E-2</v>
-      </c>
-      <c r="H2">
-        <v>6.2896999999999998</v>
-      </c>
-      <c r="I2">
-        <v>1.4857</v>
-      </c>
-      <c r="J2">
-        <v>167.48</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>-0.16300000000000001</v>
-      </c>
-      <c r="N2">
-        <v>4.4413999999999998</v>
-      </c>
-      <c r="O2" t="b">
-        <v>1</v>
-      </c>
-      <c r="P2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="16">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>-25</v>
-      </c>
-      <c r="C3">
-        <v>1.03</v>
-      </c>
-      <c r="D3">
-        <v>170.52199999999999</v>
-      </c>
-      <c r="E3">
-        <v>33.996600000000001</v>
-      </c>
-      <c r="F3">
-        <v>48.893000000000001</v>
-      </c>
-      <c r="G3">
-        <v>4.0500000000000001E-2</v>
-      </c>
-      <c r="H3">
-        <v>6.3117000000000001</v>
-      </c>
-      <c r="I3">
-        <v>0.7752</v>
-      </c>
-      <c r="J3">
-        <v>174.51419999999999</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>-0.1603</v>
-      </c>
-      <c r="N3">
-        <v>4.4470000000000001</v>
-      </c>
-      <c r="O3" t="b">
-        <v>1</v>
-      </c>
-      <c r="P3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="16">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>-20</v>
-      </c>
-      <c r="C4">
-        <v>1.07</v>
-      </c>
-      <c r="D4">
-        <v>176.83949999999999</v>
-      </c>
-      <c r="E4">
-        <v>33.5565</v>
-      </c>
-      <c r="F4">
-        <v>52.1935</v>
-      </c>
-      <c r="G4">
-        <v>4.0300000000000002E-2</v>
-      </c>
-      <c r="H4">
-        <v>6.3250999999999999</v>
-      </c>
-      <c r="I4">
-        <v>0.71319999999999995</v>
-      </c>
-      <c r="J4">
-        <v>179.5386</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>-0.13350000000000001</v>
-      </c>
-      <c r="N4">
-        <v>4.4355000000000002</v>
-      </c>
-      <c r="O4" t="b">
-        <v>1</v>
-      </c>
-      <c r="P4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="16">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>-15</v>
-      </c>
-      <c r="C5">
-        <v>1.06</v>
-      </c>
-      <c r="D5">
-        <v>175.01070000000001</v>
-      </c>
-      <c r="E5">
-        <v>33.735199999999999</v>
-      </c>
-      <c r="F5">
-        <v>54.552799999999998</v>
-      </c>
-      <c r="G5">
-        <v>4.0300000000000002E-2</v>
-      </c>
-      <c r="H5">
-        <v>6.3212000000000002</v>
-      </c>
-      <c r="I5">
-        <v>0.71830000000000005</v>
-      </c>
-      <c r="J5">
-        <v>179.34039999999999</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>-0.10150000000000001</v>
-      </c>
-      <c r="N5">
-        <v>4.4344999999999999</v>
-      </c>
-      <c r="O5" t="b">
-        <v>1</v>
-      </c>
-      <c r="P5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="16">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>-10</v>
-      </c>
-      <c r="C6">
-        <v>1.04</v>
-      </c>
-      <c r="D6">
-        <v>172.95859999999999</v>
-      </c>
-      <c r="E6">
-        <v>33.878399999999999</v>
-      </c>
-      <c r="F6">
-        <v>56.665100000000002</v>
-      </c>
-      <c r="G6">
-        <v>4.1099999999999998E-2</v>
-      </c>
-      <c r="H6">
-        <v>6.3169000000000004</v>
-      </c>
-      <c r="I6">
-        <v>0.72070000000000001</v>
-      </c>
-      <c r="J6">
-        <v>179.1422</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>-7.4099999999999999E-2</v>
-      </c>
-      <c r="N6">
-        <v>4.5213000000000001</v>
-      </c>
-      <c r="O6" t="b">
-        <v>1</v>
-      </c>
-      <c r="P6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="16">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>-5</v>
-      </c>
-      <c r="C7">
-        <v>1.04</v>
-      </c>
-      <c r="D7">
-        <v>171.59870000000001</v>
-      </c>
-      <c r="E7">
-        <v>33.9283</v>
-      </c>
-      <c r="F7">
-        <v>58.435600000000001</v>
-      </c>
-      <c r="G7">
-        <v>4.0099999999999997E-2</v>
-      </c>
-      <c r="H7">
-        <v>6.3140000000000001</v>
-      </c>
-      <c r="I7">
-        <v>0.73060000000000003</v>
-      </c>
-      <c r="J7">
-        <v>178.94399999999999</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>-5.2400000000000002E-2</v>
-      </c>
-      <c r="N7">
-        <v>4.4069000000000003</v>
-      </c>
-      <c r="O7" t="b">
-        <v>1</v>
-      </c>
-      <c r="P7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="16">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>1.03</v>
-      </c>
-      <c r="D8">
-        <v>168.94069999999999</v>
-      </c>
-      <c r="E8">
-        <v>33.933500000000002</v>
-      </c>
-      <c r="F8">
-        <v>59.266500000000001</v>
-      </c>
-      <c r="G8">
-        <v>0.04</v>
-      </c>
-      <c r="H8">
-        <v>6.3083</v>
-      </c>
-      <c r="I8">
-        <v>0.73129999999999995</v>
-      </c>
-      <c r="J8">
-        <v>178.7458</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>-3.5299999999999998E-2</v>
-      </c>
-      <c r="N8">
-        <v>4.4009</v>
-      </c>
-      <c r="O8" t="b">
-        <v>1</v>
-      </c>
-      <c r="P8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="16">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>5</v>
-      </c>
-      <c r="C9">
-        <v>1.03</v>
-      </c>
-      <c r="D9">
-        <v>164.1893</v>
-      </c>
-      <c r="E9">
-        <v>33.756</v>
-      </c>
-      <c r="F9">
-        <v>58.748100000000001</v>
-      </c>
-      <c r="G9">
-        <v>3.9899999999999998E-2</v>
-      </c>
-      <c r="H9">
-        <v>6.2983000000000002</v>
-      </c>
-      <c r="I9">
-        <v>0.72319999999999995</v>
-      </c>
-      <c r="J9">
-        <v>178.54759999999999</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>-2.24E-2</v>
-      </c>
-      <c r="N9">
-        <v>4.3918999999999997</v>
-      </c>
-      <c r="O9" t="b">
-        <v>1</v>
-      </c>
-      <c r="P9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="16">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>-29</v>
-      </c>
-      <c r="C10">
-        <v>0.88</v>
-      </c>
-      <c r="D10">
-        <v>146.32149999999999</v>
-      </c>
-      <c r="E10">
-        <v>33.097200000000001</v>
-      </c>
-      <c r="F10">
-        <v>43.850299999999997</v>
-      </c>
-      <c r="G10">
-        <v>4.0500000000000001E-2</v>
-      </c>
-      <c r="H10">
-        <v>6.2603</v>
-      </c>
-      <c r="I10">
-        <v>2.4954999999999998</v>
-      </c>
-      <c r="J10">
-        <v>159.34350000000001</v>
-      </c>
-      <c r="K10">
-        <v>1.75</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>-0.1638</v>
-      </c>
-      <c r="N10">
-        <v>4.4509999999999996</v>
-      </c>
-      <c r="O10" t="b">
-        <v>1</v>
-      </c>
-      <c r="P10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="16">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>-25</v>
-      </c>
-      <c r="C11">
-        <v>0.94</v>
-      </c>
-      <c r="D11">
-        <v>155.53749999999999</v>
-      </c>
-      <c r="E11">
-        <v>33.756999999999998</v>
-      </c>
-      <c r="F11">
-        <v>46.0242</v>
-      </c>
-      <c r="G11">
-        <v>3.9199999999999999E-2</v>
-      </c>
-      <c r="H11">
-        <v>6.2798999999999996</v>
-      </c>
-      <c r="I11">
-        <v>1.7177</v>
-      </c>
-      <c r="J11">
-        <v>166.036</v>
-      </c>
-      <c r="K11">
-        <v>1.8976999999999999</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>-0.1618</v>
-      </c>
-      <c r="N11">
-        <v>4.3121999999999998</v>
-      </c>
-      <c r="O11" t="b">
-        <v>1</v>
-      </c>
-      <c r="P11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="16">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>-20</v>
-      </c>
-      <c r="C12">
-        <v>0.98</v>
-      </c>
-      <c r="D12">
-        <v>162.50139999999999</v>
-      </c>
-      <c r="E12">
-        <v>34.051900000000003</v>
-      </c>
-      <c r="F12">
-        <v>49.332999999999998</v>
-      </c>
-      <c r="G12">
-        <v>3.9199999999999999E-2</v>
-      </c>
-      <c r="H12">
-        <v>6.2946999999999997</v>
-      </c>
-      <c r="I12">
-        <v>1.0660000000000001</v>
-      </c>
-      <c r="J12">
-        <v>170.94030000000001</v>
-      </c>
-      <c r="K12">
-        <v>2.2490000000000001</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>-0.1351</v>
-      </c>
-      <c r="N12">
-        <v>4.3094000000000001</v>
-      </c>
-      <c r="O12" t="b">
-        <v>1</v>
-      </c>
-      <c r="P12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="16">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>-15</v>
-      </c>
-      <c r="C13">
-        <v>0.98</v>
-      </c>
-      <c r="D13">
-        <v>162.09520000000001</v>
-      </c>
-      <c r="E13">
-        <v>34.045900000000003</v>
-      </c>
-      <c r="F13">
-        <v>51.823799999999999</v>
-      </c>
-      <c r="G13">
-        <v>4.0500000000000001E-2</v>
-      </c>
-      <c r="H13">
-        <v>6.2938000000000001</v>
-      </c>
-      <c r="I13">
-        <v>0.98519999999999996</v>
-      </c>
-      <c r="J13">
-        <v>170.95419999999999</v>
-      </c>
-      <c r="K13">
-        <v>2.6002000000000001</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>-0.1026</v>
-      </c>
-      <c r="N13">
-        <v>4.4474999999999998</v>
-      </c>
-      <c r="O13" t="b">
-        <v>1</v>
-      </c>
-      <c r="P13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="16">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>-10</v>
-      </c>
-      <c r="C14">
-        <v>0.97</v>
-      </c>
-      <c r="D14">
-        <v>160.19229999999999</v>
-      </c>
-      <c r="E14">
-        <v>33.979799999999997</v>
-      </c>
-      <c r="F14">
-        <v>53.949100000000001</v>
-      </c>
-      <c r="G14">
-        <v>4.0500000000000001E-2</v>
-      </c>
-      <c r="H14">
-        <v>6.2897999999999996</v>
-      </c>
-      <c r="I14">
-        <v>0.94679999999999997</v>
-      </c>
-      <c r="J14">
-        <v>171.00149999999999</v>
-      </c>
-      <c r="K14">
-        <v>2.9510999999999998</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>-7.5300000000000006E-2</v>
-      </c>
-      <c r="N14">
-        <v>4.4535</v>
-      </c>
-      <c r="O14" t="b">
-        <v>1</v>
-      </c>
-      <c r="P14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="16">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>-5</v>
-      </c>
-      <c r="C15">
-        <v>0.97</v>
-      </c>
-      <c r="D15">
-        <v>160.01820000000001</v>
-      </c>
-      <c r="E15">
-        <v>33.947800000000001</v>
-      </c>
-      <c r="F15">
-        <v>55.9895</v>
-      </c>
-      <c r="G15">
-        <v>4.0399999999999998E-2</v>
-      </c>
-      <c r="H15">
-        <v>6.2893999999999997</v>
-      </c>
-      <c r="I15">
-        <v>0.80789999999999995</v>
-      </c>
-      <c r="J15">
-        <v>171.09139999999999</v>
-      </c>
-      <c r="K15">
-        <v>3.3018999999999998</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>-5.2999999999999999E-2</v>
-      </c>
-      <c r="N15">
-        <v>4.4454000000000002</v>
-      </c>
-      <c r="O15" t="b">
-        <v>1</v>
-      </c>
-      <c r="P15" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="16">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>0.96</v>
-      </c>
-      <c r="D16">
-        <v>158.26750000000001</v>
-      </c>
-      <c r="E16">
-        <v>33.882199999999997</v>
-      </c>
-      <c r="F16">
-        <v>57.077199999999998</v>
-      </c>
-      <c r="G16">
-        <v>4.0399999999999998E-2</v>
-      </c>
-      <c r="H16">
-        <v>6.2857000000000003</v>
-      </c>
-      <c r="I16">
-        <v>0.77529999999999999</v>
-      </c>
-      <c r="J16">
-        <v>171.23689999999999</v>
-      </c>
-      <c r="K16">
-        <v>3.6526999999999998</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>-3.56E-2</v>
-      </c>
-      <c r="N16">
-        <v>4.4424999999999999</v>
-      </c>
-      <c r="O16" t="b">
-        <v>1</v>
-      </c>
-      <c r="P16" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="16">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>5</v>
-      </c>
-      <c r="C17">
-        <v>0.96</v>
-      </c>
-      <c r="D17">
-        <v>154.09819999999999</v>
-      </c>
-      <c r="E17">
-        <v>33.708199999999998</v>
-      </c>
-      <c r="F17">
-        <v>56.803699999999999</v>
-      </c>
-      <c r="G17">
-        <v>4.0300000000000002E-2</v>
-      </c>
-      <c r="H17">
-        <v>6.2767999999999997</v>
-      </c>
-      <c r="I17">
-        <v>0.84560000000000002</v>
-      </c>
-      <c r="J17">
-        <v>171.15039999999999</v>
-      </c>
-      <c r="K17">
-        <v>3.7452999999999999</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>-2.2499999999999999E-2</v>
-      </c>
-      <c r="N17">
-        <v>4.4337999999999997</v>
-      </c>
-      <c r="O17" t="b">
-        <v>1</v>
-      </c>
-      <c r="P17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="16">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>-29</v>
-      </c>
-      <c r="C18">
-        <v>0.85</v>
-      </c>
-      <c r="D18">
-        <v>140.91409999999999</v>
-      </c>
-      <c r="E18">
-        <v>32.637999999999998</v>
-      </c>
-      <c r="F18">
-        <v>42.511899999999997</v>
-      </c>
-      <c r="G18">
-        <v>4.0500000000000001E-2</v>
-      </c>
-      <c r="H18">
-        <v>6.2488999999999999</v>
-      </c>
-      <c r="I18">
-        <v>2.6585999999999999</v>
-      </c>
-      <c r="J18">
-        <v>156.10550000000001</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>2</v>
-      </c>
-      <c r="M18">
-        <v>-0.16980000000000001</v>
-      </c>
-      <c r="N18">
-        <v>4.4488000000000003</v>
-      </c>
-      <c r="O18" t="b">
-        <v>1</v>
-      </c>
-      <c r="P18" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="16">
-        <v>17</v>
-      </c>
-      <c r="B19">
-        <v>-25</v>
-      </c>
-      <c r="C19">
-        <v>0.9</v>
-      </c>
-      <c r="D19">
-        <v>149.8673</v>
-      </c>
-      <c r="E19">
-        <v>33.380699999999997</v>
-      </c>
-      <c r="F19">
-        <v>44.640700000000002</v>
-      </c>
-      <c r="G19">
-        <v>4.0599999999999997E-2</v>
-      </c>
-      <c r="H19">
-        <v>6.2679</v>
-      </c>
-      <c r="I19">
-        <v>2.1987000000000001</v>
-      </c>
-      <c r="J19">
-        <v>162.52510000000001</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>2</v>
-      </c>
-      <c r="M19">
-        <v>-0.1673</v>
-      </c>
-      <c r="N19">
-        <v>4.4585999999999997</v>
-      </c>
-      <c r="O19" t="b">
-        <v>1</v>
-      </c>
-      <c r="P19" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="16">
-        <v>18</v>
-      </c>
-      <c r="B20">
-        <v>-20</v>
-      </c>
-      <c r="C20">
-        <v>0.94</v>
-      </c>
-      <c r="D20">
-        <v>156.02629999999999</v>
-      </c>
-      <c r="E20">
-        <v>33.793100000000003</v>
-      </c>
-      <c r="F20">
-        <v>47.802799999999998</v>
-      </c>
-      <c r="G20">
-        <v>4.1700000000000001E-2</v>
-      </c>
-      <c r="H20">
-        <v>6.2808999999999999</v>
-      </c>
-      <c r="I20">
-        <v>1.5568</v>
-      </c>
-      <c r="J20">
-        <v>166.85319999999999</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>2</v>
-      </c>
-      <c r="M20">
-        <v>-0.13969999999999999</v>
-      </c>
-      <c r="N20">
-        <v>4.5823</v>
-      </c>
-      <c r="O20" t="b">
-        <v>1</v>
-      </c>
-      <c r="P20" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="16">
-        <v>19</v>
-      </c>
-      <c r="B21">
-        <v>-15</v>
-      </c>
-      <c r="C21">
-        <v>0.93</v>
-      </c>
-      <c r="D21">
-        <v>154.0932</v>
-      </c>
-      <c r="E21">
-        <v>33.683300000000003</v>
-      </c>
-      <c r="F21">
-        <v>49.9604</v>
-      </c>
-      <c r="G21">
-        <v>4.0500000000000001E-2</v>
-      </c>
-      <c r="H21">
-        <v>6.2767999999999997</v>
-      </c>
-      <c r="I21">
-        <v>1.5317000000000001</v>
-      </c>
-      <c r="J21">
-        <v>166.28559999999999</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>2</v>
-      </c>
-      <c r="M21">
-        <v>-0.1066</v>
-      </c>
-      <c r="N21">
-        <v>4.4511000000000003</v>
-      </c>
-      <c r="O21" t="b">
-        <v>1</v>
-      </c>
-      <c r="P21" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="16">
-        <v>20</v>
-      </c>
-      <c r="B22">
-        <v>-10</v>
-      </c>
-      <c r="C22">
-        <v>0.92</v>
-      </c>
-      <c r="D22">
-        <v>151.7236</v>
-      </c>
-      <c r="E22">
-        <v>33.518999999999998</v>
-      </c>
-      <c r="F22">
-        <v>52.048000000000002</v>
-      </c>
-      <c r="G22">
-        <v>4.1399999999999999E-2</v>
-      </c>
-      <c r="H22">
-        <v>6.2717999999999998</v>
-      </c>
-      <c r="I22">
-        <v>1.5188999999999999</v>
-      </c>
-      <c r="J22">
-        <v>165.71690000000001</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>2</v>
-      </c>
-      <c r="M22">
-        <v>-7.7899999999999997E-2</v>
-      </c>
-      <c r="N22">
-        <v>4.5503999999999998</v>
-      </c>
-      <c r="O22" t="b">
-        <v>1</v>
-      </c>
-      <c r="P22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="16">
-        <v>21</v>
-      </c>
-      <c r="B23">
-        <v>-5</v>
-      </c>
-      <c r="C23">
-        <v>0.91</v>
-      </c>
-      <c r="D23">
-        <v>150.4178</v>
-      </c>
-      <c r="E23">
-        <v>33.400399999999998</v>
-      </c>
-      <c r="F23">
-        <v>53.912799999999997</v>
-      </c>
-      <c r="G23">
-        <v>4.0500000000000001E-2</v>
-      </c>
-      <c r="H23">
-        <v>6.2690000000000001</v>
-      </c>
-      <c r="I23">
-        <v>1.4057999999999999</v>
-      </c>
-      <c r="J23">
-        <v>165.1474</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>2</v>
-      </c>
-      <c r="M23">
-        <v>-5.4899999999999997E-2</v>
-      </c>
-      <c r="N23">
-        <v>4.4524999999999997</v>
-      </c>
-      <c r="O23" t="b">
-        <v>1</v>
-      </c>
-      <c r="P23" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="16">
-        <v>22</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <v>0.9</v>
-      </c>
-      <c r="D24">
-        <v>147.96889999999999</v>
-      </c>
-      <c r="E24">
-        <v>33.261000000000003</v>
-      </c>
-      <c r="F24">
-        <v>54.961399999999998</v>
-      </c>
-      <c r="G24">
-        <v>4.0399999999999998E-2</v>
-      </c>
-      <c r="H24">
-        <v>6.2637999999999998</v>
-      </c>
-      <c r="I24">
-        <v>1.4156</v>
-      </c>
-      <c r="J24">
-        <v>164.577</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>2</v>
-      </c>
-      <c r="M24">
-        <v>-3.6700000000000003E-2</v>
-      </c>
-      <c r="N24">
-        <v>4.4423000000000004</v>
-      </c>
-      <c r="O24" t="b">
-        <v>1</v>
-      </c>
-      <c r="P24" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="16">
-        <v>23</v>
-      </c>
-      <c r="B25">
-        <v>5</v>
-      </c>
-      <c r="C25">
-        <v>0.9</v>
-      </c>
-      <c r="D25">
-        <v>143.88</v>
-      </c>
-      <c r="E25">
-        <v>33.081600000000002</v>
-      </c>
-      <c r="F25">
-        <v>54.861400000000003</v>
-      </c>
-      <c r="G25">
-        <v>4.0500000000000001E-2</v>
-      </c>
-      <c r="H25">
-        <v>6.2552000000000003</v>
-      </c>
-      <c r="I25">
-        <v>1.5448</v>
-      </c>
-      <c r="J25">
-        <v>164.2251</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>2</v>
-      </c>
-      <c r="M25">
-        <v>-2.3099999999999999E-2</v>
-      </c>
-      <c r="N25">
-        <v>4.4477000000000002</v>
-      </c>
-      <c r="O25" t="b">
-        <v>1</v>
-      </c>
-      <c r="P25" t="b">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L86"/>
   <sheetViews>
     <sheetView topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -12593,23 +7879,23 @@
       </c>
       <c r="B4">
         <f>'140m3'!D7+'140m3'!F7-'140m3'!G7-'140m3'!H7-'140m3'!I7</f>
-        <v>215.7191</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <f>'140m3'!D12+'140m3'!F12-'140m3'!G12-'140m3'!H12-'140m3'!I12</f>
-        <v>208.3836</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <f>'140m3'!D2+'140m3'!F2-'140m3'!G2-'140m3'!H2-'140m3'!I2</f>
-        <v>205.85749999999999</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <f>B4-D4</f>
-        <v>9.8616000000000099</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <f>C4-D4</f>
-        <v>2.5261000000000138</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>100</v>
@@ -12621,23 +7907,23 @@
       </c>
       <c r="B5">
         <f>'140m3'!D8+'140m3'!F8-'140m3'!G8-'140m3'!H8-'140m3'!I8</f>
-        <v>215.52710000000002</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <f>'140m3'!D13+'140m3'!F13-'140m3'!G13-'140m3'!H13-'140m3'!I13</f>
-        <v>211.16459999999998</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <f>'140m3'!D3+'140m3'!F3-'140m3'!G3-'140m3'!H3-'140m3'!I3</f>
-        <v>206.154</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <f>B5-D5</f>
-        <v>9.3731000000000222</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <f>C5-D5</f>
-        <v>5.0105999999999824</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>100</v>
@@ -12649,23 +7935,23 @@
       </c>
       <c r="B6">
         <f>'140m3'!D9+'140m3'!F9-'140m3'!G9-'140m3'!H9-'140m3'!I9</f>
-        <v>210.67279999999997</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <f>'140m3'!D14+'140m3'!F14-'140m3'!G14-'140m3'!H14-'140m3'!I14</f>
-        <v>213.8228</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <f>'140m3'!D4+'140m3'!F4-'140m3'!G4-'140m3'!H4-'140m3'!I4</f>
-        <v>208.19719999999998</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <f>B6-D6</f>
-        <v>2.4755999999999858</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <f>C6-D6</f>
-        <v>5.6256000000000199</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <v>100</v>
@@ -12677,23 +7963,23 @@
       </c>
       <c r="B7">
         <f>'140m3'!D10+'140m3'!F10-'140m3'!G10-'140m3'!H10-'140m3'!I10</f>
-        <v>206.37070000000003</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <f>'140m3'!D15+'140m3'!F15-'140m3'!G15-'140m3'!H15-'140m3'!I15</f>
-        <v>215.98500000000001</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <f>'140m3'!D5+'140m3'!F5-'140m3'!G5-'140m3'!H5-'140m3'!I5</f>
-        <v>210.9271</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <f>B7-D7</f>
-        <v>-4.556399999999968</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <f>C7-D7</f>
-        <v>5.0579000000000178</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <v>100</v>
@@ -12705,23 +7991,23 @@
       </c>
       <c r="B8">
         <f>'140m3'!D11+'140m3'!F11-'140m3'!G11-'140m3'!H11-'140m3'!I11</f>
-        <v>206.44629999999998</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <f>'140m3'!D16+'140m3'!F16-'140m3'!G16-'140m3'!H16-'140m3'!I16</f>
-        <v>215.7859</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <f>'140m3'!D6+'140m3'!F6-'140m3'!G6-'140m3'!H6-'140m3'!I6</f>
-        <v>213.57470000000001</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <f>B8-D8</f>
-        <v>-7.1284000000000276</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <f>C8-D8</f>
-        <v>2.211199999999991</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>100</v>
@@ -12747,35 +8033,35 @@
       </c>
       <c r="B10">
         <f>'250m3'!D7+'250m3'!F7-'250m3'!H7-'250m3'!I7-'250m3'!G7</f>
-        <v>222.9496</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <f>'250m3'!D12+'250m3'!F12-'250m3'!G12-'250m3'!H12-'250m3'!I12</f>
-        <v>207.3768</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <f>'250m3'!D2+'250m3'!F2-'250m3'!H2-'250m3'!G2-'250m3'!I2</f>
-        <v>198.83689999999996</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <f>B10-D10</f>
-        <v>24.112700000000046</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <f>C10-D10</f>
-        <v>8.5399000000000456</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <f>'250m3'!C7*100</f>
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <f>'250m3'!C12*100</f>
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <f>'250m3'!C2*100</f>
-        <v>97</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -12784,11 +8070,11 @@
       </c>
       <c r="B11">
         <f>'250m3'!D8+'250m3'!F8-'250m3'!H8-'250m3'!I8-'250m3'!G8</f>
-        <v>221.1276</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <f>'250m3'!D13+'250m3'!F13-'250m3'!G13-'250m3'!H13-'250m3'!I13</f>
-        <v>208.4872</v>
+        <v>0</v>
       </c>
       <c r="D11" t="e">
         <f>'250m3'!D3+'250m3'!F3-Минимум</f>
@@ -12804,15 +8090,15 @@
       </c>
       <c r="G11">
         <f>'250m3'!C8*100</f>
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <f>'250m3'!C13*100</f>
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <f>'250m3'!C3*100</f>
-        <v>103</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -12821,35 +8107,35 @@
       </c>
       <c r="B12">
         <f>'250m3'!D9+'250m3'!F9-'250m3'!H9-'250m3'!I9-'250m3'!G9</f>
-        <v>215.876</v>
+        <v>0</v>
       </c>
       <c r="C12">
         <f>'250m3'!D14+'250m3'!F14-'250m3'!G14-'250m3'!H14-'250m3'!I14</f>
-        <v>208.68369999999999</v>
+        <v>0</v>
       </c>
       <c r="D12">
         <f>'250m3'!D4+'250m3'!F4-'250m3'!H4-'250m3'!G4-'250m3'!I4</f>
-        <v>221.95439999999999</v>
+        <v>0</v>
       </c>
       <c r="E12">
         <f>B12-D12</f>
-        <v>-6.0783999999999878</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <f>C12-D12</f>
-        <v>-13.270700000000005</v>
+        <v>0</v>
       </c>
       <c r="G12">
         <f>'250m3'!C9*100</f>
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="H12">
         <f>'250m3'!C14*100</f>
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <f>'250m3'!C4*100</f>
-        <v>107</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -12858,35 +8144,35 @@
       </c>
       <c r="B13">
         <f>'250m3'!D10+'250m3'!F10-'250m3'!H10-'250m3'!I10-'250m3'!G10</f>
-        <v>183.66489999999999</v>
+        <v>0</v>
       </c>
       <c r="C13">
         <f>'250m3'!D15+'250m3'!F15-'250m3'!G15-'250m3'!H15-'250m3'!I15</f>
-        <v>209.62360000000001</v>
+        <v>0</v>
       </c>
       <c r="D13">
         <f>'250m3'!D5+'250m3'!F5-'250m3'!H5-'250m3'!G5-'250m3'!I5</f>
-        <v>222.4837</v>
+        <v>0</v>
       </c>
       <c r="E13">
         <f>B13-D13</f>
-        <v>-38.81880000000001</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <f>C13-D13</f>
-        <v>-12.860099999999989</v>
+        <v>0</v>
       </c>
       <c r="G13">
         <f>'250m3'!C10*100</f>
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <f>'250m3'!C15*100</f>
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <f>'250m3'!C5*100</f>
-        <v>106</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -12895,35 +8181,35 @@
       </c>
       <c r="B14">
         <f>'250m3'!D11+'250m3'!F11-'250m3'!H11-'250m3'!I11-'250m3'!G11</f>
-        <v>196.72949999999997</v>
+        <v>0</v>
       </c>
       <c r="C14">
         <f>'250m3'!D16+'250m3'!F16-'250m3'!G16-'250m3'!H16-'250m3'!I16</f>
-        <v>208.39779999999999</v>
+        <v>0</v>
       </c>
       <c r="D14">
         <f>'250m3'!D6+'250m3'!F6-'250m3'!H6-'250m3'!G6-'250m3'!I6</f>
-        <v>222.54499999999999</v>
+        <v>0</v>
       </c>
       <c r="E14">
         <f>B14-D14</f>
-        <v>-25.815500000000014</v>
+        <v>0</v>
       </c>
       <c r="F14">
         <f>C14-D14</f>
-        <v>-14.147199999999998</v>
+        <v>0</v>
       </c>
       <c r="G14">
         <f>'250m3'!C11*100</f>
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="H14">
         <f>'250m3'!C16*100</f>
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <f>'250m3'!C6*100</f>
-        <v>104</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -12940,23 +8226,23 @@
       </c>
       <c r="B16">
         <f>'400m3'!D7+'400m3'!F7-'400m3'!G7-'400m3'!H7-'400m3'!I7</f>
-        <v>215.7191</v>
+        <v>0</v>
       </c>
       <c r="C16">
         <f>'400m3'!D12+'400m3'!F12-'400m3'!G12-'400m3'!H12-'400m3'!I12</f>
-        <v>208.3648</v>
+        <v>0</v>
       </c>
       <c r="D16">
         <f>'400m3'!D2+'400m3'!F2-'400m3'!G2-'400m3'!H2-'400m3'!I2</f>
-        <v>205.85749999999999</v>
+        <v>0</v>
       </c>
       <c r="E16">
         <f>B16-D16</f>
-        <v>9.8616000000000099</v>
+        <v>0</v>
       </c>
       <c r="F16">
         <f>C16-D16</f>
-        <v>2.507300000000015</v>
+        <v>0</v>
       </c>
       <c r="G16">
         <v>100</v>
@@ -12968,23 +8254,23 @@
       </c>
       <c r="B17">
         <f>'400m3'!D8+'400m3'!F8-'400m3'!G8-'400m3'!H8-'400m3'!I8</f>
-        <v>215.52710000000002</v>
+        <v>0</v>
       </c>
       <c r="C17">
         <f>'400m3'!D13+'400m3'!F13-'400m3'!G13-'400m3'!H13-'400m3'!I13</f>
-        <v>211.13729999999998</v>
+        <v>0</v>
       </c>
       <c r="D17">
         <f>'400m3'!D3+'400m3'!F3-'400m3'!G3-'400m3'!H3-'400m3'!I3</f>
-        <v>206.154</v>
+        <v>0</v>
       </c>
       <c r="E17">
         <f>B17-D17</f>
-        <v>9.3731000000000222</v>
+        <v>0</v>
       </c>
       <c r="F17">
         <f>C17-D17</f>
-        <v>4.9832999999999856</v>
+        <v>0</v>
       </c>
       <c r="G17">
         <v>100</v>
@@ -12996,23 +8282,23 @@
       </c>
       <c r="B18">
         <f>'400m3'!D9+'400m3'!F9-'400m3'!G9-'400m3'!H9-'400m3'!I9</f>
-        <v>210.67279999999997</v>
+        <v>0</v>
       </c>
       <c r="C18">
         <f>'400m3'!D14+'400m3'!F14-'400m3'!G14-'400m3'!H14-'400m3'!I14</f>
-        <v>213.8057</v>
+        <v>0</v>
       </c>
       <c r="D18">
         <f>'400m3'!D4+'400m3'!F4-'400m3'!G4-'400m3'!H4-'400m3'!I4</f>
-        <v>208.19719999999998</v>
+        <v>0</v>
       </c>
       <c r="E18">
         <f>B18-D18</f>
-        <v>2.4755999999999858</v>
+        <v>0</v>
       </c>
       <c r="F18">
         <f>C18-D18</f>
-        <v>5.6085000000000207</v>
+        <v>0</v>
       </c>
       <c r="G18">
         <v>100</v>
@@ -13024,23 +8310,23 @@
       </c>
       <c r="B19">
         <f>'400m3'!D10+'400m3'!F10-'400m3'!G10-'400m3'!H10-'400m3'!I10</f>
-        <v>206.32580000000002</v>
+        <v>0</v>
       </c>
       <c r="C19">
         <f>'400m3'!D15+'400m3'!F15-'400m3'!G15-'400m3'!H15-'400m3'!I15</f>
-        <v>215.96630000000002</v>
+        <v>0</v>
       </c>
       <c r="D19">
         <f>'400m3'!D5+'400m3'!F5-'400m3'!G5-'400m3'!H5-'400m3'!I5</f>
-        <v>210.9271</v>
+        <v>0</v>
       </c>
       <c r="E19">
         <f>B19-D19</f>
-        <v>-4.6012999999999806</v>
+        <v>0</v>
       </c>
       <c r="F19">
         <f>C19-D19</f>
-        <v>5.0392000000000223</v>
+        <v>0</v>
       </c>
       <c r="G19">
         <v>100</v>
@@ -13052,23 +8338,23 @@
       </c>
       <c r="B20">
         <f>'400m3'!D11+'400m3'!F11-'400m3'!G11-'400m3'!H11-'400m3'!I11</f>
-        <v>206.41449999999998</v>
+        <v>0</v>
       </c>
       <c r="C20">
         <f>'400m3'!D16+'400m3'!F16-'400m3'!G16-'400m3'!H16-'400m3'!I16</f>
-        <v>215.767</v>
+        <v>0</v>
       </c>
       <c r="D20">
         <f>'400m3'!D6+'400m3'!F6-'400m3'!G6-'400m3'!H6-'400m3'!I6</f>
-        <v>213.57470000000001</v>
+        <v>0</v>
       </c>
       <c r="E20">
         <f>B20-D20</f>
-        <v>-7.1602000000000317</v>
+        <v>0</v>
       </c>
       <c r="F20">
         <f>C20-D20</f>
-        <v>2.1922999999999888</v>
+        <v>0</v>
       </c>
       <c r="G20">
         <v>100</v>
@@ -13094,35 +8380,35 @@
       </c>
       <c r="B22">
         <f>'565m3'!D7+'565m3'!F7-'565m3'!H7-'565m3'!I7-'565m3'!G7</f>
-        <v>222.9496</v>
+        <v>0</v>
       </c>
       <c r="C22">
         <f>'565m3'!D12+'565m3'!F12-'565m3'!G12-'565m3'!H12-'565m3'!I12</f>
-        <v>204.43449999999999</v>
+        <v>0</v>
       </c>
       <c r="D22">
         <f>'565m3'!D2+'565m3'!F2-'565m3'!H2-'565m3'!G2-'565m3'!I2</f>
-        <v>198.83689999999996</v>
+        <v>0</v>
       </c>
       <c r="E22">
         <f>B22-D22</f>
-        <v>24.112700000000046</v>
+        <v>0</v>
       </c>
       <c r="F22">
         <f>C22-D22</f>
-        <v>5.5976000000000283</v>
+        <v>0</v>
       </c>
       <c r="G22">
         <f>'565m3'!C7*100</f>
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="H22">
         <f>'565m3'!C12*100</f>
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <f>'565m3'!C2*100</f>
-        <v>97</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -13131,35 +8417,35 @@
       </c>
       <c r="B23">
         <f>'565m3'!D8+'565m3'!F8-'565m3'!H8-'565m3'!I8-'565m3'!G8</f>
-        <v>221.1276</v>
+        <v>0</v>
       </c>
       <c r="C23">
         <f>'565m3'!D13+'565m3'!F13-'565m3'!G13-'565m3'!H13-'565m3'!I13</f>
-        <v>206.59950000000001</v>
+        <v>0</v>
       </c>
       <c r="D23">
         <f>'565m3'!D3+'565m3'!F3-'565m3'!H3-'565m3'!G3-'565m3'!I3</f>
-        <v>212.28759999999997</v>
+        <v>0</v>
       </c>
       <c r="E23">
         <f>B23-D23</f>
-        <v>8.8400000000000318</v>
+        <v>0</v>
       </c>
       <c r="F23">
         <f>C23-D23</f>
-        <v>-5.6880999999999631</v>
+        <v>0</v>
       </c>
       <c r="G23">
         <f>'565m3'!C8*100</f>
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="H23">
         <f>'565m3'!C13*100</f>
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <f>'565m3'!C3*100</f>
-        <v>103</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -13168,35 +8454,35 @@
       </c>
       <c r="B24">
         <f>'565m3'!D9+'565m3'!F9-'565m3'!H9-'565m3'!I9-'565m3'!G9</f>
-        <v>215.876</v>
+        <v>0</v>
       </c>
       <c r="C24">
         <f>'565m3'!D14+'565m3'!F14-'565m3'!G14-'565m3'!H14-'565m3'!I14</f>
-        <v>206.86429999999996</v>
+        <v>0</v>
       </c>
       <c r="D24">
         <f>'565m3'!D4+'565m3'!F4-'565m3'!H4-'565m3'!G4-'565m3'!I4</f>
-        <v>221.95439999999999</v>
+        <v>0</v>
       </c>
       <c r="E24">
         <f>B24-D24</f>
-        <v>-6.0783999999999878</v>
+        <v>0</v>
       </c>
       <c r="F24">
         <f>C24-D24</f>
-        <v>-15.090100000000035</v>
+        <v>0</v>
       </c>
       <c r="G24">
         <f>'565m3'!C9*100</f>
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="H24">
         <f>'565m3'!C14*100</f>
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <f>'565m3'!C4*100</f>
-        <v>107</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -13205,35 +8491,35 @@
       </c>
       <c r="B25">
         <f>'565m3'!D10+'565m3'!F10-'565m3'!H10-'565m3'!I10-'565m3'!G10</f>
-        <v>181.37549999999999</v>
+        <v>0</v>
       </c>
       <c r="C25">
         <f>'565m3'!D15+'565m3'!F15-'565m3'!G15-'565m3'!H15-'565m3'!I15</f>
-        <v>208.87</v>
+        <v>0</v>
       </c>
       <c r="D25">
         <f>'565m3'!D5+'565m3'!F5-'565m3'!H5-'565m3'!G5-'565m3'!I5</f>
-        <v>222.4837</v>
+        <v>0</v>
       </c>
       <c r="E25">
         <f>B25-D25</f>
-        <v>-41.108200000000011</v>
+        <v>0</v>
       </c>
       <c r="F25">
         <f>C25-D25</f>
-        <v>-13.613699999999994</v>
+        <v>0</v>
       </c>
       <c r="G25">
         <f>'565m3'!C10*100</f>
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="H25">
         <f>'565m3'!C15*100</f>
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <f>'565m3'!C5*100</f>
-        <v>106</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -13242,35 +8528,35 @@
       </c>
       <c r="B26">
         <f>'565m3'!D11+'565m3'!F11-'565m3'!H11-'565m3'!I11-'565m3'!G11</f>
-        <v>193.5249</v>
+        <v>0</v>
       </c>
       <c r="C26">
         <f>'565m3'!D16+'565m3'!F16-'565m3'!G16-'565m3'!H16-'565m3'!I16</f>
-        <v>208.24330000000003</v>
+        <v>0</v>
       </c>
       <c r="D26">
         <f>'565m3'!D6+'565m3'!F6-'565m3'!H6-'565m3'!G6-'565m3'!I6</f>
-        <v>222.54499999999999</v>
+        <v>0</v>
       </c>
       <c r="E26">
         <f>B26-D26</f>
-        <v>-29.020099999999985</v>
+        <v>0</v>
       </c>
       <c r="F26">
         <f>C26-D26</f>
-        <v>-14.301699999999954</v>
+        <v>0</v>
       </c>
       <c r="G26">
         <f>'565m3'!C11*100</f>
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="H26">
         <f>'565m3'!C16*100</f>
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="I26">
         <f>'565m3'!C6*100</f>
-        <v>104</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.25">
@@ -13289,213 +8575,213 @@
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B53" s="10">
+      <c r="B53" s="10" t="e">
         <f>('140m3'!J2-'250m3'!J2)/'140m3'!J2*100</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="C53" s="10" t="s">
         <v>36</v>
       </c>
       <c r="D53" s="10"/>
-      <c r="E53" s="10">
+      <c r="E53" s="10" t="e">
         <f>('400m3'!J2-'565m3'!J2)/'400m3'!J2*100</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B54" s="10">
+      <c r="B54" s="10" t="e">
         <f>('140m3'!J3-'250m3'!J3)/'140m3'!J3*100</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="C54" s="10" t="s">
         <v>36</v>
       </c>
       <c r="D54" s="10"/>
-      <c r="E54" s="10">
+      <c r="E54" s="10" t="e">
         <f>('400m3'!J3-'565m3'!J3)/'400m3'!J3*100</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B55" s="10">
+      <c r="B55" s="10" t="e">
         <f>('140m3'!J4-'250m3'!J4)/'140m3'!J4*100</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="C55" s="10" t="s">
         <v>36</v>
       </c>
       <c r="D55" s="10"/>
-      <c r="E55" s="10">
+      <c r="E55" s="10" t="e">
         <f>('400m3'!J4-'565m3'!J4)/'400m3'!J4*100</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B56" s="10">
+      <c r="B56" s="10" t="e">
         <f>('140m3'!J5-'250m3'!J5)/'140m3'!J5*100</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="C56" s="10" t="s">
         <v>36</v>
       </c>
       <c r="D56" s="10"/>
-      <c r="E56" s="10">
+      <c r="E56" s="10" t="e">
         <f>('400m3'!J5-'565m3'!J5)/'400m3'!J5*100</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B57" s="10">
+      <c r="B57" s="10" t="e">
         <f>('140m3'!J6-'250m3'!J6)/'140m3'!J6*100</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="C57" s="10" t="s">
         <v>36</v>
       </c>
       <c r="D57" s="10"/>
-      <c r="E57" s="10">
+      <c r="E57" s="10" t="e">
         <f>('400m3'!J6-'565m3'!J6)/'400m3'!J6*100</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B58" s="10">
+      <c r="B58" s="10" t="e">
         <f>('140m3'!J7-'250m3'!J7)/'140m3'!J7*100</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="C58" s="10" t="s">
         <v>37</v>
       </c>
       <c r="D58" s="10"/>
-      <c r="E58" s="10">
+      <c r="E58" s="10" t="e">
         <f>('400m3'!J7-'565m3'!J7)/'400m3'!J7*100</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B59" s="10">
+      <c r="B59" s="10" t="e">
         <f>('140m3'!J8-'250m3'!J8)/'140m3'!J8*100</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="C59" s="10" t="s">
         <v>37</v>
       </c>
       <c r="D59" s="10"/>
-      <c r="E59" s="10">
+      <c r="E59" s="10" t="e">
         <f>('400m3'!J8-'565m3'!J8)/'400m3'!J8*100</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B60" s="10">
+      <c r="B60" s="10" t="e">
         <f>('140m3'!J9-'250m3'!J9)/'140m3'!J9*100</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="C60" s="10" t="s">
         <v>37</v>
       </c>
       <c r="D60" s="10"/>
-      <c r="E60" s="10">
+      <c r="E60" s="10" t="e">
         <f>('400m3'!J9-'565m3'!J9)/'400m3'!J9*100</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B61" s="10">
+      <c r="B61" s="10" t="e">
         <f>('140m3'!J10-'250m3'!J10)/'140m3'!J10*100</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="C61" s="10" t="s">
         <v>37</v>
       </c>
       <c r="D61" s="10"/>
-      <c r="E61" s="10">
+      <c r="E61" s="10" t="e">
         <f>('400m3'!J10-'565m3'!J10)/'400m3'!J10*100</f>
-        <v>0.9756179410788598</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B62" s="10">
+      <c r="B62" s="10" t="e">
         <f>('140m3'!J11-'250m3'!J11)/'140m3'!J11*100</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="C62" s="10" t="s">
         <v>37</v>
       </c>
       <c r="D62" s="10"/>
-      <c r="E62" s="10">
+      <c r="E62" s="10" t="e">
         <f>('400m3'!J11-'565m3'!J11)/'400m3'!J11*100</f>
-        <v>0.97559637339134508</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B63" s="10">
+      <c r="B63" s="10" t="e">
         <f>('140m3'!J12-'250m3'!J12)/'140m3'!J12*100</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="C63" s="10" t="s">
         <v>38</v>
       </c>
       <c r="D63" s="10"/>
-      <c r="E63" s="10">
+      <c r="E63" s="10" t="e">
         <f>('400m3'!J12-'565m3'!J12)/'400m3'!J12*100</f>
-        <v>0.90371433606648266</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B64" s="10">
+      <c r="B64" s="10" t="e">
         <f>('140m3'!J13-'250m3'!J13)/'140m3'!J13*100</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="C64" s="10" t="s">
         <v>38</v>
       </c>
       <c r="D64" s="10"/>
-      <c r="E64" s="10">
+      <c r="E64" s="10" t="e">
         <f>('400m3'!J13-'565m3'!J13)/'400m3'!J13*100</f>
-        <v>0.78608915278218783</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B65" s="10">
+      <c r="B65" s="10" t="e">
         <f>('140m3'!J14-'250m3'!J14)/'140m3'!J14*100</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="C65" s="10" t="s">
         <v>38</v>
       </c>
       <c r="D65" s="10"/>
-      <c r="E65" s="10">
+      <c r="E65" s="10" t="e">
         <f>('400m3'!J14-'565m3'!J14)/'400m3'!J14*100</f>
-        <v>0.64885604842716438</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B66" s="10">
+      <c r="B66" s="10" t="e">
         <f>('140m3'!J15-'250m3'!J15)/'140m3'!J15*100</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="C66" s="10" t="s">
         <v>38</v>
       </c>
       <c r="D66" s="10"/>
-      <c r="E66" s="10">
+      <c r="E66" s="10" t="e">
         <f>('400m3'!J15-'565m3'!J15)/'400m3'!J15*100</f>
-        <v>0.48654116056788976</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B67" s="10">
+      <c r="B67" s="10" t="e">
         <f>('140m3'!J16-'250m3'!J16)/'140m3'!J16*100</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="C67" s="10" t="s">
         <v>38</v>
       </c>
       <c r="D67" s="10"/>
-      <c r="E67" s="10">
+      <c r="E67" s="10" t="e">
         <f>('400m3'!J16-'565m3'!J16)/'400m3'!J16*100</f>
-        <v>0.29143331621418317</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
@@ -13527,16 +8813,16 @@
       <c r="B72" s="10">
         <v>48.3</v>
       </c>
-      <c r="C72" s="10">
+      <c r="C72" s="10" t="e">
         <f>3600*('140m3'!D2)/($B$72*'140m3'!E2/100)</f>
-        <v>36234.8916020947</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D72" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E72" s="10">
+      <c r="E72" s="10" t="e">
         <f>3600*('250m3'!D2)/($B$72*'250m3'!E2/100)</f>
-        <v>35146.15661173196</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F72" s="10" t="s">
         <v>36</v>
@@ -13553,16 +8839,16 @@
         <v>-15</v>
       </c>
       <c r="B73" s="10"/>
-      <c r="C73" s="10">
+      <c r="C73" s="10" t="e">
         <f>3600*('140m3'!D3)/($B$72*'140m3'!E3/100)</f>
-        <v>36227.874775680662</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D73" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E73" s="10">
+      <c r="E73" s="10" t="e">
         <f>3600*('250m3'!D3)/($B$72*'250m3'!E3/100)</f>
-        <v>37385.251130155033</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F73" s="10" t="s">
         <v>36</v>
@@ -13589,16 +8875,16 @@
         <v>0</v>
       </c>
       <c r="B74" s="10"/>
-      <c r="C74" s="10">
+      <c r="C74" s="10" t="e">
         <f>3600*('140m3'!D4)/($B$72*'140m3'!E4/100)</f>
-        <v>36218.52323340506</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D74" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E74" s="10">
+      <c r="E74" s="10" t="e">
         <f>3600*('250m3'!D4)/($B$72*'250m3'!E4/100)</f>
-        <v>39278.780119892348</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F74" s="10" t="s">
         <v>36</v>
@@ -13608,23 +8894,23 @@
       </c>
       <c r="H74" s="12">
         <f>(B4+C10)/2</f>
-        <v>211.54795000000001</v>
+        <v>0</v>
       </c>
       <c r="I74" s="11">
         <f>(C4+B10)/2</f>
-        <v>215.66660000000002</v>
+        <v>0</v>
       </c>
       <c r="J74" s="13">
         <f>(D4+D10)/2</f>
-        <v>202.34719999999999</v>
+        <v>0</v>
       </c>
       <c r="K74" s="12">
         <f>H74-J74</f>
-        <v>9.2007500000000277</v>
+        <v>0</v>
       </c>
       <c r="L74" s="11">
         <f>I74-J74</f>
-        <v>13.31940000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
@@ -13632,16 +8918,16 @@
         <v>8</v>
       </c>
       <c r="B75" s="10"/>
-      <c r="C75" s="10">
+      <c r="C75" s="10" t="e">
         <f>3600*('140m3'!D5)/($B$72*'140m3'!E5/100)</f>
-        <v>36214.698993824815</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D75" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E75" s="10">
+      <c r="E75" s="10" t="e">
         <f>3600*('250m3'!D5)/($B$72*'250m3'!E5/100)</f>
-        <v>38666.662051499676</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F75" s="10" t="s">
         <v>36</v>
@@ -13651,11 +8937,11 @@
       </c>
       <c r="H75" s="12">
         <f>(B5+C11)/2</f>
-        <v>212.00715000000002</v>
+        <v>0</v>
       </c>
       <c r="I75" s="11">
         <f>(C5+B11)/2</f>
-        <v>216.14609999999999</v>
+        <v>0</v>
       </c>
       <c r="J75" s="13" t="e">
         <f>(D5+D11)/2</f>
@@ -13675,16 +8961,16 @@
         <v>15</v>
       </c>
       <c r="B76" s="10"/>
-      <c r="C76" s="10">
+      <c r="C76" s="10" t="e">
         <f>3600*('140m3'!D6)/($B$72*'140m3'!E6/100)</f>
-        <v>36223.092133771577</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D76" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E76" s="10">
+      <c r="E76" s="10" t="e">
         <f>3600*('250m3'!D6)/($B$72*'250m3'!E6/100)</f>
-        <v>38051.750447490092</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F76" s="10" t="s">
         <v>36</v>
@@ -13694,23 +8980,23 @@
       </c>
       <c r="H76" s="12">
         <f>(B6+C12)/2</f>
-        <v>209.67824999999999</v>
+        <v>0</v>
       </c>
       <c r="I76" s="11">
         <f>(C6+B12)/2</f>
-        <v>214.8494</v>
+        <v>0</v>
       </c>
       <c r="J76" s="13">
         <f>(D6+D12)/2</f>
-        <v>215.07579999999999</v>
+        <v>0</v>
       </c>
       <c r="K76" s="12">
         <f>H76-J76</f>
-        <v>-5.3975499999999954</v>
+        <v>0</v>
       </c>
       <c r="L76" s="11">
         <f>I76-J76</f>
-        <v>-0.22639999999998395</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
@@ -13718,16 +9004,16 @@
         <v>-29</v>
       </c>
       <c r="B77" s="10"/>
-      <c r="C77" s="10">
+      <c r="C77" s="10" t="e">
         <f>3600*('140m3'!D7)/($B$72*'140m3'!E7/100)</f>
-        <v>36250.529761359976</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D77" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E77" s="10">
+      <c r="E77" s="10" t="e">
         <f>3600*('250m3'!D7)/($B$72*'250m3'!E7/100)</f>
-        <v>37697.041164430011</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F77" s="10" t="s">
         <v>37</v>
@@ -13737,23 +9023,23 @@
       </c>
       <c r="H77" s="12">
         <f>(B7+C13)/2</f>
-        <v>207.99715000000003</v>
+        <v>0</v>
       </c>
       <c r="I77" s="11">
         <f>(C7+B13)/2</f>
-        <v>199.82495</v>
+        <v>0</v>
       </c>
       <c r="J77" s="13">
         <f>(D7+D13)/2</f>
-        <v>216.7054</v>
+        <v>0</v>
       </c>
       <c r="K77" s="12">
         <f>H77-J77</f>
-        <v>-8.7082499999999641</v>
+        <v>0</v>
       </c>
       <c r="L77" s="11">
         <f>I77-J77</f>
-        <v>-16.880449999999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
@@ -13761,16 +9047,16 @@
         <v>-15</v>
       </c>
       <c r="B78" s="10"/>
-      <c r="C78" s="10">
+      <c r="C78" s="10" t="e">
         <f>3600*('140m3'!D8)/($B$72*'140m3'!E8/100)</f>
-        <v>36005.732048483078</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D78" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E78" s="10">
+      <c r="E78" s="10" t="e">
         <f>3600*('250m3'!D8)/($B$72*'250m3'!E8/100)</f>
-        <v>37107.44077725277</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F78" s="10" t="s">
         <v>37</v>
@@ -13780,23 +9066,23 @@
       </c>
       <c r="H78" s="12">
         <f>(B8+C14)/2</f>
-        <v>207.42204999999998</v>
+        <v>0</v>
       </c>
       <c r="I78" s="11">
         <f>(C8+B14)/2</f>
-        <v>206.2577</v>
+        <v>0</v>
       </c>
       <c r="J78" s="13">
         <f>(D8+D14)/2</f>
-        <v>218.05984999999998</v>
+        <v>0</v>
       </c>
       <c r="K78" s="12">
         <f>H78-J78</f>
-        <v>-10.637799999999999</v>
+        <v>0</v>
       </c>
       <c r="L78" s="11">
         <f>I78-J78</f>
-        <v>-11.802149999999983</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
@@ -13804,16 +9090,16 @@
         <v>0</v>
       </c>
       <c r="B79" s="10"/>
-      <c r="C79" s="10">
+      <c r="C79" s="10" t="e">
         <f>3600*('140m3'!D9)/($B$72*'140m3'!E9/100)</f>
-        <v>35203.930950592097</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D79" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E79" s="10">
+      <c r="E79" s="10" t="e">
         <f>3600*('250m3'!D9)/($B$72*'250m3'!E9/100)</f>
-        <v>36253.441762182236</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F79" s="10" t="s">
         <v>37</v>
@@ -13824,16 +9110,16 @@
         <v>8</v>
       </c>
       <c r="B80" s="10"/>
-      <c r="C80" s="10">
+      <c r="C80" s="10" t="e">
         <f>3600*('140m3'!D10)/($B$72*'140m3'!E10/100)</f>
-        <v>36234.8916020947</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D80" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E80" s="10">
+      <c r="E80" s="10" t="e">
         <f>3600*('250m3'!D10)/($B$72*'250m3'!E10/100)</f>
-        <v>33218.385936164697</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F80" s="10" t="s">
         <v>37</v>
@@ -13844,16 +9130,16 @@
         <v>15</v>
       </c>
       <c r="B81" s="10"/>
-      <c r="C81" s="10">
+      <c r="C81" s="10" t="e">
         <f>3600*('140m3'!D11)/($B$72*'140m3'!E11/100)</f>
-        <v>36227.874775680662</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D81" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E81" s="10">
+      <c r="E81" s="10" t="e">
         <f>3600*('250m3'!D11)/($B$72*'250m3'!E11/100)</f>
-        <v>34762.52739939461</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F81" s="10" t="s">
         <v>37</v>
@@ -13864,16 +9150,16 @@
         <v>-29</v>
       </c>
       <c r="B82" s="10"/>
-      <c r="C82" s="10">
+      <c r="C82" s="10" t="e">
         <f>3600*('140m3'!D12)/($B$72*'140m3'!E12/100)</f>
-        <v>36218.52323340506</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D82" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E82" s="10">
+      <c r="E82" s="10" t="e">
         <f>3600*('250m3'!D12)/($B$72*'250m3'!E12/100)</f>
-        <v>36034.268851432404</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F82" s="10" t="s">
         <v>38</v>
@@ -13884,16 +9170,16 @@
         <v>-15</v>
       </c>
       <c r="B83" s="10"/>
-      <c r="C83" s="10">
+      <c r="C83" s="10" t="e">
         <f>3600*('140m3'!D13)/($B$72*'140m3'!E13/100)</f>
-        <v>36214.698993824815</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D83" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E83" s="10">
+      <c r="E83" s="10" t="e">
         <f>3600*('250m3'!D13)/($B$72*'250m3'!E13/100)</f>
-        <v>35782.96800566103</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F83" s="10" t="s">
         <v>38</v>
@@ -13904,16 +9190,16 @@
         <v>0</v>
       </c>
       <c r="B84" s="10"/>
-      <c r="C84" s="10">
+      <c r="C84" s="10" t="e">
         <f>3600*('140m3'!D14)/($B$72*'140m3'!E14/100)</f>
-        <v>36223.092133771577</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D84" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E84" s="10">
+      <c r="E84" s="10" t="e">
         <f>3600*('250m3'!D14)/($B$72*'250m3'!E14/100)</f>
-        <v>35410.714340476297</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F84" s="10" t="s">
         <v>38</v>
@@ -13924,16 +9210,16 @@
         <v>8</v>
       </c>
       <c r="B85" s="10"/>
-      <c r="C85" s="10">
+      <c r="C85" s="10" t="e">
         <f>3600*('140m3'!D15)/($B$72*'140m3'!E15/100)</f>
-        <v>36250.529761359976</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D85" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E85" s="10">
+      <c r="E85" s="10" t="e">
         <f>3600*('250m3'!D15)/($B$72*'250m3'!E15/100)</f>
-        <v>35243.029845586389</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F85" s="10" t="s">
         <v>38</v>
@@ -13944,16 +9230,16 @@
         <v>15</v>
       </c>
       <c r="B86" s="10"/>
-      <c r="C86" s="10">
+      <c r="C86" s="10" t="e">
         <f>3600*('140m3'!D16)/($B$72*'140m3'!E16/100)</f>
-        <v>36005.732048483078</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D86" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E86" s="10">
+      <c r="E86" s="10" t="e">
         <f>3600*('250m3'!D16)/($B$72*'250m3'!E16/100)</f>
-        <v>34839.809626182723</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F86" s="10" t="s">
         <v>38</v>
@@ -13967,7 +9253,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:S55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14089,51 +9375,51 @@
       </c>
       <c r="E4" s="2">
         <f>$B4*Обработка!B4*10^3*4</f>
-        <v>1332137.5384772522</v>
+        <v>0</v>
       </c>
       <c r="F4" s="2">
         <f>$B4*Обработка!C4*10^3*4</f>
-        <v>1286838.3743629023</v>
+        <v>0</v>
       </c>
       <c r="G4" s="2">
         <f>$B4*Обработка!D4*10^3*4</f>
-        <v>1271238.8626092032</v>
+        <v>0</v>
       </c>
       <c r="I4" s="3">
         <f>$C4*Обработка!B10*10^3*4</f>
-        <v>1046480.2072863142</v>
+        <v>0</v>
       </c>
       <c r="J4" s="3">
         <f>$C4*Обработка!C10*10^3*4</f>
-        <v>973384.64231544931</v>
+        <v>0</v>
       </c>
       <c r="K4" s="3">
         <f>$C4*Обработка!D10*10^3*4</f>
-        <v>933300.08364297613</v>
+        <v>0</v>
       </c>
       <c r="M4" s="7">
         <f>(J4+E4)/10^6</f>
-        <v>2.3055221807927015</v>
+        <v>0</v>
       </c>
       <c r="N4" s="8">
         <f>(I4+F4)/10^6</f>
-        <v>2.3333185816492166</v>
+        <v>0</v>
       </c>
       <c r="O4" s="9">
         <f>(K4+G4)/10^6</f>
-        <v>2.2045389462521792</v>
-      </c>
-      <c r="Q4" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="7" t="e">
         <f t="shared" ref="Q4:S8" si="0">(M4-$O4)/$O4*100</f>
-        <v>4.5806963271027108</v>
-      </c>
-      <c r="R4" s="8">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R4" s="8" t="e">
         <f t="shared" si="0"/>
-        <v>5.8415677171849882</v>
-      </c>
-      <c r="S4" s="9">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S4" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -14150,23 +9436,23 @@
       </c>
       <c r="E5" s="2">
         <f>$B5*Обработка!B5*10^3*4</f>
-        <v>1424160.2559311362</v>
+        <v>0</v>
       </c>
       <c r="F5" s="2">
         <f>$B5*Обработка!C5*10^3*4</f>
-        <v>1395333.7226715153</v>
+        <v>0</v>
       </c>
       <c r="G5" s="2">
         <f>$B5*Обработка!D5*10^3*4</f>
-        <v>1362224.6733762363</v>
+        <v>0</v>
       </c>
       <c r="I5" s="3">
         <f>$C5*Обработка!B11*10^3*4</f>
-        <v>771312.08684438711</v>
+        <v>0</v>
       </c>
       <c r="J5" s="3">
         <f>$C5*Обработка!C11*10^3*4</f>
-        <v>727221.28450877732</v>
+        <v>0</v>
       </c>
       <c r="K5" s="3" t="e">
         <f>$C5*Обработка!D11*10^3*4</f>
@@ -14174,11 +9460,11 @@
       </c>
       <c r="M5" s="7">
         <f>(J5+E5)/10^6</f>
-        <v>2.1513815404399135</v>
+        <v>0</v>
       </c>
       <c r="N5" s="8">
         <f>(I5+F5)/10^6</f>
-        <v>2.1666458095159022</v>
+        <v>0</v>
       </c>
       <c r="O5" s="9" t="e">
         <f>(K5+G5)/10^6</f>
@@ -14211,51 +9497,51 @@
       </c>
       <c r="E6" s="2">
         <f>$B6*Обработка!B6*10^3*4</f>
-        <v>1294747.1105739253</v>
+        <v>0</v>
       </c>
       <c r="F6" s="2">
         <f>$B6*Обработка!C6*10^3*4</f>
-        <v>1314106.2940959933</v>
+        <v>0</v>
       </c>
       <c r="G6" s="2">
         <f>$B6*Обработка!D6*10^3*4</f>
-        <v>1279532.6360573443</v>
+        <v>0</v>
       </c>
       <c r="I6" s="3">
         <f>$C6*Обработка!B12*10^3*4</f>
-        <v>738386.46271569363</v>
+        <v>0</v>
       </c>
       <c r="J6" s="3">
         <f>$C6*Обработка!C12*10^3*4</f>
-        <v>713785.78012110176</v>
+        <v>0</v>
       </c>
       <c r="K6" s="3">
         <f>$C6*Обработка!D12*10^3*4</f>
-        <v>759177.14011832781</v>
+        <v>0</v>
       </c>
       <c r="M6" s="7">
         <f>(J6+E6)/10^6</f>
-        <v>2.0085328906950273</v>
+        <v>0</v>
       </c>
       <c r="N6" s="8">
         <f>(I6+F6)/10^6</f>
-        <v>2.0524927568116866</v>
+        <v>0</v>
       </c>
       <c r="O6" s="9">
         <f>(K6+G6)/10^6</f>
-        <v>2.0387097761756721</v>
-      </c>
-      <c r="Q6" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="7" t="e">
         <f t="shared" si="0"/>
-        <v>-1.4801952604186903</v>
-      </c>
-      <c r="R6" s="8">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R6" s="8" t="e">
         <f t="shared" si="0"/>
-        <v>0.67606389085304108</v>
-      </c>
-      <c r="S6" s="9">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S6" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -14272,51 +9558,51 @@
       </c>
       <c r="E7" s="2">
         <f>$B7*Обработка!B7*10^3*4</f>
-        <v>1290270.7499322428</v>
+        <v>0</v>
       </c>
       <c r="F7" s="2">
         <f>$B7*Обработка!C7*10^3*4</f>
-        <v>1350381.2698416754</v>
+        <v>0</v>
       </c>
       <c r="G7" s="2">
         <f>$B7*Обработка!D7*10^3*4</f>
-        <v>1318758.2709078039</v>
+        <v>0</v>
       </c>
       <c r="I7" s="3">
         <f>$C7*Обработка!B13*10^3*4</f>
-        <v>608876.93070930627</v>
+        <v>0</v>
       </c>
       <c r="J7" s="3">
         <f>$C7*Обработка!C13*10^3*4</f>
-        <v>694933.94857828214</v>
+        <v>0</v>
       </c>
       <c r="K7" s="3">
         <f>$C7*Обработка!D13*10^3*4</f>
-        <v>737567.12572108267</v>
+        <v>0</v>
       </c>
       <c r="M7" s="7">
         <f>(J7+E7)/10^6</f>
-        <v>1.9852046985105247</v>
+        <v>0</v>
       </c>
       <c r="N7" s="8">
         <f>(I7+F7)/10^6</f>
-        <v>1.9592582005509818</v>
+        <v>0</v>
       </c>
       <c r="O7" s="9">
         <f>(K7+G7)/10^6</f>
-        <v>2.0563253966288864</v>
-      </c>
-      <c r="Q7" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="7" t="e">
         <f t="shared" si="0"/>
-        <v>-3.4586305375090927</v>
-      </c>
-      <c r="R7" s="8">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R7" s="8" t="e">
         <f t="shared" si="0"/>
-        <v>-4.7204200384353232</v>
-      </c>
-      <c r="S7" s="9">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S7" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -14333,51 +9619,51 @@
       </c>
       <c r="E8" s="2">
         <f>$B8*Обработка!B8*10^3*4</f>
-        <v>1331626.6313764655</v>
+        <v>0</v>
       </c>
       <c r="F8" s="2">
         <f>$B8*Обработка!C8*10^3*4</f>
-        <v>1391869.22272542</v>
+        <v>0</v>
       </c>
       <c r="G8" s="2">
         <f>$B8*Обработка!D8*10^3*4</f>
-        <v>1377606.4686470006</v>
+        <v>0</v>
       </c>
       <c r="I8" s="3">
         <f>$C8*Обработка!B14*10^3*4</f>
-        <v>662490.47050573386</v>
+        <v>0</v>
       </c>
       <c r="J8" s="3">
         <f>$C8*Обработка!C14*10^3*4</f>
-        <v>701783.70083978167</v>
+        <v>0</v>
       </c>
       <c r="K8" s="3">
         <f>$C8*Обработка!D14*10^3*4</f>
-        <v>749424.67580458731</v>
+        <v>0</v>
       </c>
       <c r="M8" s="7">
         <f>(J8+E8)/10^6</f>
-        <v>2.0334103322162473</v>
+        <v>0</v>
       </c>
       <c r="N8" s="8">
         <f>(I8+F8)/10^6</f>
-        <v>2.0543596932311536</v>
+        <v>0</v>
       </c>
       <c r="O8" s="9">
         <f>(K8+G8)/10^6</f>
-        <v>2.1270311444515881</v>
-      </c>
-      <c r="Q8" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="7" t="e">
         <f t="shared" si="0"/>
-        <v>-4.4014782049408607</v>
-      </c>
-      <c r="R8" s="8">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R8" s="8" t="e">
         <f t="shared" si="0"/>
-        <v>-3.4165673318888499</v>
-      </c>
-      <c r="S8" s="9">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S8" s="9" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -14408,51 +9694,51 @@
       <c r="B12">
         <v>4</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="12" t="e">
         <f>E4-$B$12*Обработка!C77*4</f>
-        <v>752129.06229549262</v>
-      </c>
-      <c r="F12" s="12">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F12" s="12" t="e">
         <f>F4-$B$12*Обработка!C82*4</f>
-        <v>707342.00262842129</v>
-      </c>
-      <c r="G12" s="12">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G12" s="12" t="e">
         <f>G4-$B$12*Обработка!C72*4</f>
-        <v>691480.59697568801</v>
-      </c>
-      <c r="I12" s="11">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I12" s="11" t="e">
         <f>I4-$B$12*Обработка!E77*4</f>
-        <v>443327.54865543405</v>
-      </c>
-      <c r="J12" s="11">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J12" s="11" t="e">
         <f>J4-$B$12*Обработка!E82*4</f>
-        <v>396836.34069253085</v>
-      </c>
-      <c r="K12" s="11">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K12" s="11" t="e">
         <f>K4-$B$12*Обработка!E72*4</f>
-        <v>370961.57785526477</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E13" s="12">
+      <c r="E13" s="12" t="e">
         <f>E5-$B$12*Обработка!C78*4</f>
-        <v>848068.54315540695</v>
-      </c>
-      <c r="F13" s="12">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F13" s="12" t="e">
         <f>F5-$B$12*Обработка!C83*4</f>
-        <v>815898.53877031826</v>
-      </c>
-      <c r="G13" s="12">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G13" s="12" t="e">
         <f>G5-$B$12*Обработка!C73*4</f>
-        <v>782578.67696534574</v>
-      </c>
-      <c r="I13" s="11">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I13" s="11" t="e">
         <f>I5-$B$12*Обработка!E78*4</f>
-        <v>177593.03440834279</v>
-      </c>
-      <c r="J13" s="11">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J13" s="11" t="e">
         <f>J5-$B$12*Обработка!E83*4</f>
-        <v>154693.79641820083</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K13" s="11" t="e">
         <f>K5-$B$12*Обработка!E73*4</f>
@@ -14460,55 +9746,55 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E14" s="12">
+      <c r="E14" s="12" t="e">
         <f>E6-$B$12*Обработка!C79*4</f>
-        <v>731484.21536445175</v>
-      </c>
-      <c r="F14" s="12">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F14" s="12" t="e">
         <f>F6-$B$12*Обработка!C84*4</f>
-        <v>734536.81995564804</v>
-      </c>
-      <c r="G14" s="12">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G14" s="12" t="e">
         <f>G6-$B$12*Обработка!C74*4</f>
-        <v>700036.26432286331</v>
-      </c>
-      <c r="I14" s="11">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I14" s="11" t="e">
         <f>I6-$B$12*Обработка!E79*4</f>
-        <v>158331.39452077786</v>
-      </c>
-      <c r="J14" s="11">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J14" s="11" t="e">
         <f>J6-$B$12*Обработка!E84*4</f>
-        <v>147214.35067348101</v>
-      </c>
-      <c r="K14" s="11">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K14" s="11" t="e">
         <f>K6-$B$12*Обработка!E74*4</f>
-        <v>130716.65820005024</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E15" s="12">
+      <c r="E15" s="12" t="e">
         <f>E7-$B$12*Обработка!C80*4</f>
-        <v>710512.48429872759</v>
-      </c>
-      <c r="F15" s="12">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F15" s="12" t="e">
         <f>F7-$B$12*Обработка!C85*4</f>
-        <v>770372.7936599158</v>
-      </c>
-      <c r="G15" s="12">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G15" s="12" t="e">
         <f>G7-$B$12*Обработка!C75*4</f>
-        <v>739323.08700660686</v>
-      </c>
-      <c r="I15" s="11">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I15" s="11" t="e">
         <f>I7-$B$12*Обработка!E80*4</f>
-        <v>77382.75573067111</v>
-      </c>
-      <c r="J15" s="11">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J15" s="11" t="e">
         <f>J7-$B$12*Обработка!E85*4</f>
-        <v>131045.47104889993</v>
-      </c>
-      <c r="K15" s="11">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K15" s="11" t="e">
         <f>K7-$B$12*Обработка!E75*4</f>
-        <v>118900.53289708786</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
@@ -14516,29 +9802,29 @@
         <f>0.0000358619528053605*A4^5 - 0.000379724657991076*A4^4 - 0.0158829254247223*A4^3 + 0.521492467029231*A4^2 + 0.430287752478577*A4 + 1535.32324024035</f>
         <v>1344.6468351233034</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="12" t="e">
         <f>E8-$B$12*Обработка!C81*4</f>
-        <v>751980.63496557495</v>
-      </c>
-      <c r="F16" s="12">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F16" s="12" t="e">
         <f>F8-$B$12*Обработка!C86*4</f>
-        <v>815777.50994969078</v>
-      </c>
-      <c r="G16" s="12">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G16" s="12" t="e">
         <f>G8-$B$12*Обработка!C76*4</f>
-        <v>798036.99450665538</v>
-      </c>
-      <c r="I16" s="11">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I16" s="11" t="e">
         <f>I8-$B$12*Обработка!E81*4</f>
-        <v>106290.03211542009</v>
-      </c>
-      <c r="J16" s="11">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J16" s="11" t="e">
         <f>J8-$B$12*Обработка!E86*4</f>
-        <v>144346.7468208581</v>
-      </c>
-      <c r="K16" s="11">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K16" s="11" t="e">
         <f>K8-$B$12*Обработка!E76*4</f>
-        <v>140596.66864474583</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -14570,125 +9856,125 @@
       <c r="D21" s="14">
         <v>-29</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E21" s="15" t="e">
         <f>(E12+J12)/1000000</f>
-        <v>1.1489654029880236</v>
-      </c>
-      <c r="F21" s="5">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F21" s="5" t="e">
         <f>(I12+F12)/1000000</f>
-        <v>1.1506695512838554</v>
-      </c>
-      <c r="G21" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G21" s="6" t="e">
         <f>(G12+K12)/1000000</f>
-        <v>1.0624421748309527</v>
-      </c>
-      <c r="I21" s="15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I21" s="15" t="e">
         <f>E21-G21</f>
-        <v>8.6523228157070919E-2</v>
-      </c>
-      <c r="J21" s="5">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J21" s="5" t="e">
         <f>F21-G21</f>
-        <v>8.8227376452902684E-2</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D22" s="14">
         <v>-15</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E22" s="15" t="e">
         <f>(E13+J13)/1000000</f>
-        <v>1.0027623395736078</v>
-      </c>
-      <c r="F22" s="5">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F22" s="5" t="e">
         <f>(I13+F13)/1000000</f>
-        <v>0.9934915731786611</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G22" s="6" t="e">
         <f>(G13+K13)/1000000</f>
-        <v>#NAME?</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="I22" s="15" t="e">
         <f>E22-G22</f>
-        <v>#NAME?</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="J22" s="5" t="e">
         <f>F22-G22</f>
-        <v>#NAME?</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D23" s="14">
         <v>0</v>
       </c>
-      <c r="E23" s="15">
+      <c r="E23" s="15" t="e">
         <f>(E14+J14)/1000000</f>
-        <v>0.87869856603793273</v>
-      </c>
-      <c r="F23" s="5">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F23" s="5" t="e">
         <f>(I14+F14)/1000000</f>
-        <v>0.89286821447642595</v>
-      </c>
-      <c r="G23" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G23" s="6" t="e">
         <f>(G14+K14)/1000000</f>
-        <v>0.83075292252291355</v>
-      </c>
-      <c r="I23" s="15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I23" s="15" t="e">
         <f>E23-G23</f>
-        <v>4.7945643515019176E-2</v>
-      </c>
-      <c r="J23" s="5">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J23" s="5" t="e">
         <f>F23-G23</f>
-        <v>6.2115291953512397E-2</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D24" s="14">
         <v>8</v>
       </c>
-      <c r="E24" s="15">
+      <c r="E24" s="15" t="e">
         <f>(E15+J15)/1000000</f>
-        <v>0.84155795534762756</v>
-      </c>
-      <c r="F24" s="5">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F24" s="5" t="e">
         <f>(I15+F15)/1000000</f>
-        <v>0.84775554939058695</v>
-      </c>
-      <c r="G24" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G24" s="6" t="e">
         <f>(G15+K15)/1000000</f>
-        <v>0.85822361990369467</v>
-      </c>
-      <c r="I24" s="15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I24" s="15" t="e">
         <f>E24-G24</f>
-        <v>-1.6665664556067106E-2</v>
-      </c>
-      <c r="J24" s="5">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J24" s="5" t="e">
         <f>F24-G24</f>
-        <v>-1.0468070513107719E-2</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D25" s="14">
         <v>15</v>
       </c>
-      <c r="E25" s="15">
+      <c r="E25" s="15" t="e">
         <f>(E16+J16)/1000000</f>
-        <v>0.89632738178643301</v>
-      </c>
-      <c r="F25" s="5">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F25" s="5" t="e">
         <f>(I16+F16)/1000000</f>
-        <v>0.92206754206511088</v>
-      </c>
-      <c r="G25" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G25" s="6" t="e">
         <f>(G16+K16)/1000000</f>
-        <v>0.93863366315140118</v>
-      </c>
-      <c r="I25" s="15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I25" s="15" t="e">
         <f>E25-G25</f>
-        <v>-4.2306281364968168E-2</v>
-      </c>
-      <c r="J25" s="5">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J25" s="5" t="e">
         <f>F25-G25</f>
-        <v>-1.6566121086290297E-2</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14727,85 +10013,85 @@
       <c r="C51" s="14">
         <v>-29</v>
       </c>
-      <c r="D51" s="15">
+      <c r="D51" s="15" t="e">
         <f>E21/((Обработка!B4+Обработка!C10)*4)*1000000</f>
-        <v>678.90364985102883</v>
-      </c>
-      <c r="E51" s="5">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E51" s="5" t="e">
         <f>F21/((Обработка!C4+Обработка!B10)*4)*1000000</f>
-        <v>666.92614392067162</v>
-      </c>
-      <c r="F51" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F51" s="6" t="e">
         <f>G21/((Обработка!D4+Обработка!D10)*4)*1000000</f>
-        <v>656.32374381196814</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="52" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C52" s="14">
         <v>-15</v>
       </c>
-      <c r="D52" s="15">
+      <c r="D52" s="15" t="e">
         <f>E22/((Обработка!B5+Обработка!C11)*4)*1000000</f>
-        <v>591.23143934863026</v>
-      </c>
-      <c r="E52" s="5">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E52" s="5" t="e">
         <f>F22/((Обработка!C5+Обработка!B11)*4)*1000000</f>
-        <v>574.54863468428368</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F52" s="6" t="e">
         <f>G22/((Обработка!D5+Обработка!D11)*4)*1000000</f>
-        <v>#NAME?</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="53" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C53" s="14">
         <v>0</v>
       </c>
-      <c r="D53" s="15">
+      <c r="D53" s="15" t="e">
         <f>E23/((Обработка!B6+Обработка!C12)*4)*1000000</f>
-        <v>523.83745455115923</v>
-      </c>
-      <c r="E53" s="5">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E53" s="5" t="e">
         <f>F23/((Обработка!C6+Обработка!B12)*4)*1000000</f>
-        <v>519.4732999466288</v>
-      </c>
-      <c r="F53" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F53" s="6" t="e">
         <f>G23/((Обработка!D6+Обработка!D12)*4)*1000000</f>
-        <v>482.82566107095363</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="54" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C54" s="14">
         <v>8</v>
       </c>
-      <c r="D54" s="15">
+      <c r="D54" s="15" t="e">
         <f>E24/((Обработка!B7+Обработка!C13)*4)*1000000</f>
-        <v>505.75089331009315</v>
-      </c>
-      <c r="E54" s="5">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E54" s="5" t="e">
         <f>F24/((Обработка!C7+Обработка!B13)*4)*1000000</f>
-        <v>530.31137339868405</v>
-      </c>
-      <c r="F54" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F54" s="6" t="e">
         <f>G24/((Обработка!D7+Обработка!D13)*4)*1000000</f>
-        <v>495.04051347110794</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="55" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C55" s="14">
         <v>15</v>
       </c>
-      <c r="D55" s="15">
+      <c r="D55" s="15" t="e">
         <f>E25/((Обработка!B8+Обработка!C14)*4)*1000000</f>
-        <v>540.15917171440617</v>
-      </c>
-      <c r="E55" s="5">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E55" s="5" t="e">
         <f>F25/((Обработка!C8+Обработка!B14)*4)*1000000</f>
-        <v>558.80795120928269</v>
-      </c>
-      <c r="F55" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F55" s="6" t="e">
         <f>G25/((Обработка!D8+Обработка!D14)*4)*1000000</f>
-        <v>538.05965607114365</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>

--- a/resdataASW_all_m3.xlsx
+++ b/resdataASW_all_m3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OparinMV\Documents\GitHub\GZ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD6E9CC-079A-4E51-8F27-2A85CC5DE97B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BDD8B9C-2F8F-44E7-877F-2E3DEBB2C470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="140m3" sheetId="1" r:id="rId1"/>
@@ -7551,8 +7551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7744,10 +7744,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7800,6 +7800,11 @@
       </c>
       <c r="P1" s="16" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/resdataASW_all_m3.xlsx
+++ b/resdataASW_all_m3.xlsx
@@ -7126,7 +7126,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P61"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7218,134 +7218,143 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-29</v>
+        <v>-5</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0.95456</v>
       </c>
       <c r="C2" t="n">
-        <v>165.66</v>
+        <v>158.1321</v>
       </c>
       <c r="D2" t="n">
-        <v>34.0758</v>
+        <v>33.8697</v>
       </c>
       <c r="E2" t="n">
-        <v>48.538</v>
+        <v>55.6179</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0915</v>
+        <v>0.0404</v>
       </c>
       <c r="G2" t="n">
-        <v>6.3014</v>
+        <v>6.2854</v>
       </c>
       <c r="H2" t="n">
-        <v>1.1033</v>
+        <v>0.9021</v>
       </c>
       <c r="I2" t="n">
-        <v>157.0125</v>
+        <v>170.097</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2.3404</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1476</v>
+        <v>0.0532</v>
       </c>
       <c r="M2" t="n">
-        <v>10.0603</v>
+        <v>4.4376</v>
       </c>
       <c r="N2" t="b">
         <v>0</v>
       </c>
       <c r="O2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>10.4481613200154</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-29</v>
+        <v>-5</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0.95207</v>
       </c>
       <c r="C3" t="n">
-        <v>165.66</v>
+        <v>157.7199</v>
       </c>
       <c r="D3" t="n">
-        <v>34.0758</v>
+        <v>33.8504</v>
       </c>
       <c r="E3" t="n">
-        <v>48.538</v>
+        <v>55.5322</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0915</v>
+        <v>0.0403</v>
       </c>
       <c r="G3" t="n">
-        <v>6.3014</v>
+        <v>6.2845</v>
       </c>
       <c r="H3" t="n">
-        <v>1.1033</v>
+        <v>0.9241</v>
       </c>
       <c r="I3" t="n">
-        <v>157.0125</v>
+        <v>169.8421</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2.0637</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1476</v>
+        <v>0.0532</v>
       </c>
       <c r="M3" t="n">
-        <v>10.0603</v>
+        <v>4.4327</v>
       </c>
       <c r="N3" t="b">
         <v>1</v>
       </c>
       <c r="O3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>10.49256278801892</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-29</v>
+        <v>-5</v>
       </c>
       <c r="B4" t="n">
-        <v>0.86</v>
+        <v>0.91589</v>
       </c>
       <c r="C4" t="n">
-        <v>141.9499</v>
+        <v>151.7265</v>
       </c>
       <c r="D4" t="n">
-        <v>32.7283</v>
+        <v>33.4938</v>
       </c>
       <c r="E4" t="n">
-        <v>42.4783</v>
+        <v>54.2369</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0404</v>
+        <v>0.0403</v>
       </c>
       <c r="G4" t="n">
-        <v>6.2511</v>
+        <v>6.2718</v>
       </c>
       <c r="H4" t="n">
-        <v>2.5887</v>
+        <v>1.3049</v>
       </c>
       <c r="I4" t="n">
-        <v>157.0125</v>
+        <v>166.1195</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1649</v>
+        <v>0.0543</v>
       </c>
       <c r="M4" t="n">
-        <v>4.4402</v>
+        <v>4.4333</v>
       </c>
       <c r="N4" t="b">
         <v>0</v>
@@ -7359,40 +7368,43 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-29</v>
+        <v>-5</v>
       </c>
       <c r="B5" t="n">
-        <v>0.86</v>
+        <v>0.91817</v>
       </c>
       <c r="C5" t="n">
-        <v>141.9499</v>
+        <v>152.1048</v>
       </c>
       <c r="D5" t="n">
-        <v>32.7283</v>
+        <v>33.5199</v>
       </c>
       <c r="E5" t="n">
-        <v>42.4783</v>
+        <v>54.3003</v>
       </c>
       <c r="F5" t="n">
         <v>0.0404</v>
       </c>
       <c r="G5" t="n">
-        <v>6.2511</v>
+        <v>6.2726</v>
       </c>
       <c r="H5" t="n">
-        <v>2.5887</v>
+        <v>1.2778</v>
       </c>
       <c r="I5" t="n">
-        <v>157.0125</v>
+        <v>166.3605</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1649</v>
+        <v>0.0546</v>
       </c>
       <c r="M5" t="n">
-        <v>4.4402</v>
+        <v>4.4363</v>
       </c>
       <c r="N5" t="b">
         <v>1</v>
@@ -7401,2758 +7413,6 @@
         <v>1</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>-25</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="n">
-        <v>165.66</v>
-      </c>
-      <c r="D6" t="n">
-        <v>34.0824</v>
-      </c>
-      <c r="E6" t="n">
-        <v>48.4117</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.0701</v>
-      </c>
-      <c r="G6" t="n">
-        <v>6.3014</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1.0135</v>
-      </c>
-      <c r="I6" t="n">
-        <v>163.607</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.1522</v>
-      </c>
-      <c r="M6" t="n">
-        <v>7.7089</v>
-      </c>
-      <c r="N6" t="b">
-        <v>0</v>
-      </c>
-      <c r="O6" t="b">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>-25</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>165.66</v>
-      </c>
-      <c r="D7" t="n">
-        <v>34.0824</v>
-      </c>
-      <c r="E7" t="n">
-        <v>48.4117</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.0701</v>
-      </c>
-      <c r="G7" t="n">
-        <v>6.3014</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1.0135</v>
-      </c>
-      <c r="I7" t="n">
-        <v>163.607</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.1522</v>
-      </c>
-      <c r="M7" t="n">
-        <v>7.7089</v>
-      </c>
-      <c r="N7" t="b">
-        <v>1</v>
-      </c>
-      <c r="O7" t="b">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>-25</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="C8" t="n">
-        <v>149.5781</v>
-      </c>
-      <c r="D8" t="n">
-        <v>33.3591</v>
-      </c>
-      <c r="E8" t="n">
-        <v>43.9554</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.0248</v>
-      </c>
-      <c r="G8" t="n">
-        <v>6.2673</v>
-      </c>
-      <c r="H8" t="n">
-        <v>2.1433</v>
-      </c>
-      <c r="I8" t="n">
-        <v>163.607</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.1674</v>
-      </c>
-      <c r="M8" t="n">
-        <v>2.7231</v>
-      </c>
-      <c r="N8" t="b">
-        <v>0</v>
-      </c>
-      <c r="O8" t="b">
-        <v>1</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>-25</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="C9" t="n">
-        <v>149.5781</v>
-      </c>
-      <c r="D9" t="n">
-        <v>33.3591</v>
-      </c>
-      <c r="E9" t="n">
-        <v>43.9554</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.0248</v>
-      </c>
-      <c r="G9" t="n">
-        <v>6.2673</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2.1433</v>
-      </c>
-      <c r="I9" t="n">
-        <v>163.607</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0.1674</v>
-      </c>
-      <c r="M9" t="n">
-        <v>2.7231</v>
-      </c>
-      <c r="N9" t="b">
-        <v>1</v>
-      </c>
-      <c r="O9" t="b">
-        <v>1</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>-20</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="n">
-        <v>165.66</v>
-      </c>
-      <c r="D10" t="n">
-        <v>34.0912</v>
-      </c>
-      <c r="E10" t="n">
-        <v>50.1848</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.0557</v>
-      </c>
-      <c r="G10" t="n">
-        <v>6.3014</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.9147999999999999</v>
-      </c>
-      <c r="I10" t="n">
-        <v>168.3174</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="M10" t="n">
-        <v>6.1282</v>
-      </c>
-      <c r="N10" t="b">
-        <v>0</v>
-      </c>
-      <c r="O10" t="b">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>-20</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="n">
-        <v>165.66</v>
-      </c>
-      <c r="D11" t="n">
-        <v>34.0912</v>
-      </c>
-      <c r="E11" t="n">
-        <v>50.1848</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.0557</v>
-      </c>
-      <c r="G11" t="n">
-        <v>6.3014</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.9147999999999999</v>
-      </c>
-      <c r="I11" t="n">
-        <v>168.3174</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="M11" t="n">
-        <v>6.1282</v>
-      </c>
-      <c r="N11" t="b">
-        <v>1</v>
-      </c>
-      <c r="O11" t="b">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>-20</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="C12" t="n">
-        <v>154.8554</v>
-      </c>
-      <c r="D12" t="n">
-        <v>33.7261</v>
-      </c>
-      <c r="E12" t="n">
-        <v>47.4721</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.0423</v>
-      </c>
-      <c r="G12" t="n">
-        <v>6.2785</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1.5933</v>
-      </c>
-      <c r="I12" t="n">
-        <v>168.3174</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0.1344</v>
-      </c>
-      <c r="M12" t="n">
-        <v>4.6548</v>
-      </c>
-      <c r="N12" t="b">
-        <v>0</v>
-      </c>
-      <c r="O12" t="b">
-        <v>1</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>-20</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="C13" t="n">
-        <v>154.8554</v>
-      </c>
-      <c r="D13" t="n">
-        <v>33.7261</v>
-      </c>
-      <c r="E13" t="n">
-        <v>47.4721</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.0423</v>
-      </c>
-      <c r="G13" t="n">
-        <v>6.2785</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1.5933</v>
-      </c>
-      <c r="I13" t="n">
-        <v>168.3174</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0.1344</v>
-      </c>
-      <c r="M13" t="n">
-        <v>4.6548</v>
-      </c>
-      <c r="N13" t="b">
-        <v>1</v>
-      </c>
-      <c r="O13" t="b">
-        <v>1</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>-15</v>
-      </c>
-      <c r="B14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" t="n">
-        <v>165.66</v>
-      </c>
-      <c r="D14" t="n">
-        <v>34.0948</v>
-      </c>
-      <c r="E14" t="n">
-        <v>52.8755</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.0598</v>
-      </c>
-      <c r="G14" t="n">
-        <v>6.3014</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.8008999999999999</v>
-      </c>
-      <c r="I14" t="n">
-        <v>168.1316</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0.09660000000000001</v>
-      </c>
-      <c r="M14" t="n">
-        <v>6.5755</v>
-      </c>
-      <c r="N14" t="b">
-        <v>0</v>
-      </c>
-      <c r="O14" t="b">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>-15</v>
-      </c>
-      <c r="B15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" t="n">
-        <v>165.66</v>
-      </c>
-      <c r="D15" t="n">
-        <v>34.0948</v>
-      </c>
-      <c r="E15" t="n">
-        <v>52.8755</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.0598</v>
-      </c>
-      <c r="G15" t="n">
-        <v>6.3014</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.8008999999999999</v>
-      </c>
-      <c r="I15" t="n">
-        <v>168.1316</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0.09660000000000001</v>
-      </c>
-      <c r="M15" t="n">
-        <v>6.5755</v>
-      </c>
-      <c r="N15" t="b">
-        <v>1</v>
-      </c>
-      <c r="O15" t="b">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>-15</v>
-      </c>
-      <c r="B16" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="C16" t="n">
-        <v>162.4158</v>
-      </c>
-      <c r="D16" t="n">
-        <v>34.0536</v>
-      </c>
-      <c r="E16" t="n">
-        <v>51.6878</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.0565</v>
-      </c>
-      <c r="G16" t="n">
-        <v>6.2945</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.9267</v>
-      </c>
-      <c r="I16" t="n">
-        <v>168.1316</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0.09710000000000001</v>
-      </c>
-      <c r="M16" t="n">
-        <v>6.2165</v>
-      </c>
-      <c r="N16" t="b">
-        <v>0</v>
-      </c>
-      <c r="O16" t="b">
-        <v>1</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>-15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="C17" t="n">
-        <v>162.4158</v>
-      </c>
-      <c r="D17" t="n">
-        <v>34.0536</v>
-      </c>
-      <c r="E17" t="n">
-        <v>51.6878</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.0565</v>
-      </c>
-      <c r="G17" t="n">
-        <v>6.2945</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0.9267</v>
-      </c>
-      <c r="I17" t="n">
-        <v>168.1316</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0.09710000000000001</v>
-      </c>
-      <c r="M17" t="n">
-        <v>6.2165</v>
-      </c>
-      <c r="N17" t="b">
-        <v>1</v>
-      </c>
-      <c r="O17" t="b">
-        <v>1</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>-10</v>
-      </c>
-      <c r="B18" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" t="n">
-        <v>165.66</v>
-      </c>
-      <c r="D18" t="n">
-        <v>34.0869</v>
-      </c>
-      <c r="E18" t="n">
-        <v>55.4354</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.0636</v>
-      </c>
-      <c r="G18" t="n">
-        <v>6.3014</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0.6883</v>
-      </c>
-      <c r="I18" t="n">
-        <v>167.9458</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0.0683</v>
-      </c>
-      <c r="M18" t="n">
-        <v>6.9945</v>
-      </c>
-      <c r="N18" t="b">
-        <v>0</v>
-      </c>
-      <c r="O18" t="b">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>-10</v>
-      </c>
-      <c r="B19" t="n">
-        <v>1</v>
-      </c>
-      <c r="C19" t="n">
-        <v>165.66</v>
-      </c>
-      <c r="D19" t="n">
-        <v>34.0869</v>
-      </c>
-      <c r="E19" t="n">
-        <v>55.4354</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.0636</v>
-      </c>
-      <c r="G19" t="n">
-        <v>6.3014</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0.6883</v>
-      </c>
-      <c r="I19" t="n">
-        <v>167.9458</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0.0683</v>
-      </c>
-      <c r="M19" t="n">
-        <v>6.9945</v>
-      </c>
-      <c r="N19" t="b">
-        <v>1</v>
-      </c>
-      <c r="O19" t="b">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>-10</v>
-      </c>
-      <c r="B20" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="C20" t="n">
-        <v>153.5107</v>
-      </c>
-      <c r="D20" t="n">
-        <v>33.6386</v>
-      </c>
-      <c r="E20" t="n">
-        <v>51.9442</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.0406</v>
-      </c>
-      <c r="G20" t="n">
-        <v>6.2756</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1.3464</v>
-      </c>
-      <c r="I20" t="n">
-        <v>167.9458</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0.0756</v>
-      </c>
-      <c r="M20" t="n">
-        <v>4.4674</v>
-      </c>
-      <c r="N20" t="b">
-        <v>0</v>
-      </c>
-      <c r="O20" t="b">
-        <v>1</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>-10</v>
-      </c>
-      <c r="B21" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="C21" t="n">
-        <v>153.5107</v>
-      </c>
-      <c r="D21" t="n">
-        <v>33.6386</v>
-      </c>
-      <c r="E21" t="n">
-        <v>51.9442</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.0406</v>
-      </c>
-      <c r="G21" t="n">
-        <v>6.2756</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1.3464</v>
-      </c>
-      <c r="I21" t="n">
-        <v>167.9458</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0.0756</v>
-      </c>
-      <c r="M21" t="n">
-        <v>4.4674</v>
-      </c>
-      <c r="N21" t="b">
-        <v>1</v>
-      </c>
-      <c r="O21" t="b">
-        <v>1</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>-29</v>
-      </c>
-      <c r="B22" t="n">
-        <v>1</v>
-      </c>
-      <c r="C22" t="n">
-        <v>165.66</v>
-      </c>
-      <c r="D22" t="n">
-        <v>34.0758</v>
-      </c>
-      <c r="E22" t="n">
-        <v>48.3151</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.0833</v>
-      </c>
-      <c r="G22" t="n">
-        <v>6.3014</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1.1023</v>
-      </c>
-      <c r="I22" t="n">
-        <v>159.1671</v>
-      </c>
-      <c r="J22" t="n">
-        <v>2.1667</v>
-      </c>
-      <c r="K22" t="n">
-        <v>1</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0.1501</v>
-      </c>
-      <c r="M22" t="n">
-        <v>9.158799999999999</v>
-      </c>
-      <c r="N22" t="b">
-        <v>0</v>
-      </c>
-      <c r="O22" t="b">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>10.29207118225949</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>-29</v>
-      </c>
-      <c r="B23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C23" t="n">
-        <v>165.66</v>
-      </c>
-      <c r="D23" t="n">
-        <v>34.0758</v>
-      </c>
-      <c r="E23" t="n">
-        <v>48.2859</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.0822</v>
-      </c>
-      <c r="G23" t="n">
-        <v>6.3014</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1.1027</v>
-      </c>
-      <c r="I23" t="n">
-        <v>159.4506</v>
-      </c>
-      <c r="J23" t="n">
-        <v>1.0938</v>
-      </c>
-      <c r="K23" t="n">
-        <v>1</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="M23" t="n">
-        <v>9.0404</v>
-      </c>
-      <c r="N23" t="b">
-        <v>1</v>
-      </c>
-      <c r="O23" t="b">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>10.49256278801892</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>-29</v>
-      </c>
-      <c r="B24" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="C24" t="n">
-        <v>145.4495</v>
-      </c>
-      <c r="D24" t="n">
-        <v>33.0256</v>
-      </c>
-      <c r="E24" t="n">
-        <v>43.1539</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0.0404</v>
-      </c>
-      <c r="G24" t="n">
-        <v>6.2585</v>
-      </c>
-      <c r="H24" t="n">
-        <v>2.4624</v>
-      </c>
-      <c r="I24" t="n">
-        <v>159.1671</v>
-      </c>
-      <c r="J24" t="n">
-        <v>2.1667</v>
-      </c>
-      <c r="K24" t="n">
-        <v>1</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0.1645</v>
-      </c>
-      <c r="M24" t="n">
-        <v>4.4368</v>
-      </c>
-      <c r="N24" t="b">
-        <v>0</v>
-      </c>
-      <c r="O24" t="b">
-        <v>1</v>
-      </c>
-      <c r="P24" t="n">
-        <v>10.29207118225949</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>-29</v>
-      </c>
-      <c r="B25" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="C25" t="n">
-        <v>144.3091</v>
-      </c>
-      <c r="D25" t="n">
-        <v>32.9303</v>
-      </c>
-      <c r="E25" t="n">
-        <v>42.9364</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0.0404</v>
-      </c>
-      <c r="G25" t="n">
-        <v>6.2561</v>
-      </c>
-      <c r="H25" t="n">
-        <v>2.511</v>
-      </c>
-      <c r="I25" t="n">
-        <v>158.4694</v>
-      </c>
-      <c r="J25" t="n">
-        <v>1.0938</v>
-      </c>
-      <c r="K25" t="n">
-        <v>1</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0.1646</v>
-      </c>
-      <c r="M25" t="n">
-        <v>4.4429</v>
-      </c>
-      <c r="N25" t="b">
-        <v>1</v>
-      </c>
-      <c r="O25" t="b">
-        <v>1</v>
-      </c>
-      <c r="P25" t="n">
-        <v>10.49256278801892</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>-25</v>
-      </c>
-      <c r="B26" t="n">
-        <v>1</v>
-      </c>
-      <c r="C26" t="n">
-        <v>165.66</v>
-      </c>
-      <c r="D26" t="n">
-        <v>34.0824</v>
-      </c>
-      <c r="E26" t="n">
-        <v>48.2438</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.0616</v>
-      </c>
-      <c r="G26" t="n">
-        <v>6.3014</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1.013</v>
-      </c>
-      <c r="I26" t="n">
-        <v>165.8522</v>
-      </c>
-      <c r="J26" t="n">
-        <v>2.2572</v>
-      </c>
-      <c r="K26" t="n">
-        <v>1</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0.1547</v>
-      </c>
-      <c r="M26" t="n">
-        <v>6.7693</v>
-      </c>
-      <c r="N26" t="b">
-        <v>0</v>
-      </c>
-      <c r="O26" t="b">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>10.29207118225949</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>-25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>1</v>
-      </c>
-      <c r="C27" t="n">
-        <v>165.66</v>
-      </c>
-      <c r="D27" t="n">
-        <v>34.0824</v>
-      </c>
-      <c r="E27" t="n">
-        <v>48.2234</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0.0605</v>
-      </c>
-      <c r="G27" t="n">
-        <v>6.3014</v>
-      </c>
-      <c r="H27" t="n">
-        <v>1.0131</v>
-      </c>
-      <c r="I27" t="n">
-        <v>166.1475</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1.186</v>
-      </c>
-      <c r="K27" t="n">
-        <v>1</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0.1551</v>
-      </c>
-      <c r="M27" t="n">
-        <v>6.6455</v>
-      </c>
-      <c r="N27" t="b">
-        <v>1</v>
-      </c>
-      <c r="O27" t="b">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>10.49256278801892</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>-25</v>
-      </c>
-      <c r="B28" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="C28" t="n">
-        <v>153.2748</v>
-      </c>
-      <c r="D28" t="n">
-        <v>33.6189</v>
-      </c>
-      <c r="E28" t="n">
-        <v>44.6312</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0.0241</v>
-      </c>
-      <c r="G28" t="n">
-        <v>6.2751</v>
-      </c>
-      <c r="H28" t="n">
-        <v>1.8727</v>
-      </c>
-      <c r="I28" t="n">
-        <v>165.8522</v>
-      </c>
-      <c r="J28" t="n">
-        <v>2.2572</v>
-      </c>
-      <c r="K28" t="n">
-        <v>1</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0.1673</v>
-      </c>
-      <c r="M28" t="n">
-        <v>2.6513</v>
-      </c>
-      <c r="N28" t="b">
-        <v>0</v>
-      </c>
-      <c r="O28" t="b">
-        <v>1</v>
-      </c>
-      <c r="P28" t="n">
-        <v>10.29207118225949</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>-25</v>
-      </c>
-      <c r="B29" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="C29" t="n">
-        <v>151.9792</v>
-      </c>
-      <c r="D29" t="n">
-        <v>33.5322</v>
-      </c>
-      <c r="E29" t="n">
-        <v>44.3854</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0.024</v>
-      </c>
-      <c r="G29" t="n">
-        <v>6.2724</v>
-      </c>
-      <c r="H29" t="n">
-        <v>1.9702</v>
-      </c>
-      <c r="I29" t="n">
-        <v>165.1251</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1.186</v>
-      </c>
-      <c r="K29" t="n">
-        <v>1</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0.1674</v>
-      </c>
-      <c r="M29" t="n">
-        <v>2.6393</v>
-      </c>
-      <c r="N29" t="b">
-        <v>1</v>
-      </c>
-      <c r="O29" t="b">
-        <v>1</v>
-      </c>
-      <c r="P29" t="n">
-        <v>10.49256278801892</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>-20</v>
-      </c>
-      <c r="B30" t="n">
-        <v>1</v>
-      </c>
-      <c r="C30" t="n">
-        <v>165.66</v>
-      </c>
-      <c r="D30" t="n">
-        <v>34.0912</v>
-      </c>
-      <c r="E30" t="n">
-        <v>50.0528</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0.0469</v>
-      </c>
-      <c r="G30" t="n">
-        <v>6.3014</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0.9146</v>
-      </c>
-      <c r="I30" t="n">
-        <v>170.634</v>
-      </c>
-      <c r="J30" t="n">
-        <v>2.3268</v>
-      </c>
-      <c r="K30" t="n">
-        <v>1</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0.1326</v>
-      </c>
-      <c r="M30" t="n">
-        <v>5.1606</v>
-      </c>
-      <c r="N30" t="b">
-        <v>0</v>
-      </c>
-      <c r="O30" t="b">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>10.32260710650305</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>-20</v>
-      </c>
-      <c r="B31" t="n">
-        <v>1</v>
-      </c>
-      <c r="C31" t="n">
-        <v>165.66</v>
-      </c>
-      <c r="D31" t="n">
-        <v>34.0912</v>
-      </c>
-      <c r="E31" t="n">
-        <v>50.0368</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0.0458</v>
-      </c>
-      <c r="G31" t="n">
-        <v>6.3014</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0.9146</v>
-      </c>
-      <c r="I31" t="n">
-        <v>170.931</v>
-      </c>
-      <c r="J31" t="n">
-        <v>1.4056</v>
-      </c>
-      <c r="K31" t="n">
-        <v>1</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0.1329</v>
-      </c>
-      <c r="M31" t="n">
-        <v>5.0337</v>
-      </c>
-      <c r="N31" t="b">
-        <v>1</v>
-      </c>
-      <c r="O31" t="b">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>10.49256278801892</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>-20</v>
-      </c>
-      <c r="B32" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="C32" t="n">
-        <v>160.3893</v>
-      </c>
-      <c r="D32" t="n">
-        <v>33.9911</v>
-      </c>
-      <c r="E32" t="n">
-        <v>48.4022</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0.0404</v>
-      </c>
-      <c r="G32" t="n">
-        <v>6.2902</v>
-      </c>
-      <c r="H32" t="n">
-        <v>1.2037</v>
-      </c>
-      <c r="I32" t="n">
-        <v>170.634</v>
-      </c>
-      <c r="J32" t="n">
-        <v>2.3268</v>
-      </c>
-      <c r="K32" t="n">
-        <v>1</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0.1346</v>
-      </c>
-      <c r="M32" t="n">
-        <v>4.4454</v>
-      </c>
-      <c r="N32" t="b">
-        <v>0</v>
-      </c>
-      <c r="O32" t="b">
-        <v>1</v>
-      </c>
-      <c r="P32" t="n">
-        <v>10.32260710650305</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>-20</v>
-      </c>
-      <c r="B33" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="C33" t="n">
-        <v>159.2587</v>
-      </c>
-      <c r="D33" t="n">
-        <v>33.9485</v>
-      </c>
-      <c r="E33" t="n">
-        <v>48.1744</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0.0404</v>
-      </c>
-      <c r="G33" t="n">
-        <v>6.2878</v>
-      </c>
-      <c r="H33" t="n">
-        <v>1.2787</v>
-      </c>
-      <c r="I33" t="n">
-        <v>169.9567</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1.4056</v>
-      </c>
-      <c r="K33" t="n">
-        <v>1</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0.1348</v>
-      </c>
-      <c r="M33" t="n">
-        <v>4.4423</v>
-      </c>
-      <c r="N33" t="b">
-        <v>1</v>
-      </c>
-      <c r="O33" t="b">
-        <v>1</v>
-      </c>
-      <c r="P33" t="n">
-        <v>10.49256278801892</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>-15</v>
-      </c>
-      <c r="B34" t="n">
-        <v>1</v>
-      </c>
-      <c r="C34" t="n">
-        <v>165.66</v>
-      </c>
-      <c r="D34" t="n">
-        <v>34.0948</v>
-      </c>
-      <c r="E34" t="n">
-        <v>52.724</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0.0509</v>
-      </c>
-      <c r="G34" t="n">
-        <v>6.3014</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0.8008999999999999</v>
-      </c>
-      <c r="I34" t="n">
-        <v>170.4553</v>
-      </c>
-      <c r="J34" t="n">
-        <v>2.3313</v>
-      </c>
-      <c r="K34" t="n">
-        <v>1</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0.0992</v>
-      </c>
-      <c r="M34" t="n">
-        <v>5.5954</v>
-      </c>
-      <c r="N34" t="b">
-        <v>0</v>
-      </c>
-      <c r="O34" t="b">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>10.36570419937378</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>-15</v>
-      </c>
-      <c r="B35" t="n">
-        <v>1</v>
-      </c>
-      <c r="C35" t="n">
-        <v>165.66</v>
-      </c>
-      <c r="D35" t="n">
-        <v>34.0948</v>
-      </c>
-      <c r="E35" t="n">
-        <v>52.7071</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0.0498</v>
-      </c>
-      <c r="G35" t="n">
-        <v>6.3014</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0.8011</v>
-      </c>
-      <c r="I35" t="n">
-        <v>170.7423</v>
-      </c>
-      <c r="J35" t="n">
-        <v>1.6251</v>
-      </c>
-      <c r="K35" t="n">
-        <v>1</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0.09950000000000001</v>
-      </c>
-      <c r="M35" t="n">
-        <v>5.476</v>
-      </c>
-      <c r="N35" t="b">
-        <v>1</v>
-      </c>
-      <c r="O35" t="b">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>10.49256278801892</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>-15</v>
-      </c>
-      <c r="B36" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="C36" t="n">
-        <v>159.1556</v>
-      </c>
-      <c r="D36" t="n">
-        <v>33.9479</v>
-      </c>
-      <c r="E36" t="n">
-        <v>50.7204</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0.0404</v>
-      </c>
-      <c r="G36" t="n">
-        <v>6.2876</v>
-      </c>
-      <c r="H36" t="n">
-        <v>1.1334</v>
-      </c>
-      <c r="I36" t="n">
-        <v>170.4553</v>
-      </c>
-      <c r="J36" t="n">
-        <v>2.3313</v>
-      </c>
-      <c r="K36" t="n">
-        <v>1</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0.1021</v>
-      </c>
-      <c r="M36" t="n">
-        <v>4.438</v>
-      </c>
-      <c r="N36" t="b">
-        <v>0</v>
-      </c>
-      <c r="O36" t="b">
-        <v>1</v>
-      </c>
-      <c r="P36" t="n">
-        <v>10.36570419937378</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>-15</v>
-      </c>
-      <c r="B37" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="C37" t="n">
-        <v>158.2379</v>
-      </c>
-      <c r="D37" t="n">
-        <v>33.9081</v>
-      </c>
-      <c r="E37" t="n">
-        <v>50.5323</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0.0404</v>
-      </c>
-      <c r="G37" t="n">
-        <v>6.2856</v>
-      </c>
-      <c r="H37" t="n">
-        <v>1.1914</v>
-      </c>
-      <c r="I37" t="n">
-        <v>169.8957</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1.6251</v>
-      </c>
-      <c r="K37" t="n">
-        <v>1</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0.1022</v>
-      </c>
-      <c r="M37" t="n">
-        <v>4.4385</v>
-      </c>
-      <c r="N37" t="b">
-        <v>1</v>
-      </c>
-      <c r="O37" t="b">
-        <v>1</v>
-      </c>
-      <c r="P37" t="n">
-        <v>10.49256278801892</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>-10</v>
-      </c>
-      <c r="B38" t="n">
-        <v>1</v>
-      </c>
-      <c r="C38" t="n">
-        <v>165.66</v>
-      </c>
-      <c r="D38" t="n">
-        <v>34.0869</v>
-      </c>
-      <c r="E38" t="n">
-        <v>55.2839</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0.055</v>
-      </c>
-      <c r="G38" t="n">
-        <v>6.3014</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0.6885</v>
-      </c>
-      <c r="I38" t="n">
-        <v>170.2763</v>
-      </c>
-      <c r="J38" t="n">
-        <v>2.3359</v>
-      </c>
-      <c r="K38" t="n">
-        <v>1</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0.0708</v>
-      </c>
-      <c r="M38" t="n">
-        <v>6.0458</v>
-      </c>
-      <c r="N38" t="b">
-        <v>0</v>
-      </c>
-      <c r="O38" t="b">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>10.40756031690315</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>-10</v>
-      </c>
-      <c r="B39" t="n">
-        <v>1</v>
-      </c>
-      <c r="C39" t="n">
-        <v>165.66</v>
-      </c>
-      <c r="D39" t="n">
-        <v>34.0869</v>
-      </c>
-      <c r="E39" t="n">
-        <v>55.2696</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0.054</v>
-      </c>
-      <c r="G39" t="n">
-        <v>6.3014</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0.6879999999999999</v>
-      </c>
-      <c r="I39" t="n">
-        <v>170.5536</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1.8444</v>
-      </c>
-      <c r="K39" t="n">
-        <v>1</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0.0711</v>
-      </c>
-      <c r="M39" t="n">
-        <v>5.9353</v>
-      </c>
-      <c r="N39" t="b">
-        <v>1</v>
-      </c>
-      <c r="O39" t="b">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>10.49256278801892</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>-10</v>
-      </c>
-      <c r="B40" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="C40" t="n">
-        <v>157.2302</v>
-      </c>
-      <c r="D40" t="n">
-        <v>33.8521</v>
-      </c>
-      <c r="E40" t="n">
-        <v>52.7687</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0.0406</v>
-      </c>
-      <c r="G40" t="n">
-        <v>6.2835</v>
-      </c>
-      <c r="H40" t="n">
-        <v>1.0865</v>
-      </c>
-      <c r="I40" t="n">
-        <v>170.2763</v>
-      </c>
-      <c r="J40" t="n">
-        <v>2.3359</v>
-      </c>
-      <c r="K40" t="n">
-        <v>1</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0.0752</v>
-      </c>
-      <c r="M40" t="n">
-        <v>4.4643</v>
-      </c>
-      <c r="N40" t="b">
-        <v>0</v>
-      </c>
-      <c r="O40" t="b">
-        <v>1</v>
-      </c>
-      <c r="P40" t="n">
-        <v>10.40756031690315</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>-10</v>
-      </c>
-      <c r="B41" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="C41" t="n">
-        <v>162.8078</v>
-      </c>
-      <c r="D41" t="n">
-        <v>34.0543</v>
-      </c>
-      <c r="E41" t="n">
-        <v>54.1118</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0.0543</v>
-      </c>
-      <c r="G41" t="n">
-        <v>6.2953</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0.7879</v>
-      </c>
-      <c r="I41" t="n">
-        <v>169.8556</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1.8444</v>
-      </c>
-      <c r="K41" t="n">
-        <v>1</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0.0709</v>
-      </c>
-      <c r="M41" t="n">
-        <v>5.9685</v>
-      </c>
-      <c r="N41" t="b">
-        <v>1</v>
-      </c>
-      <c r="O41" t="b">
-        <v>1</v>
-      </c>
-      <c r="P41" t="n">
-        <v>10.49256278801892</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>-29</v>
-      </c>
-      <c r="B42" t="n">
-        <v>1</v>
-      </c>
-      <c r="C42" t="n">
-        <v>165.66</v>
-      </c>
-      <c r="D42" t="n">
-        <v>34.0758</v>
-      </c>
-      <c r="E42" t="n">
-        <v>48.5599</v>
-      </c>
-      <c r="F42" t="n">
-        <v>0.09619999999999999</v>
-      </c>
-      <c r="G42" t="n">
-        <v>6.3014</v>
-      </c>
-      <c r="H42" t="n">
-        <v>1.103</v>
-      </c>
-      <c r="I42" t="n">
-        <v>155.8382</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
-        <v>2</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0.1484</v>
-      </c>
-      <c r="M42" t="n">
-        <v>10.5773</v>
-      </c>
-      <c r="N42" t="b">
-        <v>0</v>
-      </c>
-      <c r="O42" t="b">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>-29</v>
-      </c>
-      <c r="B43" t="n">
-        <v>1</v>
-      </c>
-      <c r="C43" t="n">
-        <v>165.66</v>
-      </c>
-      <c r="D43" t="n">
-        <v>34.0758</v>
-      </c>
-      <c r="E43" t="n">
-        <v>48.3532</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0.093</v>
-      </c>
-      <c r="G43" t="n">
-        <v>6.3014</v>
-      </c>
-      <c r="H43" t="n">
-        <v>1.1025</v>
-      </c>
-      <c r="I43" t="n">
-        <v>156.7332</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>2</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0.1514</v>
-      </c>
-      <c r="M43" t="n">
-        <v>10.2241</v>
-      </c>
-      <c r="N43" t="b">
-        <v>1</v>
-      </c>
-      <c r="O43" t="b">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>-29</v>
-      </c>
-      <c r="B44" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="C44" t="n">
-        <v>139.969</v>
-      </c>
-      <c r="D44" t="n">
-        <v>32.5551</v>
-      </c>
-      <c r="E44" t="n">
-        <v>41.982</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0.0404</v>
-      </c>
-      <c r="G44" t="n">
-        <v>6.2469</v>
-      </c>
-      <c r="H44" t="n">
-        <v>2.6306</v>
-      </c>
-      <c r="I44" t="n">
-        <v>155.8274</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>2</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0.1672</v>
-      </c>
-      <c r="M44" t="n">
-        <v>4.4398</v>
-      </c>
-      <c r="N44" t="b">
-        <v>0</v>
-      </c>
-      <c r="O44" t="b">
-        <v>1</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>-29</v>
-      </c>
-      <c r="B45" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="C45" t="n">
-        <v>141.2743</v>
-      </c>
-      <c r="D45" t="n">
-        <v>32.6695</v>
-      </c>
-      <c r="E45" t="n">
-        <v>42.133</v>
-      </c>
-      <c r="F45" t="n">
-        <v>0.0403</v>
-      </c>
-      <c r="G45" t="n">
-        <v>6.2496</v>
-      </c>
-      <c r="H45" t="n">
-        <v>2.6056</v>
-      </c>
-      <c r="I45" t="n">
-        <v>156.7332</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="n">
-        <v>2</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0.1691</v>
-      </c>
-      <c r="M45" t="n">
-        <v>4.4313</v>
-      </c>
-      <c r="N45" t="b">
-        <v>1</v>
-      </c>
-      <c r="O45" t="b">
-        <v>1</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>-25</v>
-      </c>
-      <c r="B46" t="n">
-        <v>1</v>
-      </c>
-      <c r="C46" t="n">
-        <v>165.66</v>
-      </c>
-      <c r="D46" t="n">
-        <v>34.0824</v>
-      </c>
-      <c r="E46" t="n">
-        <v>48.41</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0.07530000000000001</v>
-      </c>
-      <c r="G46" t="n">
-        <v>6.3014</v>
-      </c>
-      <c r="H46" t="n">
-        <v>1.0134</v>
-      </c>
-      <c r="I46" t="n">
-        <v>162.316</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>2</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0.1528</v>
-      </c>
-      <c r="M46" t="n">
-        <v>8.273999999999999</v>
-      </c>
-      <c r="N46" t="b">
-        <v>0</v>
-      </c>
-      <c r="O46" t="b">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>-25</v>
-      </c>
-      <c r="B47" t="n">
-        <v>1</v>
-      </c>
-      <c r="C47" t="n">
-        <v>165.66</v>
-      </c>
-      <c r="D47" t="n">
-        <v>34.0824</v>
-      </c>
-      <c r="E47" t="n">
-        <v>48.2261</v>
-      </c>
-      <c r="F47" t="n">
-        <v>0.0721</v>
-      </c>
-      <c r="G47" t="n">
-        <v>6.3014</v>
-      </c>
-      <c r="H47" t="n">
-        <v>1.0129</v>
-      </c>
-      <c r="I47" t="n">
-        <v>163.2092</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="n">
-        <v>2</v>
-      </c>
-      <c r="L47" t="n">
-        <v>0.1558</v>
-      </c>
-      <c r="M47" t="n">
-        <v>7.9236</v>
-      </c>
-      <c r="N47" t="b">
-        <v>1</v>
-      </c>
-      <c r="O47" t="b">
-        <v>0</v>
-      </c>
-      <c r="P47" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>-25</v>
-      </c>
-      <c r="B48" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="C48" t="n">
-        <v>148.9664</v>
-      </c>
-      <c r="D48" t="n">
-        <v>33.3128</v>
-      </c>
-      <c r="E48" t="n">
-        <v>44.139</v>
-      </c>
-      <c r="F48" t="n">
-        <v>0.0412</v>
-      </c>
-      <c r="G48" t="n">
-        <v>6.266</v>
-      </c>
-      <c r="H48" t="n">
-        <v>2.1713</v>
-      </c>
-      <c r="I48" t="n">
-        <v>162.3054</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="n">
-        <v>2</v>
-      </c>
-      <c r="L48" t="n">
-        <v>0.1643</v>
-      </c>
-      <c r="M48" t="n">
-        <v>4.5286</v>
-      </c>
-      <c r="N48" t="b">
-        <v>0</v>
-      </c>
-      <c r="O48" t="b">
-        <v>1</v>
-      </c>
-      <c r="P48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>-25</v>
-      </c>
-      <c r="B49" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="C49" t="n">
-        <v>151.0062</v>
-      </c>
-      <c r="D49" t="n">
-        <v>33.4639</v>
-      </c>
-      <c r="E49" t="n">
-        <v>44.5408</v>
-      </c>
-      <c r="F49" t="n">
-        <v>0.0462</v>
-      </c>
-      <c r="G49" t="n">
-        <v>6.2703</v>
-      </c>
-      <c r="H49" t="n">
-        <v>2.0436</v>
-      </c>
-      <c r="I49" t="n">
-        <v>163.2092</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="n">
-        <v>2</v>
-      </c>
-      <c r="L49" t="n">
-        <v>0.1646</v>
-      </c>
-      <c r="M49" t="n">
-        <v>5.0783</v>
-      </c>
-      <c r="N49" t="b">
-        <v>1</v>
-      </c>
-      <c r="O49" t="b">
-        <v>1</v>
-      </c>
-      <c r="P49" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v>-20</v>
-      </c>
-      <c r="B50" t="n">
-        <v>1</v>
-      </c>
-      <c r="C50" t="n">
-        <v>165.66</v>
-      </c>
-      <c r="D50" t="n">
-        <v>34.0912</v>
-      </c>
-      <c r="E50" t="n">
-        <v>50.1745</v>
-      </c>
-      <c r="F50" t="n">
-        <v>0.0613</v>
-      </c>
-      <c r="G50" t="n">
-        <v>6.3014</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0.9146</v>
-      </c>
-      <c r="I50" t="n">
-        <v>166.9003</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="n">
-        <v>2</v>
-      </c>
-      <c r="L50" t="n">
-        <v>0.1302</v>
-      </c>
-      <c r="M50" t="n">
-        <v>6.7428</v>
-      </c>
-      <c r="N50" t="b">
-        <v>0</v>
-      </c>
-      <c r="O50" t="b">
-        <v>0</v>
-      </c>
-      <c r="P50" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>-20</v>
-      </c>
-      <c r="B51" t="n">
-        <v>1</v>
-      </c>
-      <c r="C51" t="n">
-        <v>165.66</v>
-      </c>
-      <c r="D51" t="n">
-        <v>34.0912</v>
-      </c>
-      <c r="E51" t="n">
-        <v>50.0237</v>
-      </c>
-      <c r="F51" t="n">
-        <v>0.0586</v>
-      </c>
-      <c r="G51" t="n">
-        <v>6.3014</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0.9157999999999999</v>
-      </c>
-      <c r="I51" t="n">
-        <v>167.6694</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
-      <c r="K51" t="n">
-        <v>2</v>
-      </c>
-      <c r="L51" t="n">
-        <v>0.1326</v>
-      </c>
-      <c r="M51" t="n">
-        <v>6.4377</v>
-      </c>
-      <c r="N51" t="b">
-        <v>1</v>
-      </c>
-      <c r="O51" t="b">
-        <v>0</v>
-      </c>
-      <c r="P51" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>-20</v>
-      </c>
-      <c r="B52" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="C52" t="n">
-        <v>154.964</v>
-      </c>
-      <c r="D52" t="n">
-        <v>33.7325</v>
-      </c>
-      <c r="E52" t="n">
-        <v>47.1614</v>
-      </c>
-      <c r="F52" t="n">
-        <v>0.0403</v>
-      </c>
-      <c r="G52" t="n">
-        <v>6.2787</v>
-      </c>
-      <c r="H52" t="n">
-        <v>1.5852</v>
-      </c>
-      <c r="I52" t="n">
-        <v>166.8903</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
-      <c r="K52" t="n">
-        <v>2</v>
-      </c>
-      <c r="L52" t="n">
-        <v>0.1372</v>
-      </c>
-      <c r="M52" t="n">
-        <v>4.4305</v>
-      </c>
-      <c r="N52" t="b">
-        <v>0</v>
-      </c>
-      <c r="O52" t="b">
-        <v>1</v>
-      </c>
-      <c r="P52" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>-20</v>
-      </c>
-      <c r="B53" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="C53" t="n">
-        <v>153.5498</v>
-      </c>
-      <c r="D53" t="n">
-        <v>33.6454</v>
-      </c>
-      <c r="E53" t="n">
-        <v>47.2207</v>
-      </c>
-      <c r="F53" t="n">
-        <v>0.0483</v>
-      </c>
-      <c r="G53" t="n">
-        <v>6.2757</v>
-      </c>
-      <c r="H53" t="n">
-        <v>1.6984</v>
-      </c>
-      <c r="I53" t="n">
-        <v>167.6694</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
-      <c r="K53" t="n">
-        <v>2</v>
-      </c>
-      <c r="L53" t="n">
-        <v>0.136</v>
-      </c>
-      <c r="M53" t="n">
-        <v>5.3061</v>
-      </c>
-      <c r="N53" t="b">
-        <v>1</v>
-      </c>
-      <c r="O53" t="b">
-        <v>1</v>
-      </c>
-      <c r="P53" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>-15</v>
-      </c>
-      <c r="B54" t="n">
-        <v>1</v>
-      </c>
-      <c r="C54" t="n">
-        <v>165.66</v>
-      </c>
-      <c r="D54" t="n">
-        <v>34.0948</v>
-      </c>
-      <c r="E54" t="n">
-        <v>52.8991</v>
-      </c>
-      <c r="F54" t="n">
-        <v>0.06569999999999999</v>
-      </c>
-      <c r="G54" t="n">
-        <v>6.3014</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0.7997</v>
-      </c>
-      <c r="I54" t="n">
-        <v>166.6427</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
-      <c r="K54" t="n">
-        <v>2</v>
-      </c>
-      <c r="L54" t="n">
-        <v>0.0963</v>
-      </c>
-      <c r="M54" t="n">
-        <v>7.2189</v>
-      </c>
-      <c r="N54" t="b">
-        <v>0</v>
-      </c>
-      <c r="O54" t="b">
-        <v>0</v>
-      </c>
-      <c r="P54" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>-15</v>
-      </c>
-      <c r="B55" t="n">
-        <v>1</v>
-      </c>
-      <c r="C55" t="n">
-        <v>165.66</v>
-      </c>
-      <c r="D55" t="n">
-        <v>34.0948</v>
-      </c>
-      <c r="E55" t="n">
-        <v>52.7864</v>
-      </c>
-      <c r="F55" t="n">
-        <v>0.0635</v>
-      </c>
-      <c r="G55" t="n">
-        <v>6.3014</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0.8001</v>
-      </c>
-      <c r="I55" t="n">
-        <v>167.2338</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
-      <c r="K55" t="n">
-        <v>2</v>
-      </c>
-      <c r="L55" t="n">
-        <v>0.0979</v>
-      </c>
-      <c r="M55" t="n">
-        <v>6.9825</v>
-      </c>
-      <c r="N55" t="b">
-        <v>1</v>
-      </c>
-      <c r="O55" t="b">
-        <v>0</v>
-      </c>
-      <c r="P55" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>-15</v>
-      </c>
-      <c r="B56" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="C56" t="n">
-        <v>147.795</v>
-      </c>
-      <c r="D56" t="n">
-        <v>33.2339</v>
-      </c>
-      <c r="E56" t="n">
-        <v>48.1115</v>
-      </c>
-      <c r="F56" t="n">
-        <v>0.0265</v>
-      </c>
-      <c r="G56" t="n">
-        <v>6.2635</v>
-      </c>
-      <c r="H56" t="n">
-        <v>1.9548</v>
-      </c>
-      <c r="I56" t="n">
-        <v>166.6334</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
-      <c r="K56" t="n">
-        <v>2</v>
-      </c>
-      <c r="L56" t="n">
-        <v>0.1092</v>
-      </c>
-      <c r="M56" t="n">
-        <v>2.9168</v>
-      </c>
-      <c r="N56" t="b">
-        <v>0</v>
-      </c>
-      <c r="O56" t="b">
-        <v>1</v>
-      </c>
-      <c r="P56" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>-15</v>
-      </c>
-      <c r="B57" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="C57" t="n">
-        <v>151.9063</v>
-      </c>
-      <c r="D57" t="n">
-        <v>33.5395</v>
-      </c>
-      <c r="E57" t="n">
-        <v>49.6957</v>
-      </c>
-      <c r="F57" t="n">
-        <v>0.0525</v>
-      </c>
-      <c r="G57" t="n">
-        <v>6.2722</v>
-      </c>
-      <c r="H57" t="n">
-        <v>1.6372</v>
-      </c>
-      <c r="I57" t="n">
-        <v>167.2338</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
-      <c r="K57" t="n">
-        <v>2</v>
-      </c>
-      <c r="L57" t="n">
-        <v>0.1013</v>
-      </c>
-      <c r="M57" t="n">
-        <v>5.7693</v>
-      </c>
-      <c r="N57" t="b">
-        <v>1</v>
-      </c>
-      <c r="O57" t="b">
-        <v>1</v>
-      </c>
-      <c r="P57" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>-10</v>
-      </c>
-      <c r="B58" t="n">
-        <v>1</v>
-      </c>
-      <c r="C58" t="n">
-        <v>165.66</v>
-      </c>
-      <c r="D58" t="n">
-        <v>34.0869</v>
-      </c>
-      <c r="E58" t="n">
-        <v>55.4805</v>
-      </c>
-      <c r="F58" t="n">
-        <v>0.06950000000000001</v>
-      </c>
-      <c r="G58" t="n">
-        <v>6.3014</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0.6888</v>
-      </c>
-      <c r="I58" t="n">
-        <v>166.3851</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
-      <c r="K58" t="n">
-        <v>2</v>
-      </c>
-      <c r="L58" t="n">
-        <v>0.06759999999999999</v>
-      </c>
-      <c r="M58" t="n">
-        <v>7.6441</v>
-      </c>
-      <c r="N58" t="b">
-        <v>0</v>
-      </c>
-      <c r="O58" t="b">
-        <v>0</v>
-      </c>
-      <c r="P58" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>-10</v>
-      </c>
-      <c r="B59" t="n">
-        <v>1</v>
-      </c>
-      <c r="C59" t="n">
-        <v>165.66</v>
-      </c>
-      <c r="D59" t="n">
-        <v>34.0869</v>
-      </c>
-      <c r="E59" t="n">
-        <v>55.4184</v>
-      </c>
-      <c r="F59" t="n">
-        <v>0.06809999999999999</v>
-      </c>
-      <c r="G59" t="n">
-        <v>6.3014</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0.6883</v>
-      </c>
-      <c r="I59" t="n">
-        <v>166.7974</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
-      <c r="K59" t="n">
-        <v>2</v>
-      </c>
-      <c r="L59" t="n">
-        <v>0.06859999999999999</v>
-      </c>
-      <c r="M59" t="n">
-        <v>7.4915</v>
-      </c>
-      <c r="N59" t="b">
-        <v>1</v>
-      </c>
-      <c r="O59" t="b">
-        <v>0</v>
-      </c>
-      <c r="P59" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>-10</v>
-      </c>
-      <c r="B60" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="C60" t="n">
-        <v>159.281</v>
-      </c>
-      <c r="D60" t="n">
-        <v>33.9451</v>
-      </c>
-      <c r="E60" t="n">
-        <v>53.4285</v>
-      </c>
-      <c r="F60" t="n">
-        <v>0.0607</v>
-      </c>
-      <c r="G60" t="n">
-        <v>6.2878</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0.9695</v>
-      </c>
-      <c r="I60" t="n">
-        <v>166.3765</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
-      <c r="K60" t="n">
-        <v>2</v>
-      </c>
-      <c r="L60" t="n">
-        <v>0.07049999999999999</v>
-      </c>
-      <c r="M60" t="n">
-        <v>6.6717</v>
-      </c>
-      <c r="N60" t="b">
-        <v>0</v>
-      </c>
-      <c r="O60" t="b">
-        <v>1</v>
-      </c>
-      <c r="P60" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>-10</v>
-      </c>
-      <c r="B61" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="C61" t="n">
-        <v>151.3998</v>
-      </c>
-      <c r="D61" t="n">
-        <v>33.4963</v>
-      </c>
-      <c r="E61" t="n">
-        <v>52.1205</v>
-      </c>
-      <c r="F61" t="n">
-        <v>0.0568</v>
-      </c>
-      <c r="G61" t="n">
-        <v>6.2711</v>
-      </c>
-      <c r="H61" t="n">
-        <v>1.4826</v>
-      </c>
-      <c r="I61" t="n">
-        <v>166.7974</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
-      <c r="K61" t="n">
-        <v>2</v>
-      </c>
-      <c r="L61" t="n">
-        <v>0.0723</v>
-      </c>
-      <c r="M61" t="n">
-        <v>6.2389</v>
-      </c>
-      <c r="N61" t="b">
-        <v>1</v>
-      </c>
-      <c r="O61" t="b">
-        <v>1</v>
-      </c>
-      <c r="P61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16367,7 +13627,6 @@
       <c r="I2" t="n">
         <v>157.0125</v>
       </c>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
         <v>0</v>
       </c>
@@ -16415,7 +13674,6 @@
       <c r="I3" t="n">
         <v>157.0125</v>
       </c>
-      <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
         <v>0</v>
       </c>
@@ -16463,7 +13721,6 @@
       <c r="I4" t="n">
         <v>157.0125</v>
       </c>
-      <c r="J4" t="inlineStr"/>
       <c r="K4" t="n">
         <v>0</v>
       </c>
@@ -16511,7 +13768,6 @@
       <c r="I5" t="n">
         <v>157.0125</v>
       </c>
-      <c r="J5" t="inlineStr"/>
       <c r="K5" t="n">
         <v>0</v>
       </c>
@@ -16559,7 +13815,6 @@
       <c r="I6" t="n">
         <v>163.607</v>
       </c>
-      <c r="J6" t="inlineStr"/>
       <c r="K6" t="n">
         <v>0</v>
       </c>
@@ -16607,7 +13862,6 @@
       <c r="I7" t="n">
         <v>163.607</v>
       </c>
-      <c r="J7" t="inlineStr"/>
       <c r="K7" t="n">
         <v>0</v>
       </c>
@@ -16655,7 +13909,6 @@
       <c r="I8" t="n">
         <v>163.607</v>
       </c>
-      <c r="J8" t="inlineStr"/>
       <c r="K8" t="n">
         <v>0</v>
       </c>
@@ -16703,7 +13956,6 @@
       <c r="I9" t="n">
         <v>163.607</v>
       </c>
-      <c r="J9" t="inlineStr"/>
       <c r="K9" t="n">
         <v>0</v>
       </c>
@@ -16751,7 +14003,6 @@
       <c r="I10" t="n">
         <v>168.3174</v>
       </c>
-      <c r="J10" t="inlineStr"/>
       <c r="K10" t="n">
         <v>0</v>
       </c>
@@ -16799,7 +14050,6 @@
       <c r="I11" t="n">
         <v>168.3174</v>
       </c>
-      <c r="J11" t="inlineStr"/>
       <c r="K11" t="n">
         <v>0</v>
       </c>
@@ -16847,7 +14097,6 @@
       <c r="I12" t="n">
         <v>168.3174</v>
       </c>
-      <c r="J12" t="inlineStr"/>
       <c r="K12" t="n">
         <v>0</v>
       </c>
@@ -16895,7 +14144,6 @@
       <c r="I13" t="n">
         <v>168.3174</v>
       </c>
-      <c r="J13" t="inlineStr"/>
       <c r="K13" t="n">
         <v>0</v>
       </c>
@@ -16943,7 +14191,6 @@
       <c r="I14" t="n">
         <v>168.1316</v>
       </c>
-      <c r="J14" t="inlineStr"/>
       <c r="K14" t="n">
         <v>0</v>
       </c>
@@ -16991,7 +14238,6 @@
       <c r="I15" t="n">
         <v>168.1316</v>
       </c>
-      <c r="J15" t="inlineStr"/>
       <c r="K15" t="n">
         <v>0</v>
       </c>
@@ -17039,7 +14285,6 @@
       <c r="I16" t="n">
         <v>168.1316</v>
       </c>
-      <c r="J16" t="inlineStr"/>
       <c r="K16" t="n">
         <v>0</v>
       </c>
@@ -17087,7 +14332,6 @@
       <c r="I17" t="n">
         <v>168.1316</v>
       </c>
-      <c r="J17" t="inlineStr"/>
       <c r="K17" t="n">
         <v>0</v>
       </c>
@@ -17135,7 +14379,6 @@
       <c r="I18" t="n">
         <v>167.9458</v>
       </c>
-      <c r="J18" t="inlineStr"/>
       <c r="K18" t="n">
         <v>0</v>
       </c>
@@ -17183,7 +14426,6 @@
       <c r="I19" t="n">
         <v>167.9458</v>
       </c>
-      <c r="J19" t="inlineStr"/>
       <c r="K19" t="n">
         <v>0</v>
       </c>
@@ -17231,7 +14473,6 @@
       <c r="I20" t="n">
         <v>167.9458</v>
       </c>
-      <c r="J20" t="inlineStr"/>
       <c r="K20" t="n">
         <v>0</v>
       </c>
@@ -17279,7 +14520,6 @@
       <c r="I21" t="n">
         <v>167.9458</v>
       </c>
-      <c r="J21" t="inlineStr"/>
       <c r="K21" t="n">
         <v>0</v>
       </c>

--- a/resdataASW_all_m3.xlsx
+++ b/resdataASW_all_m3.xlsx
@@ -7221,16 +7221,16 @@
         <v>-5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.95456</v>
+        <v>0.95457</v>
       </c>
       <c r="C2" t="n">
-        <v>158.1321</v>
+        <v>158.1339</v>
       </c>
       <c r="D2" t="n">
-        <v>33.8697</v>
+        <v>33.8698</v>
       </c>
       <c r="E2" t="n">
-        <v>55.6179</v>
+        <v>55.6224</v>
       </c>
       <c r="F2" t="n">
         <v>0.0404</v>
@@ -7239,7 +7239,7 @@
         <v>6.2854</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9021</v>
+        <v>0.9006</v>
       </c>
       <c r="I2" t="n">
         <v>170.097</v>
@@ -7251,10 +7251,10 @@
         <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0532</v>
+        <v>0.0531</v>
       </c>
       <c r="M2" t="n">
-        <v>4.4376</v>
+        <v>4.4396</v>
       </c>
       <c r="N2" t="b">
         <v>0</v>
@@ -7271,25 +7271,25 @@
         <v>-5</v>
       </c>
       <c r="B3" t="n">
-        <v>0.95207</v>
+        <v>0.95219</v>
       </c>
       <c r="C3" t="n">
-        <v>157.7199</v>
+        <v>157.7391</v>
       </c>
       <c r="D3" t="n">
-        <v>33.8504</v>
+        <v>33.8513</v>
       </c>
       <c r="E3" t="n">
-        <v>55.5322</v>
+        <v>55.5394</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0403</v>
+        <v>0.0404</v>
       </c>
       <c r="G3" t="n">
-        <v>6.2845</v>
+        <v>6.2846</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9241</v>
+        <v>0.9221</v>
       </c>
       <c r="I3" t="n">
         <v>169.8421</v>
@@ -7304,7 +7304,7 @@
         <v>0.0532</v>
       </c>
       <c r="M3" t="n">
-        <v>4.4327</v>
+        <v>4.4385</v>
       </c>
       <c r="N3" t="b">
         <v>1</v>
@@ -7321,25 +7321,25 @@
         <v>-5</v>
       </c>
       <c r="B4" t="n">
-        <v>0.91589</v>
+        <v>0.91606</v>
       </c>
       <c r="C4" t="n">
-        <v>151.7265</v>
+        <v>151.7548</v>
       </c>
       <c r="D4" t="n">
-        <v>33.4938</v>
+        <v>33.4957</v>
       </c>
       <c r="E4" t="n">
-        <v>54.2369</v>
+        <v>54.2408</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0403</v>
+        <v>0.0404</v>
       </c>
       <c r="G4" t="n">
-        <v>6.2718</v>
+        <v>6.2719</v>
       </c>
       <c r="H4" t="n">
-        <v>1.3049</v>
+        <v>1.3041</v>
       </c>
       <c r="I4" t="n">
         <v>166.1195</v>
@@ -7354,7 +7354,7 @@
         <v>0.0543</v>
       </c>
       <c r="M4" t="n">
-        <v>4.4333</v>
+        <v>4.4387</v>
       </c>
       <c r="N4" t="b">
         <v>0</v>
@@ -7371,25 +7371,25 @@
         <v>-5</v>
       </c>
       <c r="B5" t="n">
-        <v>0.91817</v>
+        <v>0.91813</v>
       </c>
       <c r="C5" t="n">
-        <v>152.1048</v>
+        <v>152.0977</v>
       </c>
       <c r="D5" t="n">
-        <v>33.5199</v>
+        <v>33.5194</v>
       </c>
       <c r="E5" t="n">
-        <v>54.3003</v>
+        <v>54.3013</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0404</v>
+        <v>0.0403</v>
       </c>
       <c r="G5" t="n">
         <v>6.2726</v>
       </c>
       <c r="H5" t="n">
-        <v>1.2778</v>
+        <v>1.2774</v>
       </c>
       <c r="I5" t="n">
         <v>166.3605</v>
@@ -7404,7 +7404,7 @@
         <v>0.0546</v>
       </c>
       <c r="M5" t="n">
-        <v>4.4363</v>
+        <v>4.4348</v>
       </c>
       <c r="N5" t="b">
         <v>1</v>
@@ -7427,7 +7427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P61"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7519,134 +7519,143 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-29</v>
+        <v>-5</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0.97488</v>
       </c>
       <c r="C2" t="n">
-        <v>165.66</v>
+        <v>161.4991</v>
       </c>
       <c r="D2" t="n">
-        <v>34.0758</v>
+        <v>33.9961</v>
       </c>
       <c r="E2" t="n">
-        <v>48.538</v>
+        <v>56.2718</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0915</v>
+        <v>0.0404</v>
       </c>
       <c r="G2" t="n">
-        <v>6.3014</v>
+        <v>6.2926</v>
       </c>
       <c r="H2" t="n">
-        <v>1.1033</v>
+        <v>0.7402</v>
       </c>
       <c r="I2" t="n">
-        <v>157.0125</v>
+        <v>172.434</v>
+      </c>
+      <c r="J2" t="n">
+        <v>4.6807</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1476</v>
+        <v>0.0528</v>
       </c>
       <c r="M2" t="n">
-        <v>10.0603</v>
+        <v>4.441</v>
       </c>
       <c r="N2" t="b">
         <v>0</v>
       </c>
       <c r="O2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>20.8963226400308</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-29</v>
+        <v>-5</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0.97002</v>
       </c>
       <c r="C3" t="n">
-        <v>165.66</v>
+        <v>160.6934</v>
       </c>
       <c r="D3" t="n">
-        <v>34.0758</v>
+        <v>33.9713</v>
       </c>
       <c r="E3" t="n">
-        <v>48.538</v>
+        <v>56.1127</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0915</v>
+        <v>0.0404</v>
       </c>
       <c r="G3" t="n">
-        <v>6.3014</v>
+        <v>6.2908</v>
       </c>
       <c r="H3" t="n">
-        <v>1.1033</v>
+        <v>0.7736</v>
       </c>
       <c r="I3" t="n">
-        <v>157.0125</v>
+        <v>171.9243</v>
+      </c>
+      <c r="J3" t="n">
+        <v>4.1274</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1476</v>
+        <v>0.0529</v>
       </c>
       <c r="M3" t="n">
-        <v>10.0603</v>
+        <v>4.4434</v>
       </c>
       <c r="N3" t="b">
         <v>1</v>
       </c>
       <c r="O3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>20.98512557603783</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-29</v>
+        <v>-5</v>
       </c>
       <c r="B4" t="n">
-        <v>0.86</v>
+        <v>0.89134</v>
       </c>
       <c r="C4" t="n">
-        <v>141.9499</v>
+        <v>147.6596</v>
       </c>
       <c r="D4" t="n">
-        <v>32.7283</v>
+        <v>33.1903</v>
       </c>
       <c r="E4" t="n">
-        <v>42.4783</v>
+        <v>53.324</v>
       </c>
       <c r="F4" t="n">
         <v>0.0404</v>
       </c>
       <c r="G4" t="n">
-        <v>6.2511</v>
+        <v>6.2632</v>
       </c>
       <c r="H4" t="n">
-        <v>2.5887</v>
+        <v>1.6232</v>
       </c>
       <c r="I4" t="n">
-        <v>157.0125</v>
+        <v>163.8011</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1649</v>
+        <v>0.0546</v>
       </c>
       <c r="M4" t="n">
-        <v>4.4402</v>
+        <v>4.4395</v>
       </c>
       <c r="N4" t="b">
         <v>0</v>
@@ -7660,40 +7669,43 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-29</v>
+        <v>-5</v>
       </c>
       <c r="B5" t="n">
-        <v>0.86</v>
+        <v>0.8963100000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>141.9499</v>
+        <v>148.4827</v>
       </c>
       <c r="D5" t="n">
-        <v>32.7283</v>
+        <v>33.2547</v>
       </c>
       <c r="E5" t="n">
-        <v>42.4783</v>
+        <v>53.4657</v>
       </c>
       <c r="F5" t="n">
         <v>0.0404</v>
       </c>
       <c r="G5" t="n">
-        <v>6.2511</v>
+        <v>6.2649</v>
       </c>
       <c r="H5" t="n">
-        <v>2.5887</v>
+        <v>1.5542</v>
       </c>
       <c r="I5" t="n">
-        <v>157.0125</v>
+        <v>164.325</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1649</v>
+        <v>0.0551</v>
       </c>
       <c r="M5" t="n">
-        <v>4.4402</v>
+        <v>4.4447</v>
       </c>
       <c r="N5" t="b">
         <v>1</v>
@@ -7702,2758 +7714,6 @@
         <v>1</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>-25</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="n">
-        <v>165.66</v>
-      </c>
-      <c r="D6" t="n">
-        <v>34.0824</v>
-      </c>
-      <c r="E6" t="n">
-        <v>48.4117</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.0701</v>
-      </c>
-      <c r="G6" t="n">
-        <v>6.3014</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1.0135</v>
-      </c>
-      <c r="I6" t="n">
-        <v>163.607</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.1522</v>
-      </c>
-      <c r="M6" t="n">
-        <v>7.7089</v>
-      </c>
-      <c r="N6" t="b">
-        <v>0</v>
-      </c>
-      <c r="O6" t="b">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>-25</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>165.66</v>
-      </c>
-      <c r="D7" t="n">
-        <v>34.0824</v>
-      </c>
-      <c r="E7" t="n">
-        <v>48.4117</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.0701</v>
-      </c>
-      <c r="G7" t="n">
-        <v>6.3014</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1.0135</v>
-      </c>
-      <c r="I7" t="n">
-        <v>163.607</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.1522</v>
-      </c>
-      <c r="M7" t="n">
-        <v>7.7089</v>
-      </c>
-      <c r="N7" t="b">
-        <v>1</v>
-      </c>
-      <c r="O7" t="b">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>-25</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="C8" t="n">
-        <v>149.5781</v>
-      </c>
-      <c r="D8" t="n">
-        <v>33.3591</v>
-      </c>
-      <c r="E8" t="n">
-        <v>43.9554</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.0248</v>
-      </c>
-      <c r="G8" t="n">
-        <v>6.2673</v>
-      </c>
-      <c r="H8" t="n">
-        <v>2.1433</v>
-      </c>
-      <c r="I8" t="n">
-        <v>163.607</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.1674</v>
-      </c>
-      <c r="M8" t="n">
-        <v>2.7231</v>
-      </c>
-      <c r="N8" t="b">
-        <v>0</v>
-      </c>
-      <c r="O8" t="b">
-        <v>1</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>-25</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="C9" t="n">
-        <v>149.5781</v>
-      </c>
-      <c r="D9" t="n">
-        <v>33.3591</v>
-      </c>
-      <c r="E9" t="n">
-        <v>43.9554</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.0248</v>
-      </c>
-      <c r="G9" t="n">
-        <v>6.2673</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2.1433</v>
-      </c>
-      <c r="I9" t="n">
-        <v>163.607</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0.1674</v>
-      </c>
-      <c r="M9" t="n">
-        <v>2.7231</v>
-      </c>
-      <c r="N9" t="b">
-        <v>1</v>
-      </c>
-      <c r="O9" t="b">
-        <v>1</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>-20</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="n">
-        <v>165.66</v>
-      </c>
-      <c r="D10" t="n">
-        <v>34.0912</v>
-      </c>
-      <c r="E10" t="n">
-        <v>50.1848</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.0557</v>
-      </c>
-      <c r="G10" t="n">
-        <v>6.3014</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.9147999999999999</v>
-      </c>
-      <c r="I10" t="n">
-        <v>168.3174</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="M10" t="n">
-        <v>6.1282</v>
-      </c>
-      <c r="N10" t="b">
-        <v>0</v>
-      </c>
-      <c r="O10" t="b">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>-20</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="n">
-        <v>165.66</v>
-      </c>
-      <c r="D11" t="n">
-        <v>34.0912</v>
-      </c>
-      <c r="E11" t="n">
-        <v>50.1848</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.0557</v>
-      </c>
-      <c r="G11" t="n">
-        <v>6.3014</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.9147999999999999</v>
-      </c>
-      <c r="I11" t="n">
-        <v>168.3174</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="M11" t="n">
-        <v>6.1282</v>
-      </c>
-      <c r="N11" t="b">
-        <v>1</v>
-      </c>
-      <c r="O11" t="b">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>-20</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="C12" t="n">
-        <v>154.8554</v>
-      </c>
-      <c r="D12" t="n">
-        <v>33.7261</v>
-      </c>
-      <c r="E12" t="n">
-        <v>47.4721</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.0423</v>
-      </c>
-      <c r="G12" t="n">
-        <v>6.2785</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1.5933</v>
-      </c>
-      <c r="I12" t="n">
-        <v>168.3174</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0.1344</v>
-      </c>
-      <c r="M12" t="n">
-        <v>4.6548</v>
-      </c>
-      <c r="N12" t="b">
-        <v>0</v>
-      </c>
-      <c r="O12" t="b">
-        <v>1</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>-20</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="C13" t="n">
-        <v>154.8554</v>
-      </c>
-      <c r="D13" t="n">
-        <v>33.7261</v>
-      </c>
-      <c r="E13" t="n">
-        <v>47.4721</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.0423</v>
-      </c>
-      <c r="G13" t="n">
-        <v>6.2785</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1.5933</v>
-      </c>
-      <c r="I13" t="n">
-        <v>168.3174</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0.1344</v>
-      </c>
-      <c r="M13" t="n">
-        <v>4.6548</v>
-      </c>
-      <c r="N13" t="b">
-        <v>1</v>
-      </c>
-      <c r="O13" t="b">
-        <v>1</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>-15</v>
-      </c>
-      <c r="B14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" t="n">
-        <v>165.66</v>
-      </c>
-      <c r="D14" t="n">
-        <v>34.0948</v>
-      </c>
-      <c r="E14" t="n">
-        <v>52.8755</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.0598</v>
-      </c>
-      <c r="G14" t="n">
-        <v>6.3014</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.8008999999999999</v>
-      </c>
-      <c r="I14" t="n">
-        <v>168.1316</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0.09660000000000001</v>
-      </c>
-      <c r="M14" t="n">
-        <v>6.5755</v>
-      </c>
-      <c r="N14" t="b">
-        <v>0</v>
-      </c>
-      <c r="O14" t="b">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>-15</v>
-      </c>
-      <c r="B15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" t="n">
-        <v>165.66</v>
-      </c>
-      <c r="D15" t="n">
-        <v>34.0948</v>
-      </c>
-      <c r="E15" t="n">
-        <v>52.8755</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.0598</v>
-      </c>
-      <c r="G15" t="n">
-        <v>6.3014</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.8008999999999999</v>
-      </c>
-      <c r="I15" t="n">
-        <v>168.1316</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0.09660000000000001</v>
-      </c>
-      <c r="M15" t="n">
-        <v>6.5755</v>
-      </c>
-      <c r="N15" t="b">
-        <v>1</v>
-      </c>
-      <c r="O15" t="b">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>-15</v>
-      </c>
-      <c r="B16" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="C16" t="n">
-        <v>162.4158</v>
-      </c>
-      <c r="D16" t="n">
-        <v>34.0536</v>
-      </c>
-      <c r="E16" t="n">
-        <v>51.6878</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.0565</v>
-      </c>
-      <c r="G16" t="n">
-        <v>6.2945</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.9267</v>
-      </c>
-      <c r="I16" t="n">
-        <v>168.1316</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0.09710000000000001</v>
-      </c>
-      <c r="M16" t="n">
-        <v>6.2165</v>
-      </c>
-      <c r="N16" t="b">
-        <v>0</v>
-      </c>
-      <c r="O16" t="b">
-        <v>1</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>-15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="C17" t="n">
-        <v>162.4158</v>
-      </c>
-      <c r="D17" t="n">
-        <v>34.0536</v>
-      </c>
-      <c r="E17" t="n">
-        <v>51.6878</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.0565</v>
-      </c>
-      <c r="G17" t="n">
-        <v>6.2945</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0.9267</v>
-      </c>
-      <c r="I17" t="n">
-        <v>168.1316</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0.09710000000000001</v>
-      </c>
-      <c r="M17" t="n">
-        <v>6.2165</v>
-      </c>
-      <c r="N17" t="b">
-        <v>1</v>
-      </c>
-      <c r="O17" t="b">
-        <v>1</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>-10</v>
-      </c>
-      <c r="B18" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" t="n">
-        <v>165.66</v>
-      </c>
-      <c r="D18" t="n">
-        <v>34.0869</v>
-      </c>
-      <c r="E18" t="n">
-        <v>55.4354</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.0636</v>
-      </c>
-      <c r="G18" t="n">
-        <v>6.3014</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0.6883</v>
-      </c>
-      <c r="I18" t="n">
-        <v>167.9458</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0.0683</v>
-      </c>
-      <c r="M18" t="n">
-        <v>6.9945</v>
-      </c>
-      <c r="N18" t="b">
-        <v>0</v>
-      </c>
-      <c r="O18" t="b">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>-10</v>
-      </c>
-      <c r="B19" t="n">
-        <v>1</v>
-      </c>
-      <c r="C19" t="n">
-        <v>165.66</v>
-      </c>
-      <c r="D19" t="n">
-        <v>34.0869</v>
-      </c>
-      <c r="E19" t="n">
-        <v>55.4354</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.0636</v>
-      </c>
-      <c r="G19" t="n">
-        <v>6.3014</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0.6883</v>
-      </c>
-      <c r="I19" t="n">
-        <v>167.9458</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0.0683</v>
-      </c>
-      <c r="M19" t="n">
-        <v>6.9945</v>
-      </c>
-      <c r="N19" t="b">
-        <v>1</v>
-      </c>
-      <c r="O19" t="b">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>-10</v>
-      </c>
-      <c r="B20" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="C20" t="n">
-        <v>153.5107</v>
-      </c>
-      <c r="D20" t="n">
-        <v>33.6386</v>
-      </c>
-      <c r="E20" t="n">
-        <v>51.9442</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.0406</v>
-      </c>
-      <c r="G20" t="n">
-        <v>6.2756</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1.3464</v>
-      </c>
-      <c r="I20" t="n">
-        <v>167.9458</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0.0756</v>
-      </c>
-      <c r="M20" t="n">
-        <v>4.4674</v>
-      </c>
-      <c r="N20" t="b">
-        <v>0</v>
-      </c>
-      <c r="O20" t="b">
-        <v>1</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>-10</v>
-      </c>
-      <c r="B21" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="C21" t="n">
-        <v>153.5107</v>
-      </c>
-      <c r="D21" t="n">
-        <v>33.6386</v>
-      </c>
-      <c r="E21" t="n">
-        <v>51.9442</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.0406</v>
-      </c>
-      <c r="G21" t="n">
-        <v>6.2756</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1.3464</v>
-      </c>
-      <c r="I21" t="n">
-        <v>167.9458</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0.0756</v>
-      </c>
-      <c r="M21" t="n">
-        <v>4.4674</v>
-      </c>
-      <c r="N21" t="b">
-        <v>1</v>
-      </c>
-      <c r="O21" t="b">
-        <v>1</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>-29</v>
-      </c>
-      <c r="B22" t="n">
-        <v>1</v>
-      </c>
-      <c r="C22" t="n">
-        <v>165.66</v>
-      </c>
-      <c r="D22" t="n">
-        <v>34.0758</v>
-      </c>
-      <c r="E22" t="n">
-        <v>48.1071</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.0751</v>
-      </c>
-      <c r="G22" t="n">
-        <v>6.3014</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1.1032</v>
-      </c>
-      <c r="I22" t="n">
-        <v>161.3218</v>
-      </c>
-      <c r="J22" t="n">
-        <v>4.3333</v>
-      </c>
-      <c r="K22" t="n">
-        <v>1</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0.1525</v>
-      </c>
-      <c r="M22" t="n">
-        <v>8.2525</v>
-      </c>
-      <c r="N22" t="b">
-        <v>0</v>
-      </c>
-      <c r="O22" t="b">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>20.58414236451898</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>-29</v>
-      </c>
-      <c r="B23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C23" t="n">
-        <v>165.66</v>
-      </c>
-      <c r="D23" t="n">
-        <v>34.0758</v>
-      </c>
-      <c r="E23" t="n">
-        <v>48.0629</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.07290000000000001</v>
-      </c>
-      <c r="G23" t="n">
-        <v>6.3014</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1.1012</v>
-      </c>
-      <c r="I23" t="n">
-        <v>161.8886</v>
-      </c>
-      <c r="J23" t="n">
-        <v>2.1876</v>
-      </c>
-      <c r="K23" t="n">
-        <v>1</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0.1532</v>
-      </c>
-      <c r="M23" t="n">
-        <v>8.0184</v>
-      </c>
-      <c r="N23" t="b">
-        <v>1</v>
-      </c>
-      <c r="O23" t="b">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>20.98512557603783</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>-29</v>
-      </c>
-      <c r="B24" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="C24" t="n">
-        <v>149.011</v>
-      </c>
-      <c r="D24" t="n">
-        <v>33.3098</v>
-      </c>
-      <c r="E24" t="n">
-        <v>43.831</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0.0404</v>
-      </c>
-      <c r="G24" t="n">
-        <v>6.2661</v>
-      </c>
-      <c r="H24" t="n">
-        <v>2.2705</v>
-      </c>
-      <c r="I24" t="n">
-        <v>161.3218</v>
-      </c>
-      <c r="J24" t="n">
-        <v>4.3333</v>
-      </c>
-      <c r="K24" t="n">
-        <v>1</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0.1642</v>
-      </c>
-      <c r="M24" t="n">
-        <v>4.4382</v>
-      </c>
-      <c r="N24" t="b">
-        <v>0</v>
-      </c>
-      <c r="O24" t="b">
-        <v>1</v>
-      </c>
-      <c r="P24" t="n">
-        <v>20.58414236451898</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>-29</v>
-      </c>
-      <c r="B25" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="C25" t="n">
-        <v>146.6511</v>
-      </c>
-      <c r="D25" t="n">
-        <v>33.124</v>
-      </c>
-      <c r="E25" t="n">
-        <v>43.3868</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0.0403</v>
-      </c>
-      <c r="G25" t="n">
-        <v>6.261</v>
-      </c>
-      <c r="H25" t="n">
-        <v>2.4033</v>
-      </c>
-      <c r="I25" t="n">
-        <v>159.9263</v>
-      </c>
-      <c r="J25" t="n">
-        <v>2.1876</v>
-      </c>
-      <c r="K25" t="n">
-        <v>1</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0.1644</v>
-      </c>
-      <c r="M25" t="n">
-        <v>4.4306</v>
-      </c>
-      <c r="N25" t="b">
-        <v>1</v>
-      </c>
-      <c r="O25" t="b">
-        <v>1</v>
-      </c>
-      <c r="P25" t="n">
-        <v>20.98512557603783</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>-25</v>
-      </c>
-      <c r="B26" t="n">
-        <v>1</v>
-      </c>
-      <c r="C26" t="n">
-        <v>165.66</v>
-      </c>
-      <c r="D26" t="n">
-        <v>34.0824</v>
-      </c>
-      <c r="E26" t="n">
-        <v>48.1004</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.0531</v>
-      </c>
-      <c r="G26" t="n">
-        <v>6.3014</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1.0123</v>
-      </c>
-      <c r="I26" t="n">
-        <v>168.0973</v>
-      </c>
-      <c r="J26" t="n">
-        <v>4.5143</v>
-      </c>
-      <c r="K26" t="n">
-        <v>1</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0.1573</v>
-      </c>
-      <c r="M26" t="n">
-        <v>5.8325</v>
-      </c>
-      <c r="N26" t="b">
-        <v>0</v>
-      </c>
-      <c r="O26" t="b">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>20.58414236451898</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>-25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>1</v>
-      </c>
-      <c r="C27" t="n">
-        <v>165.66</v>
-      </c>
-      <c r="D27" t="n">
-        <v>34.0824</v>
-      </c>
-      <c r="E27" t="n">
-        <v>48.0639</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0.0508</v>
-      </c>
-      <c r="G27" t="n">
-        <v>6.3014</v>
-      </c>
-      <c r="H27" t="n">
-        <v>1.0131</v>
-      </c>
-      <c r="I27" t="n">
-        <v>168.6879</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2.3721</v>
-      </c>
-      <c r="K27" t="n">
-        <v>1</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0.158</v>
-      </c>
-      <c r="M27" t="n">
-        <v>5.5816</v>
-      </c>
-      <c r="N27" t="b">
-        <v>1</v>
-      </c>
-      <c r="O27" t="b">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>20.98512557603783</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>-25</v>
-      </c>
-      <c r="B28" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="C28" t="n">
-        <v>158.5356</v>
-      </c>
-      <c r="D28" t="n">
-        <v>33.9091</v>
-      </c>
-      <c r="E28" t="n">
-        <v>46.0162</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0.0404</v>
-      </c>
-      <c r="G28" t="n">
-        <v>6.2863</v>
-      </c>
-      <c r="H28" t="n">
-        <v>1.4808</v>
-      </c>
-      <c r="I28" t="n">
-        <v>168.0973</v>
-      </c>
-      <c r="J28" t="n">
-        <v>4.5143</v>
-      </c>
-      <c r="K28" t="n">
-        <v>1</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0.1615</v>
-      </c>
-      <c r="M28" t="n">
-        <v>4.4387</v>
-      </c>
-      <c r="N28" t="b">
-        <v>0</v>
-      </c>
-      <c r="O28" t="b">
-        <v>1</v>
-      </c>
-      <c r="P28" t="n">
-        <v>20.58414236451898</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>-25</v>
-      </c>
-      <c r="B29" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="C29" t="n">
-        <v>154.6554</v>
-      </c>
-      <c r="D29" t="n">
-        <v>33.7054</v>
-      </c>
-      <c r="E29" t="n">
-        <v>44.9142</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0.0245</v>
-      </c>
-      <c r="G29" t="n">
-        <v>6.278</v>
-      </c>
-      <c r="H29" t="n">
-        <v>1.7645</v>
-      </c>
-      <c r="I29" t="n">
-        <v>166.6432</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2.3721</v>
-      </c>
-      <c r="K29" t="n">
-        <v>1</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0.167</v>
-      </c>
-      <c r="M29" t="n">
-        <v>2.691</v>
-      </c>
-      <c r="N29" t="b">
-        <v>1</v>
-      </c>
-      <c r="O29" t="b">
-        <v>1</v>
-      </c>
-      <c r="P29" t="n">
-        <v>20.98512557603783</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>-20</v>
-      </c>
-      <c r="B30" t="n">
-        <v>1</v>
-      </c>
-      <c r="C30" t="n">
-        <v>165.66</v>
-      </c>
-      <c r="D30" t="n">
-        <v>34.0912</v>
-      </c>
-      <c r="E30" t="n">
-        <v>49.9473</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0.0381</v>
-      </c>
-      <c r="G30" t="n">
-        <v>6.3014</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0.9141</v>
-      </c>
-      <c r="I30" t="n">
-        <v>172.9507</v>
-      </c>
-      <c r="J30" t="n">
-        <v>4.6535</v>
-      </c>
-      <c r="K30" t="n">
-        <v>1</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0.1352</v>
-      </c>
-      <c r="M30" t="n">
-        <v>4.1921</v>
-      </c>
-      <c r="N30" t="b">
-        <v>0</v>
-      </c>
-      <c r="O30" t="b">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>20.64521421300611</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>-20</v>
-      </c>
-      <c r="B31" t="n">
-        <v>1</v>
-      </c>
-      <c r="C31" t="n">
-        <v>165.66</v>
-      </c>
-      <c r="D31" t="n">
-        <v>34.0912</v>
-      </c>
-      <c r="E31" t="n">
-        <v>49.9216</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0.0359</v>
-      </c>
-      <c r="G31" t="n">
-        <v>6.3014</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0.9146</v>
-      </c>
-      <c r="I31" t="n">
-        <v>173.5446</v>
-      </c>
-      <c r="J31" t="n">
-        <v>2.8113</v>
-      </c>
-      <c r="K31" t="n">
-        <v>1</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0.1358</v>
-      </c>
-      <c r="M31" t="n">
-        <v>3.9421</v>
-      </c>
-      <c r="N31" t="b">
-        <v>1</v>
-      </c>
-      <c r="O31" t="b">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>20.98512557603783</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>-20</v>
-      </c>
-      <c r="B32" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="C32" t="n">
-        <v>164.2395</v>
-      </c>
-      <c r="D32" t="n">
-        <v>34.0818</v>
-      </c>
-      <c r="E32" t="n">
-        <v>49.153</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0.0404</v>
-      </c>
-      <c r="G32" t="n">
-        <v>6.2984</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0.9812</v>
-      </c>
-      <c r="I32" t="n">
-        <v>172.9507</v>
-      </c>
-      <c r="J32" t="n">
-        <v>4.6535</v>
-      </c>
-      <c r="K32" t="n">
-        <v>1</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0.1343</v>
-      </c>
-      <c r="M32" t="n">
-        <v>4.4415</v>
-      </c>
-      <c r="N32" t="b">
-        <v>0</v>
-      </c>
-      <c r="O32" t="b">
-        <v>1</v>
-      </c>
-      <c r="P32" t="n">
-        <v>20.64521421300611</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>-20</v>
-      </c>
-      <c r="B33" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="C33" t="n">
-        <v>161.9892</v>
-      </c>
-      <c r="D33" t="n">
-        <v>34.0395</v>
-      </c>
-      <c r="E33" t="n">
-        <v>48.708</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0.0404</v>
-      </c>
-      <c r="G33" t="n">
-        <v>6.2936</v>
-      </c>
-      <c r="H33" t="n">
-        <v>1.1081</v>
-      </c>
-      <c r="I33" t="n">
-        <v>171.5961</v>
-      </c>
-      <c r="J33" t="n">
-        <v>2.8113</v>
-      </c>
-      <c r="K33" t="n">
-        <v>1</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0.1345</v>
-      </c>
-      <c r="M33" t="n">
-        <v>4.4393</v>
-      </c>
-      <c r="N33" t="b">
-        <v>1</v>
-      </c>
-      <c r="O33" t="b">
-        <v>1</v>
-      </c>
-      <c r="P33" t="n">
-        <v>20.98512557603783</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>-15</v>
-      </c>
-      <c r="B34" t="n">
-        <v>1</v>
-      </c>
-      <c r="C34" t="n">
-        <v>165.66</v>
-      </c>
-      <c r="D34" t="n">
-        <v>34.0948</v>
-      </c>
-      <c r="E34" t="n">
-        <v>52.5994</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0.0421</v>
-      </c>
-      <c r="G34" t="n">
-        <v>6.3014</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0.801</v>
-      </c>
-      <c r="I34" t="n">
-        <v>172.7791</v>
-      </c>
-      <c r="J34" t="n">
-        <v>4.6627</v>
-      </c>
-      <c r="K34" t="n">
-        <v>1</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0.1017</v>
-      </c>
-      <c r="M34" t="n">
-        <v>4.623</v>
-      </c>
-      <c r="N34" t="b">
-        <v>0</v>
-      </c>
-      <c r="O34" t="b">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>20.73140839874756</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>-15</v>
-      </c>
-      <c r="B35" t="n">
-        <v>1</v>
-      </c>
-      <c r="C35" t="n">
-        <v>165.66</v>
-      </c>
-      <c r="D35" t="n">
-        <v>34.0948</v>
-      </c>
-      <c r="E35" t="n">
-        <v>52.5729</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0.0399</v>
-      </c>
-      <c r="G35" t="n">
-        <v>6.3014</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0.8008</v>
-      </c>
-      <c r="I35" t="n">
-        <v>173.353</v>
-      </c>
-      <c r="J35" t="n">
-        <v>3.2502</v>
-      </c>
-      <c r="K35" t="n">
-        <v>1</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0.1024</v>
-      </c>
-      <c r="M35" t="n">
-        <v>4.3823</v>
-      </c>
-      <c r="N35" t="b">
-        <v>1</v>
-      </c>
-      <c r="O35" t="b">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>20.98512557603783</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>-15</v>
-      </c>
-      <c r="B36" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="C36" t="n">
-        <v>162.9768</v>
-      </c>
-      <c r="D36" t="n">
-        <v>34.0656</v>
-      </c>
-      <c r="E36" t="n">
-        <v>51.4953</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0.0404</v>
-      </c>
-      <c r="G36" t="n">
-        <v>6.2957</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0.9201</v>
-      </c>
-      <c r="I36" t="n">
-        <v>172.7791</v>
-      </c>
-      <c r="J36" t="n">
-        <v>4.6627</v>
-      </c>
-      <c r="K36" t="n">
-        <v>1</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0.1017</v>
-      </c>
-      <c r="M36" t="n">
-        <v>4.4372</v>
-      </c>
-      <c r="N36" t="b">
-        <v>0</v>
-      </c>
-      <c r="O36" t="b">
-        <v>1</v>
-      </c>
-      <c r="P36" t="n">
-        <v>20.73140839874756</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>-15</v>
-      </c>
-      <c r="B37" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="C37" t="n">
-        <v>161.1753</v>
-      </c>
-      <c r="D37" t="n">
-        <v>34.0203</v>
-      </c>
-      <c r="E37" t="n">
-        <v>51.1258</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0.0404</v>
-      </c>
-      <c r="G37" t="n">
-        <v>6.2919</v>
-      </c>
-      <c r="H37" t="n">
-        <v>1.0174</v>
-      </c>
-      <c r="I37" t="n">
-        <v>171.6598</v>
-      </c>
-      <c r="J37" t="n">
-        <v>3.2502</v>
-      </c>
-      <c r="K37" t="n">
-        <v>1</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0.1019</v>
-      </c>
-      <c r="M37" t="n">
-        <v>4.4456</v>
-      </c>
-      <c r="N37" t="b">
-        <v>1</v>
-      </c>
-      <c r="O37" t="b">
-        <v>1</v>
-      </c>
-      <c r="P37" t="n">
-        <v>20.98512557603783</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>-10</v>
-      </c>
-      <c r="B38" t="n">
-        <v>1</v>
-      </c>
-      <c r="C38" t="n">
-        <v>165.66</v>
-      </c>
-      <c r="D38" t="n">
-        <v>34.0869</v>
-      </c>
-      <c r="E38" t="n">
-        <v>55.1554</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0.0464</v>
-      </c>
-      <c r="G38" t="n">
-        <v>6.3014</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0.6885</v>
-      </c>
-      <c r="I38" t="n">
-        <v>172.6069</v>
-      </c>
-      <c r="J38" t="n">
-        <v>4.6718</v>
-      </c>
-      <c r="K38" t="n">
-        <v>1</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0.0732</v>
-      </c>
-      <c r="M38" t="n">
-        <v>5.0988</v>
-      </c>
-      <c r="N38" t="b">
-        <v>0</v>
-      </c>
-      <c r="O38" t="b">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>20.81512063380629</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>-10</v>
-      </c>
-      <c r="B39" t="n">
-        <v>1</v>
-      </c>
-      <c r="C39" t="n">
-        <v>165.66</v>
-      </c>
-      <c r="D39" t="n">
-        <v>34.0869</v>
-      </c>
-      <c r="E39" t="n">
-        <v>55.1329</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0.0444</v>
-      </c>
-      <c r="G39" t="n">
-        <v>6.3014</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0.6879</v>
-      </c>
-      <c r="I39" t="n">
-        <v>173.1614</v>
-      </c>
-      <c r="J39" t="n">
-        <v>3.6889</v>
-      </c>
-      <c r="K39" t="n">
-        <v>1</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0.0738</v>
-      </c>
-      <c r="M39" t="n">
-        <v>4.8779</v>
-      </c>
-      <c r="N39" t="b">
-        <v>1</v>
-      </c>
-      <c r="O39" t="b">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>20.98512557603783</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>-10</v>
-      </c>
-      <c r="B40" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="C40" t="n">
-        <v>160.9125</v>
-      </c>
-      <c r="D40" t="n">
-        <v>34.0042</v>
-      </c>
-      <c r="E40" t="n">
-        <v>53.52</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0.0404</v>
-      </c>
-      <c r="G40" t="n">
-        <v>6.2913</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0.8872</v>
-      </c>
-      <c r="I40" t="n">
-        <v>172.6069</v>
-      </c>
-      <c r="J40" t="n">
-        <v>4.6718</v>
-      </c>
-      <c r="K40" t="n">
-        <v>1</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0.07489999999999999</v>
-      </c>
-      <c r="M40" t="n">
-        <v>4.4435</v>
-      </c>
-      <c r="N40" t="b">
-        <v>0</v>
-      </c>
-      <c r="O40" t="b">
-        <v>1</v>
-      </c>
-      <c r="P40" t="n">
-        <v>20.81512063380629</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>-10</v>
-      </c>
-      <c r="B41" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="C41" t="n">
-        <v>159.5457</v>
-      </c>
-      <c r="D41" t="n">
-        <v>33.9556</v>
-      </c>
-      <c r="E41" t="n">
-        <v>53.2443</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0.0404</v>
-      </c>
-      <c r="G41" t="n">
-        <v>6.2884</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0.9559</v>
-      </c>
-      <c r="I41" t="n">
-        <v>171.7654</v>
-      </c>
-      <c r="J41" t="n">
-        <v>3.6889</v>
-      </c>
-      <c r="K41" t="n">
-        <v>1</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0.075</v>
-      </c>
-      <c r="M41" t="n">
-        <v>4.444</v>
-      </c>
-      <c r="N41" t="b">
-        <v>1</v>
-      </c>
-      <c r="O41" t="b">
-        <v>1</v>
-      </c>
-      <c r="P41" t="n">
-        <v>20.98512557603783</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>-29</v>
-      </c>
-      <c r="B42" t="n">
-        <v>1</v>
-      </c>
-      <c r="C42" t="n">
-        <v>165.66</v>
-      </c>
-      <c r="D42" t="n">
-        <v>34.0758</v>
-      </c>
-      <c r="E42" t="n">
-        <v>48.8112</v>
-      </c>
-      <c r="F42" t="n">
-        <v>0.1043</v>
-      </c>
-      <c r="G42" t="n">
-        <v>6.3014</v>
-      </c>
-      <c r="H42" t="n">
-        <v>1.1018</v>
-      </c>
-      <c r="I42" t="n">
-        <v>153.724</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
-        <v>2</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0.1461</v>
-      </c>
-      <c r="M42" t="n">
-        <v>11.4683</v>
-      </c>
-      <c r="N42" t="b">
-        <v>0</v>
-      </c>
-      <c r="O42" t="b">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>-29</v>
-      </c>
-      <c r="B43" t="n">
-        <v>1</v>
-      </c>
-      <c r="C43" t="n">
-        <v>165.66</v>
-      </c>
-      <c r="D43" t="n">
-        <v>34.0758</v>
-      </c>
-      <c r="E43" t="n">
-        <v>48.341</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0.0973</v>
-      </c>
-      <c r="G43" t="n">
-        <v>6.3014</v>
-      </c>
-      <c r="H43" t="n">
-        <v>1.1016</v>
-      </c>
-      <c r="I43" t="n">
-        <v>155.6702</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>2</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0.1527</v>
-      </c>
-      <c r="M43" t="n">
-        <v>10.6988</v>
-      </c>
-      <c r="N43" t="b">
-        <v>1</v>
-      </c>
-      <c r="O43" t="b">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>-29</v>
-      </c>
-      <c r="B44" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="C44" t="n">
-        <v>136.648</v>
-      </c>
-      <c r="D44" t="n">
-        <v>32.2605</v>
-      </c>
-      <c r="E44" t="n">
-        <v>41.3272</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0.0404</v>
-      </c>
-      <c r="G44" t="n">
-        <v>6.2398</v>
-      </c>
-      <c r="H44" t="n">
-        <v>2.657</v>
-      </c>
-      <c r="I44" t="n">
-        <v>153.6993</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>2</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0.1676</v>
-      </c>
-      <c r="M44" t="n">
-        <v>4.4395</v>
-      </c>
-      <c r="N44" t="b">
-        <v>0</v>
-      </c>
-      <c r="O44" t="b">
-        <v>1</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>-29</v>
-      </c>
-      <c r="B45" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="C45" t="n">
-        <v>139.4626</v>
-      </c>
-      <c r="D45" t="n">
-        <v>32.5104</v>
-      </c>
-      <c r="E45" t="n">
-        <v>41.2714</v>
-      </c>
-      <c r="F45" t="n">
-        <v>0.027</v>
-      </c>
-      <c r="G45" t="n">
-        <v>6.2458</v>
-      </c>
-      <c r="H45" t="n">
-        <v>2.6413</v>
-      </c>
-      <c r="I45" t="n">
-        <v>155.6702</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="n">
-        <v>2</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0.1764</v>
-      </c>
-      <c r="M45" t="n">
-        <v>2.965</v>
-      </c>
-      <c r="N45" t="b">
-        <v>1</v>
-      </c>
-      <c r="O45" t="b">
-        <v>1</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>-25</v>
-      </c>
-      <c r="B46" t="n">
-        <v>1</v>
-      </c>
-      <c r="C46" t="n">
-        <v>165.66</v>
-      </c>
-      <c r="D46" t="n">
-        <v>34.0824</v>
-      </c>
-      <c r="E46" t="n">
-        <v>48.6126</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0.0837</v>
-      </c>
-      <c r="G46" t="n">
-        <v>6.3014</v>
-      </c>
-      <c r="H46" t="n">
-        <v>1.0121</v>
-      </c>
-      <c r="I46" t="n">
-        <v>160.1101</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>2</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0.1504</v>
-      </c>
-      <c r="M46" t="n">
-        <v>9.203099999999999</v>
-      </c>
-      <c r="N46" t="b">
-        <v>0</v>
-      </c>
-      <c r="O46" t="b">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>-25</v>
-      </c>
-      <c r="B47" t="n">
-        <v>1</v>
-      </c>
-      <c r="C47" t="n">
-        <v>165.66</v>
-      </c>
-      <c r="D47" t="n">
-        <v>34.0824</v>
-      </c>
-      <c r="E47" t="n">
-        <v>48.1848</v>
-      </c>
-      <c r="F47" t="n">
-        <v>0.0767</v>
-      </c>
-      <c r="G47" t="n">
-        <v>6.3014</v>
-      </c>
-      <c r="H47" t="n">
-        <v>1.0133</v>
-      </c>
-      <c r="I47" t="n">
-        <v>162.0528</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="n">
-        <v>2</v>
-      </c>
-      <c r="L47" t="n">
-        <v>0.1571</v>
-      </c>
-      <c r="M47" t="n">
-        <v>8.433</v>
-      </c>
-      <c r="N47" t="b">
-        <v>1</v>
-      </c>
-      <c r="O47" t="b">
-        <v>0</v>
-      </c>
-      <c r="P47" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>-25</v>
-      </c>
-      <c r="B48" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="C48" t="n">
-        <v>149.9624</v>
-      </c>
-      <c r="D48" t="n">
-        <v>33.3878</v>
-      </c>
-      <c r="E48" t="n">
-        <v>44.4431</v>
-      </c>
-      <c r="F48" t="n">
-        <v>0.0506</v>
-      </c>
-      <c r="G48" t="n">
-        <v>6.2681</v>
-      </c>
-      <c r="H48" t="n">
-        <v>2.0802</v>
-      </c>
-      <c r="I48" t="n">
-        <v>160.0862</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="n">
-        <v>2</v>
-      </c>
-      <c r="L48" t="n">
-        <v>0.1617</v>
-      </c>
-      <c r="M48" t="n">
-        <v>5.5579</v>
-      </c>
-      <c r="N48" t="b">
-        <v>0</v>
-      </c>
-      <c r="O48" t="b">
-        <v>1</v>
-      </c>
-      <c r="P48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>-25</v>
-      </c>
-      <c r="B49" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="C49" t="n">
-        <v>148.1441</v>
-      </c>
-      <c r="D49" t="n">
-        <v>33.2492</v>
-      </c>
-      <c r="E49" t="n">
-        <v>43.7285</v>
-      </c>
-      <c r="F49" t="n">
-        <v>0.0408</v>
-      </c>
-      <c r="G49" t="n">
-        <v>6.2642</v>
-      </c>
-      <c r="H49" t="n">
-        <v>2.2276</v>
-      </c>
-      <c r="I49" t="n">
-        <v>162.0528</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="n">
-        <v>2</v>
-      </c>
-      <c r="L49" t="n">
-        <v>0.1693</v>
-      </c>
-      <c r="M49" t="n">
-        <v>4.4886</v>
-      </c>
-      <c r="N49" t="b">
-        <v>1</v>
-      </c>
-      <c r="O49" t="b">
-        <v>1</v>
-      </c>
-      <c r="P49" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v>-20</v>
-      </c>
-      <c r="B50" t="n">
-        <v>1</v>
-      </c>
-      <c r="C50" t="n">
-        <v>165.66</v>
-      </c>
-      <c r="D50" t="n">
-        <v>34.0912</v>
-      </c>
-      <c r="E50" t="n">
-        <v>50.3362</v>
-      </c>
-      <c r="F50" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="G50" t="n">
-        <v>6.3014</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0.9156</v>
-      </c>
-      <c r="I50" t="n">
-        <v>164.6206</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="n">
-        <v>2</v>
-      </c>
-      <c r="L50" t="n">
-        <v>0.1278</v>
-      </c>
-      <c r="M50" t="n">
-        <v>7.6949</v>
-      </c>
-      <c r="N50" t="b">
-        <v>0</v>
-      </c>
-      <c r="O50" t="b">
-        <v>0</v>
-      </c>
-      <c r="P50" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>-20</v>
-      </c>
-      <c r="B51" t="n">
-        <v>1</v>
-      </c>
-      <c r="C51" t="n">
-        <v>165.66</v>
-      </c>
-      <c r="D51" t="n">
-        <v>34.0912</v>
-      </c>
-      <c r="E51" t="n">
-        <v>50.0025</v>
-      </c>
-      <c r="F51" t="n">
-        <v>0.064</v>
-      </c>
-      <c r="G51" t="n">
-        <v>6.3014</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0.9151</v>
-      </c>
-      <c r="I51" t="n">
-        <v>166.2935</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
-      <c r="K51" t="n">
-        <v>2</v>
-      </c>
-      <c r="L51" t="n">
-        <v>0.133</v>
-      </c>
-      <c r="M51" t="n">
-        <v>7.0392</v>
-      </c>
-      <c r="N51" t="b">
-        <v>1</v>
-      </c>
-      <c r="O51" t="b">
-        <v>0</v>
-      </c>
-      <c r="P51" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>-20</v>
-      </c>
-      <c r="B52" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="C52" t="n">
-        <v>151.1294</v>
-      </c>
-      <c r="D52" t="n">
-        <v>33.4814</v>
-      </c>
-      <c r="E52" t="n">
-        <v>46.4052</v>
-      </c>
-      <c r="F52" t="n">
-        <v>0.0404</v>
-      </c>
-      <c r="G52" t="n">
-        <v>6.2706</v>
-      </c>
-      <c r="H52" t="n">
-        <v>1.8755</v>
-      </c>
-      <c r="I52" t="n">
-        <v>164.5979</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
-      <c r="K52" t="n">
-        <v>2</v>
-      </c>
-      <c r="L52" t="n">
-        <v>0.1377</v>
-      </c>
-      <c r="M52" t="n">
-        <v>4.4389</v>
-      </c>
-      <c r="N52" t="b">
-        <v>0</v>
-      </c>
-      <c r="O52" t="b">
-        <v>1</v>
-      </c>
-      <c r="P52" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>-20</v>
-      </c>
-      <c r="B53" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="C53" t="n">
-        <v>153.7236</v>
-      </c>
-      <c r="D53" t="n">
-        <v>33.6565</v>
-      </c>
-      <c r="E53" t="n">
-        <v>46.6979</v>
-      </c>
-      <c r="F53" t="n">
-        <v>0.0402</v>
-      </c>
-      <c r="G53" t="n">
-        <v>6.2761</v>
-      </c>
-      <c r="H53" t="n">
-        <v>1.6788</v>
-      </c>
-      <c r="I53" t="n">
-        <v>166.2935</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
-      <c r="K53" t="n">
-        <v>2</v>
-      </c>
-      <c r="L53" t="n">
-        <v>0.1411</v>
-      </c>
-      <c r="M53" t="n">
-        <v>4.4217</v>
-      </c>
-      <c r="N53" t="b">
-        <v>1</v>
-      </c>
-      <c r="O53" t="b">
-        <v>1</v>
-      </c>
-      <c r="P53" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>-15</v>
-      </c>
-      <c r="B54" t="n">
-        <v>1</v>
-      </c>
-      <c r="C54" t="n">
-        <v>165.66</v>
-      </c>
-      <c r="D54" t="n">
-        <v>34.0948</v>
-      </c>
-      <c r="E54" t="n">
-        <v>53.081</v>
-      </c>
-      <c r="F54" t="n">
-        <v>0.07439999999999999</v>
-      </c>
-      <c r="G54" t="n">
-        <v>6.3014</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0.8003</v>
-      </c>
-      <c r="I54" t="n">
-        <v>164.3532</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
-      <c r="K54" t="n">
-        <v>2</v>
-      </c>
-      <c r="L54" t="n">
-        <v>0.0939</v>
-      </c>
-      <c r="M54" t="n">
-        <v>8.1805</v>
-      </c>
-      <c r="N54" t="b">
-        <v>0</v>
-      </c>
-      <c r="O54" t="b">
-        <v>0</v>
-      </c>
-      <c r="P54" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>-15</v>
-      </c>
-      <c r="B55" t="n">
-        <v>1</v>
-      </c>
-      <c r="C55" t="n">
-        <v>165.66</v>
-      </c>
-      <c r="D55" t="n">
-        <v>34.0948</v>
-      </c>
-      <c r="E55" t="n">
-        <v>52.8285</v>
-      </c>
-      <c r="F55" t="n">
-        <v>0.0698</v>
-      </c>
-      <c r="G55" t="n">
-        <v>6.3014</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0.7997</v>
-      </c>
-      <c r="I55" t="n">
-        <v>165.6385</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
-      <c r="K55" t="n">
-        <v>2</v>
-      </c>
-      <c r="L55" t="n">
-        <v>0.0975</v>
-      </c>
-      <c r="M55" t="n">
-        <v>7.6748</v>
-      </c>
-      <c r="N55" t="b">
-        <v>1</v>
-      </c>
-      <c r="O55" t="b">
-        <v>0</v>
-      </c>
-      <c r="P55" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>-15</v>
-      </c>
-      <c r="B56" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="C56" t="n">
-        <v>149.9048</v>
-      </c>
-      <c r="D56" t="n">
-        <v>33.3957</v>
-      </c>
-      <c r="E56" t="n">
-        <v>48.6739</v>
-      </c>
-      <c r="F56" t="n">
-        <v>0.0404</v>
-      </c>
-      <c r="G56" t="n">
-        <v>6.268</v>
-      </c>
-      <c r="H56" t="n">
-        <v>1.7896</v>
-      </c>
-      <c r="I56" t="n">
-        <v>164.3321</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
-      <c r="K56" t="n">
-        <v>2</v>
-      </c>
-      <c r="L56" t="n">
-        <v>0.1049</v>
-      </c>
-      <c r="M56" t="n">
-        <v>4.4368</v>
-      </c>
-      <c r="N56" t="b">
-        <v>0</v>
-      </c>
-      <c r="O56" t="b">
-        <v>1</v>
-      </c>
-      <c r="P56" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>-15</v>
-      </c>
-      <c r="B57" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="C57" t="n">
-        <v>151.8734</v>
-      </c>
-      <c r="D57" t="n">
-        <v>33.5372</v>
-      </c>
-      <c r="E57" t="n">
-        <v>48.9493</v>
-      </c>
-      <c r="F57" t="n">
-        <v>0.041</v>
-      </c>
-      <c r="G57" t="n">
-        <v>6.2721</v>
-      </c>
-      <c r="H57" t="n">
-        <v>1.6443</v>
-      </c>
-      <c r="I57" t="n">
-        <v>165.6385</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
-      <c r="K57" t="n">
-        <v>2</v>
-      </c>
-      <c r="L57" t="n">
-        <v>0.1068</v>
-      </c>
-      <c r="M57" t="n">
-        <v>4.5128</v>
-      </c>
-      <c r="N57" t="b">
-        <v>1</v>
-      </c>
-      <c r="O57" t="b">
-        <v>1</v>
-      </c>
-      <c r="P57" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>-10</v>
-      </c>
-      <c r="B58" t="n">
-        <v>1</v>
-      </c>
-      <c r="C58" t="n">
-        <v>165.66</v>
-      </c>
-      <c r="D58" t="n">
-        <v>34.0869</v>
-      </c>
-      <c r="E58" t="n">
-        <v>55.674</v>
-      </c>
-      <c r="F58" t="n">
-        <v>0.0781</v>
-      </c>
-      <c r="G58" t="n">
-        <v>6.3014</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0.6875</v>
-      </c>
-      <c r="I58" t="n">
-        <v>164.086</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
-      <c r="K58" t="n">
-        <v>2</v>
-      </c>
-      <c r="L58" t="n">
-        <v>0.06519999999999999</v>
-      </c>
-      <c r="M58" t="n">
-        <v>8.5871</v>
-      </c>
-      <c r="N58" t="b">
-        <v>0</v>
-      </c>
-      <c r="O58" t="b">
-        <v>0</v>
-      </c>
-      <c r="P58" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>-10</v>
-      </c>
-      <c r="B59" t="n">
-        <v>1</v>
-      </c>
-      <c r="C59" t="n">
-        <v>165.66</v>
-      </c>
-      <c r="D59" t="n">
-        <v>34.0869</v>
-      </c>
-      <c r="E59" t="n">
-        <v>55.515</v>
-      </c>
-      <c r="F59" t="n">
-        <v>0.075</v>
-      </c>
-      <c r="G59" t="n">
-        <v>6.3014</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0.6879</v>
-      </c>
-      <c r="I59" t="n">
-        <v>164.9823</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
-      <c r="K59" t="n">
-        <v>2</v>
-      </c>
-      <c r="L59" t="n">
-        <v>0.0674</v>
-      </c>
-      <c r="M59" t="n">
-        <v>8.2445</v>
-      </c>
-      <c r="N59" t="b">
-        <v>1</v>
-      </c>
-      <c r="O59" t="b">
-        <v>0</v>
-      </c>
-      <c r="P59" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>-10</v>
-      </c>
-      <c r="B60" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="C60" t="n">
-        <v>151.5775</v>
-      </c>
-      <c r="D60" t="n">
-        <v>33.5088</v>
-      </c>
-      <c r="E60" t="n">
-        <v>51.2327</v>
-      </c>
-      <c r="F60" t="n">
-        <v>0.0405</v>
-      </c>
-      <c r="G60" t="n">
-        <v>6.2715</v>
-      </c>
-      <c r="H60" t="n">
-        <v>1.4662</v>
-      </c>
-      <c r="I60" t="n">
-        <v>164.0664</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
-      <c r="K60" t="n">
-        <v>2</v>
-      </c>
-      <c r="L60" t="n">
-        <v>0.0774</v>
-      </c>
-      <c r="M60" t="n">
-        <v>4.4509</v>
-      </c>
-      <c r="N60" t="b">
-        <v>0</v>
-      </c>
-      <c r="O60" t="b">
-        <v>1</v>
-      </c>
-      <c r="P60" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>-10</v>
-      </c>
-      <c r="B61" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="C61" t="n">
-        <v>152.7479</v>
-      </c>
-      <c r="D61" t="n">
-        <v>33.5888</v>
-      </c>
-      <c r="E61" t="n">
-        <v>51.428</v>
-      </c>
-      <c r="F61" t="n">
-        <v>0.0398</v>
-      </c>
-      <c r="G61" t="n">
-        <v>6.274</v>
-      </c>
-      <c r="H61" t="n">
-        <v>1.3558</v>
-      </c>
-      <c r="I61" t="n">
-        <v>164.9823</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
-      <c r="K61" t="n">
-        <v>2</v>
-      </c>
-      <c r="L61" t="n">
-        <v>0.0789</v>
-      </c>
-      <c r="M61" t="n">
-        <v>4.3769</v>
-      </c>
-      <c r="N61" t="b">
-        <v>1</v>
-      </c>
-      <c r="O61" t="b">
-        <v>1</v>
-      </c>
-      <c r="P61" t="n">
         <v>0</v>
       </c>
     </row>
